--- a/WSC/Test Report/SLCM/WSC SLCM_Admission_ Fees & Payment entry.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Admission_ Fees & Payment entry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="5"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,14 @@
     <sheet name="TC2_Fees Schedule" sheetId="4" r:id="rId3"/>
     <sheet name="TC3_Fee_Catagory" sheetId="8" r:id="rId4"/>
     <sheet name="TC4_Admission_Fees" sheetId="9" r:id="rId5"/>
-    <sheet name="TC5_Payment_Entry" sheetId="10" r:id="rId6"/>
-    <sheet name="Generic" sheetId="7" r:id="rId7"/>
+    <sheet name="Generic" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="516">
   <si>
     <t>Contents</t>
   </si>
@@ -923,6 +922,9 @@
   </si>
   <si>
     <t>Student Group Table</t>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
   <si>
     <t>Enter the Student group in the table</t>
@@ -1697,301 +1699,6 @@
     </r>
   </si>
   <si>
-    <t>TC5_Payment_Entry</t>
-  </si>
-  <si>
-    <t>Payment Entry is a record indicating that payment has been made for an invoice.
-Payment Entry can be made against the following transactions.
-1.Sales Invoice
-2.Purchase Invoice
-3.Sales Order (Advance Payment)
-4.Purchase Order (Advance Payment)
-5.Expense Claim
-6.Internal Transfer</t>
-  </si>
-  <si>
-    <t>Aman Kumar Singh</t>
-  </si>
-  <si>
-    <t>The system should have records in the following screen
-1.Mode of Payment
-2.Accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add Payment Entry, Type of payment, Payment From / To, Accounts, GST Details, Accounting Dimensions 
-</t>
-  </si>
-  <si>
-    <t>Home &gt; Payroll &gt; Transactional Screens &gt; Payment Entry</t>
-  </si>
-  <si>
-    <t>Go to Home &gt; Payroll &gt; Transactional Screens &gt; Payment Entry</t>
-  </si>
-  <si>
-    <t>Payment Entry page should be displayed</t>
-  </si>
-  <si>
-    <t>Click on Add Payment Entry button</t>
-  </si>
-  <si>
-    <t>Add new Payment Entry page should be displayed</t>
-  </si>
-  <si>
-    <t>Click on Pyment Type drop down. 
-default data : Receive
-                            Pay
-                            Internal Transfer</t>
-  </si>
-  <si>
-    <t>Payment Type dropdown should be clickable
-Data should be shown</t>
-  </si>
-  <si>
-    <t>Choose on Receive or pay from payment type</t>
-  </si>
-  <si>
-    <t>Payment from / to section &amp; Accounts section should be shown</t>
-  </si>
-  <si>
-    <t>click on posting date, put the date</t>
-  </si>
-  <si>
-    <t>datepicker box should be open. user should able to put the date</t>
-  </si>
-  <si>
-    <t>click on company dropdown, choose the company</t>
-  </si>
-  <si>
-    <t>user should able to select the company. it should be a link field</t>
-  </si>
-  <si>
-    <t>click on mode of payment dropdown, choose the appropriate mode</t>
-  </si>
-  <si>
-    <t>user should able to select the appropriate mode, it should be a link field</t>
-  </si>
-  <si>
-    <t>Verify the screen when mode of payment field is filled as cash</t>
-  </si>
-  <si>
-    <t>Account currency &amp; account balance field should be shown</t>
-  </si>
-  <si>
-    <t>Click on party type dropdown in payment from / to section, select the type of party</t>
-  </si>
-  <si>
-    <t>User should able to select the party type.
-It should a link field.
-Party &amp; party name field should be open</t>
-  </si>
-  <si>
-    <t>Verify the screen when user input the party type as supplier or customer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taxes &amp; charges section should be open </t>
-  </si>
-  <si>
-    <t>Verify the screen when user input the party type as student</t>
-  </si>
-  <si>
-    <t>Alloting employee screen should be shown</t>
-  </si>
-  <si>
-    <t>Click on party and party name field, fill it</t>
-  </si>
-  <si>
-    <t>user should able to fill the party and party name field. Party field should be a link field</t>
-  </si>
-  <si>
-    <t>Click on Account paid from dropdown in account section, select any data</t>
-  </si>
-  <si>
-    <t>User should able to fill the account paid from field</t>
-  </si>
-  <si>
-    <t>Click on Account paid to dropdown  in account section, select any data</t>
-  </si>
-  <si>
-    <t>User should able to fill the account paid to field</t>
-  </si>
-  <si>
-    <t>Verify the account currency and account balance fields of account section when mode of payment was selected as cash</t>
-  </si>
-  <si>
-    <t>Account currency and account balance should be shown their unit default</t>
-  </si>
-  <si>
-    <t>Click on Sales Taxes and Charges Template dropdown, choose the data</t>
-  </si>
-  <si>
-    <t>User should able to choose the data and fill the Sales Taxes and Charges Template field</t>
-  </si>
-  <si>
-    <t>Click on add row of  Advance Taxes and Charges , fill the fields of row</t>
-  </si>
-  <si>
-    <t>new row should be open. 
-account related field should be shown</t>
-  </si>
-  <si>
-    <t>click on type dropdown, select one data</t>
-  </si>
-  <si>
-    <t>user should able to select the data and fill the type field.
-Default datas should be : Actual, on paid amount, on previous row amount, on previous row total</t>
-  </si>
-  <si>
-    <t>Click on account head dropdown, choose one</t>
-  </si>
-  <si>
-    <t>user should able to select the account head
-It should be a link field</t>
-  </si>
-  <si>
-    <t>Click on rate text field, fill it</t>
-  </si>
-  <si>
-    <t>User should able to fill rate text field</t>
-  </si>
-  <si>
-    <t>Click on amount text field, fill it</t>
-  </si>
-  <si>
-    <t>User should able to fill amount text field</t>
-  </si>
-  <si>
-    <t>Click on company address of GST Details, fill it</t>
-  </si>
-  <si>
-    <t>User should able to fill company address. it should be a link field</t>
-  </si>
-  <si>
-    <t>Click on project of Accounting Dimensions , fill it</t>
-  </si>
-  <si>
-    <t>User should able to fill project field
-it should be a link field</t>
-  </si>
-  <si>
-    <t>Click on cost center of Accounting Dimensions , fill it</t>
-  </si>
-  <si>
-    <t>User should able to fill cost center field
-it should be a link field</t>
-  </si>
-  <si>
-    <t>Click on get outstanding fees of allotting employee section</t>
-  </si>
-  <si>
-    <t>Filters popup should be shown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">put the data as per user filterness, </t>
-  </si>
-  <si>
-    <t>data should be shown as per user filter</t>
-  </si>
-  <si>
-    <t>fill all mandatory fields and required fields, click on save button</t>
-  </si>
-  <si>
-    <t>page should be saved successfully. details of new payment entry should be shown on dashboard page</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>User Role Permission:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Admin</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Login to the screen as Admin and check the permissions</t>
-    </r>
-  </si>
-  <si>
-    <t>This role should have Read ,Write ,Create, Delete   Permisson Only</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>User Role Permission:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Student</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Login to the screen as Student and check the permissions</t>
-    </r>
-  </si>
-  <si>
-    <t>This role should have Read ,Write ,  Permisson Only</t>
-  </si>
-  <si>
     <t xml:space="preserve">Generic </t>
   </si>
   <si>
@@ -2480,7 +2187,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2710,13 +2417,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2992,15 +2692,6 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -3011,11 +2702,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -3031,11 +2722,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -3081,6 +2772,15 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -3334,7 +3034,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3388,16 +3088,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3405,129 +3099,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3576,7 +3228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
@@ -3585,10 +3237,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
@@ -3619,37 +3271,34 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
@@ -3658,70 +3307,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
@@ -3744,13 +3393,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
@@ -3759,16 +3408,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3790,7 +3439,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3799,7 +3448,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4137,84 +3786,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="23.8571428571429" style="162" customWidth="1"/>
-    <col min="2" max="2" width="34.4285714285714" style="162" customWidth="1"/>
-    <col min="3" max="3" width="29" style="162" customWidth="1"/>
-    <col min="4" max="4" width="30" style="162" customWidth="1"/>
-    <col min="5" max="5" width="19.7238095238095" style="162" customWidth="1"/>
-    <col min="6" max="6" width="25" style="162" customWidth="1"/>
-    <col min="7" max="7" width="19.7238095238095" style="162" customWidth="1"/>
-    <col min="8" max="8" width="15" style="162" customWidth="1"/>
-    <col min="9" max="9" width="20" style="162" customWidth="1"/>
-    <col min="10" max="10" width="14.6285714285714" style="162" customWidth="1"/>
-    <col min="11" max="11" width="12.9047619047619" style="162" customWidth="1"/>
-    <col min="12" max="12" width="15.7238095238095" style="162" customWidth="1"/>
-    <col min="13" max="13" width="14.4571428571429" style="162" customWidth="1"/>
-    <col min="14" max="14" width="20.2666666666667" style="162" customWidth="1"/>
-    <col min="15" max="15" width="29.9047619047619" style="162" customWidth="1"/>
-    <col min="16" max="16383" width="8.72380952380952" style="162"/>
+    <col min="1" max="1" width="23.8571428571429" style="145" customWidth="1"/>
+    <col min="2" max="2" width="34.4285714285714" style="145" customWidth="1"/>
+    <col min="3" max="3" width="29" style="145" customWidth="1"/>
+    <col min="4" max="4" width="30" style="145" customWidth="1"/>
+    <col min="5" max="5" width="19.7238095238095" style="145" customWidth="1"/>
+    <col min="6" max="6" width="25" style="145" customWidth="1"/>
+    <col min="7" max="7" width="19.7238095238095" style="145" customWidth="1"/>
+    <col min="8" max="8" width="15" style="145" customWidth="1"/>
+    <col min="9" max="9" width="20" style="145" customWidth="1"/>
+    <col min="10" max="10" width="14.6285714285714" style="145" customWidth="1"/>
+    <col min="11" max="11" width="12.9047619047619" style="145" customWidth="1"/>
+    <col min="12" max="12" width="15.7238095238095" style="145" customWidth="1"/>
+    <col min="13" max="13" width="14.4571428571429" style="145" customWidth="1"/>
+    <col min="14" max="14" width="20.2666666666667" style="145" customWidth="1"/>
+    <col min="15" max="15" width="29.9047619047619" style="145" customWidth="1"/>
+    <col min="16" max="16383" width="8.72380952380952" style="145"/>
   </cols>
   <sheetData>
-    <row r="1" s="162" customFormat="1"/>
-    <row r="2" s="162" customFormat="1" ht="21" spans="1:8">
-      <c r="A2" s="163" t="s">
+    <row r="1" s="145" customFormat="1"/>
+    <row r="2" s="145" customFormat="1" ht="21" spans="1:8">
+      <c r="A2" s="146" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-    </row>
-    <row r="3" s="162" customFormat="1"/>
-    <row r="4" s="162" customFormat="1" ht="150" spans="1:14">
-      <c r="A4" s="165" t="s">
+      <c r="B2" s="147"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="147"/>
+    </row>
+    <row r="3" s="145" customFormat="1"/>
+    <row r="4" s="145" customFormat="1" ht="150" spans="1:14">
+      <c r="A4" s="148" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="165" t="s">
+      <c r="B4" s="148" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="165" t="s">
+      <c r="C4" s="148" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="165" t="s">
+      <c r="D4" s="148" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="166" t="s">
+      <c r="E4" s="149" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="165" t="s">
+      <c r="F4" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="165" t="s">
+      <c r="G4" s="148" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="165" t="s">
+      <c r="H4" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="168"/>
-      <c r="J4" s="169"/>
-      <c r="K4" s="168"/>
-      <c r="L4" s="168"/>
-      <c r="M4" s="168"/>
-      <c r="N4" s="168"/>
-    </row>
-    <row r="5" s="162" customFormat="1" spans="2:14">
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="167"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="152"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+    </row>
+    <row r="5" s="145" customFormat="1" spans="2:14">
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="150"/>
+      <c r="I5" s="150"/>
+      <c r="J5" s="150"/>
+      <c r="K5" s="150"/>
+      <c r="L5" s="150"/>
+      <c r="M5" s="150"/>
+      <c r="N5" s="150"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4230,7 +3879,7 @@
   <sheetPr/>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -4246,193 +3895,193 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="70"/>
+      <c r="D6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="120" spans="1:7">
-      <c r="A7" s="85">
+      <c r="A7" s="69">
         <v>1</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="37" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
+      <c r="F7" s="82"/>
+      <c r="G7" s="82"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
-      <c r="A8" s="85">
+      <c r="A8" s="69">
         <v>2</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="85">
+      <c r="A9" s="69">
         <v>3</v>
       </c>
-      <c r="B9" s="91" t="s">
+      <c r="B9" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="85">
+      <c r="A10" s="69">
         <v>4</v>
       </c>
-      <c r="B10" s="91" t="s">
+      <c r="B10" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="85">
+      <c r="A11" s="69">
         <v>5</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="85">
+      <c r="A12" s="69">
         <v>6</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="85">
+      <c r="A13" s="69">
         <v>7</v>
       </c>
-      <c r="B13" s="91" t="s">
+      <c r="B13" s="75" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="85">
+      <c r="A14" s="69">
         <v>8</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="85">
+      <c r="A15" s="69">
         <v>9</v>
       </c>
-      <c r="B15" s="91" t="s">
+      <c r="B15" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:2">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="76" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="93">
+      <c r="A19" s="77">
         <v>1</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="98"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="95">
+      <c r="A20" s="79">
         <v>2</v>
       </c>
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="82"/>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:2">
-      <c r="A21" s="95">
+      <c r="A21" s="79">
         <v>3</v>
       </c>
       <c r="B21" s="7" t="s">
@@ -4440,7 +4089,7 @@
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:2">
-      <c r="A22" s="95">
+      <c r="A22" s="79">
         <v>4</v>
       </c>
       <c r="B22" s="7" t="s">
@@ -4448,7 +4097,7 @@
       </c>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:2">
-      <c r="A23" s="95">
+      <c r="A23" s="79">
         <v>5</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -4456,7 +4105,7 @@
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:2">
-      <c r="A24" s="96">
+      <c r="A24" s="80">
         <v>6</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -4464,7 +4113,7 @@
       </c>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:2">
-      <c r="A25" s="96">
+      <c r="A25" s="80">
         <v>7</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4472,7 +4121,7 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:2">
-      <c r="A26" s="96">
+      <c r="A26" s="80">
         <v>8</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -4480,882 +4129,882 @@
       </c>
     </row>
     <row r="32" s="1" customFormat="1" spans="1:7">
-      <c r="A32" s="97" t="s">
+      <c r="A32" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="97" t="s">
+      <c r="B32" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="97" t="s">
+      <c r="C32" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="D32" s="97" t="s">
+      <c r="D32" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="82" t="s">
+      <c r="E32" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="F32" s="82" t="s">
+      <c r="F32" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G32" s="98"/>
+      <c r="G32" s="82"/>
     </row>
     <row r="33" s="1" customFormat="1" spans="1:7">
-      <c r="A33" s="99">
+      <c r="A33" s="83">
         <v>1</v>
       </c>
-      <c r="B33" s="139" t="s">
+      <c r="B33" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="101" t="s">
+      <c r="C33" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="101" t="s">
+      <c r="D33" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="103"/>
-      <c r="G33" s="98"/>
+      <c r="E33" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="87"/>
+      <c r="G33" s="82"/>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="83">
+      <c r="A34" s="67">
         <v>2</v>
       </c>
-      <c r="B34" s="147" t="s">
+      <c r="B34" s="130" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="101" t="s">
+      <c r="D34" s="85" t="s">
         <v>47</v>
       </c>
-      <c r="E34" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="85"/>
+      <c r="E34" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="69"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="1:6">
-      <c r="A35" s="83">
+      <c r="A35" s="67">
         <v>3</v>
       </c>
-      <c r="B35" s="148" t="s">
+      <c r="B35" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="90" t="s">
+      <c r="C35" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D35" s="90" t="s">
+      <c r="D35" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="E35" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="85"/>
+      <c r="E35" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="69"/>
     </row>
     <row r="36" s="1" customFormat="1" spans="1:6">
-      <c r="A36" s="149">
+      <c r="A36" s="132">
         <v>4</v>
       </c>
-      <c r="B36" s="150" t="s">
+      <c r="B36" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="90" t="s">
+      <c r="C36" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="90" t="s">
+      <c r="D36" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="85"/>
+      <c r="E36" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="69"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="32" customHeight="1" spans="1:6">
-      <c r="A37" s="113">
+      <c r="A37" s="96">
         <v>5</v>
       </c>
-      <c r="B37" s="150" t="s">
+      <c r="B37" s="133" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="112" t="s">
+      <c r="C37" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="D37" s="112" t="s">
+      <c r="D37" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="E37" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="85"/>
+      <c r="E37" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="69"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A38" s="83">
+      <c r="A38" s="67">
         <v>6</v>
       </c>
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="D38" s="90" t="s">
+      <c r="D38" s="74" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="85"/>
+      <c r="E38" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="69"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="1:6">
-      <c r="A39" s="106">
+      <c r="A39" s="89">
         <v>7</v>
       </c>
-      <c r="B39" s="90" t="s">
+      <c r="B39" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="C39" s="90" t="s">
+      <c r="C39" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="D39" s="90" t="s">
+      <c r="D39" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="E39" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="85"/>
+      <c r="E39" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="69"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A40" s="114"/>
-      <c r="B40" s="90" t="s">
+      <c r="A40" s="97"/>
+      <c r="B40" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="110" t="s">
+      <c r="C40" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="85"/>
+      <c r="E40" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="69"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A41" s="83">
+      <c r="A41" s="67">
         <v>8</v>
       </c>
-      <c r="B41" s="116" t="s">
+      <c r="B41" s="99" t="s">
         <v>63</v>
       </c>
-      <c r="C41" s="116" t="s">
+      <c r="C41" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="D41" s="116" t="s">
+      <c r="D41" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="E41" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="85"/>
+      <c r="E41" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="69"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="83">
+      <c r="A42" s="67">
         <v>9</v>
       </c>
-      <c r="B42" s="101" t="s">
+      <c r="B42" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="D42" s="110" t="s">
+      <c r="D42" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="E42" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="85"/>
+      <c r="E42" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="69"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="83">
+      <c r="A43" s="67">
         <v>10</v>
       </c>
-      <c r="B43" s="101" t="s">
+      <c r="B43" s="85" t="s">
         <v>68</v>
       </c>
-      <c r="C43" s="101" t="s">
+      <c r="C43" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D43" s="101" t="s">
+      <c r="D43" s="85" t="s">
         <v>70</v>
       </c>
-      <c r="E43" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="85"/>
+      <c r="E43" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="69"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A44" s="117">
+      <c r="A44" s="100">
         <v>11</v>
       </c>
-      <c r="B44" s="151" t="s">
+      <c r="B44" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="119" t="s">
+      <c r="C44" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="D44" s="119" t="s">
+      <c r="D44" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="E44" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="85"/>
+      <c r="E44" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="69"/>
     </row>
     <row r="45" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="120">
+      <c r="A45" s="103">
         <v>12</v>
       </c>
-      <c r="B45" s="101" t="s">
+      <c r="B45" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C45" s="110" t="s">
+      <c r="C45" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="110" t="s">
+      <c r="D45" s="93" t="s">
         <v>74</v>
       </c>
-      <c r="E45" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="85"/>
+      <c r="E45" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="69"/>
     </row>
     <row r="46" s="1" customFormat="1" ht="31" customHeight="1" spans="1:6">
-      <c r="A46" s="121">
+      <c r="A46" s="104">
         <v>13</v>
       </c>
-      <c r="B46" s="101" t="s">
+      <c r="B46" s="85" t="s">
         <v>71</v>
       </c>
-      <c r="C46" s="110" t="s">
+      <c r="C46" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="D46" s="110" t="s">
+      <c r="D46" s="93" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="85"/>
+      <c r="E46" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="69"/>
     </row>
     <row r="47" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:6">
-      <c r="A47" s="122"/>
-      <c r="B47" s="97" t="s">
+      <c r="A47" s="105"/>
+      <c r="B47" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="C47" s="110"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="69"/>
+      <c r="E47" s="69"/>
+      <c r="F47" s="69"/>
     </row>
     <row r="48" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A48" s="99">
+      <c r="A48" s="83">
         <v>14</v>
       </c>
-      <c r="B48" s="152" t="s">
+      <c r="B48" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="C48" s="116" t="s">
+      <c r="C48" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="116" t="s">
+      <c r="D48" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="E48" s="102" t="s">
+      <c r="E48" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F48" s="7"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A49" s="122">
+      <c r="A49" s="105">
         <v>15</v>
       </c>
-      <c r="B49" s="110" t="s">
+      <c r="B49" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="110" t="s">
+      <c r="C49" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="D49" s="110" t="s">
+      <c r="D49" s="93" t="s">
         <v>81</v>
       </c>
-      <c r="E49" s="102" t="s">
+      <c r="E49" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F49" s="7"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A50" s="128"/>
-      <c r="B50" s="110" t="s">
+      <c r="A50" s="111"/>
+      <c r="B50" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="C50" s="110" t="s">
+      <c r="C50" s="93" t="s">
         <v>83</v>
       </c>
-      <c r="D50" s="110" t="s">
+      <c r="D50" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="E50" s="102" t="s">
+      <c r="E50" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F50" s="7"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A51" s="122">
+      <c r="A51" s="105">
         <v>17</v>
       </c>
-      <c r="B51" s="101" t="s">
+      <c r="B51" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="110" t="s">
+      <c r="C51" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="110" t="s">
+      <c r="D51" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E51" s="102" t="s">
+      <c r="E51" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F51" s="7"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A52" s="128"/>
-      <c r="B52" s="86" t="s">
+      <c r="A52" s="111"/>
+      <c r="B52" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="C52" s="110" t="s">
+      <c r="C52" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="D52" s="110" t="s">
+      <c r="D52" s="93" t="s">
         <v>90</v>
       </c>
-      <c r="E52" s="102" t="s">
+      <c r="E52" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F52" s="7"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A53" s="126">
+      <c r="A53" s="109">
         <v>18</v>
       </c>
-      <c r="B53" s="110" t="s">
+      <c r="B53" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="C53" s="110" t="s">
+      <c r="C53" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="D53" s="110" t="s">
+      <c r="D53" s="93" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="102" t="s">
+      <c r="E53" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="7"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A54" s="128"/>
-      <c r="B54" s="86" t="s">
+      <c r="A54" s="111"/>
+      <c r="B54" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="110" t="s">
+      <c r="C54" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="D54" s="110" t="s">
+      <c r="D54" s="93" t="s">
         <v>94</v>
       </c>
-      <c r="E54" s="102" t="s">
+      <c r="E54" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F54" s="7"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A55" s="106">
+      <c r="A55" s="89">
         <v>19</v>
       </c>
-      <c r="B55" s="90" t="s">
+      <c r="B55" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="C55" s="90" t="s">
+      <c r="C55" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="90" t="s">
+      <c r="D55" s="74" t="s">
         <v>97</v>
       </c>
-      <c r="E55" s="102" t="s">
+      <c r="E55" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F55" s="7"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A56" s="108"/>
-      <c r="B56" s="153" t="s">
+      <c r="A56" s="91"/>
+      <c r="B56" s="136" t="s">
         <v>98</v>
       </c>
-      <c r="C56" s="116" t="s">
+      <c r="C56" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="116" t="s">
+      <c r="D56" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="E56" s="102" t="s">
+      <c r="E56" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F56" s="7"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="114"/>
-      <c r="B57" s="101" t="s">
+      <c r="A57" s="97"/>
+      <c r="B57" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="C57" s="110" t="s">
+      <c r="C57" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="D57" s="110" t="s">
+      <c r="D57" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="E57" s="102" t="s">
+      <c r="E57" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="7"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
-      <c r="A58" s="154">
+      <c r="A58" s="137">
         <v>20</v>
       </c>
-      <c r="B58" s="155" t="s">
+      <c r="B58" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="C58" s="112" t="s">
+      <c r="C58" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="D58" s="112" t="s">
+      <c r="D58" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="E58" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="156"/>
+      <c r="E58" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="139"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="34.5" customHeight="1" spans="1:6">
-      <c r="A59" s="136">
+      <c r="A59" s="119">
         <v>21</v>
       </c>
-      <c r="B59" s="151" t="s">
+      <c r="B59" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="C59" s="119" t="s">
+      <c r="C59" s="102" t="s">
         <v>108</v>
       </c>
-      <c r="D59" s="119" t="s">
+      <c r="D59" s="102" t="s">
         <v>109</v>
       </c>
-      <c r="E59" s="102" t="s">
+      <c r="E59" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F59" s="7"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A60" s="154"/>
-      <c r="B60" s="157" t="s">
+      <c r="A60" s="137"/>
+      <c r="B60" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="C60" s="110" t="s">
+      <c r="C60" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="D60" s="110" t="s">
+      <c r="D60" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="E60" s="102" t="s">
+      <c r="E60" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F60" s="7"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="1:6">
-      <c r="A61" s="154">
+      <c r="A61" s="137">
         <v>23</v>
       </c>
-      <c r="B61" s="148" t="s">
+      <c r="B61" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="C61" s="101" t="s">
+      <c r="C61" s="85" t="s">
         <v>113</v>
       </c>
-      <c r="D61" s="101" t="s">
+      <c r="D61" s="85" t="s">
         <v>114</v>
       </c>
-      <c r="E61" s="102" t="s">
+      <c r="E61" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F61" s="7"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A62" s="154">
+      <c r="A62" s="137">
         <v>24</v>
       </c>
-      <c r="B62" s="148" t="s">
+      <c r="B62" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="110" t="s">
+      <c r="C62" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="D62" s="110" t="s">
+      <c r="D62" s="93" t="s">
         <v>117</v>
       </c>
-      <c r="E62" s="102" t="s">
+      <c r="E62" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F62" s="7"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A63" s="154">
+      <c r="A63" s="137">
         <v>25</v>
       </c>
-      <c r="B63" s="148" t="s">
+      <c r="B63" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="110" t="s">
+      <c r="C63" s="93" t="s">
         <v>119</v>
       </c>
-      <c r="D63" s="110" t="s">
+      <c r="D63" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="102" t="s">
+      <c r="E63" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F63" s="7"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="1:6">
-      <c r="A64" s="154">
+      <c r="A64" s="137">
         <v>26</v>
       </c>
-      <c r="B64" s="148" t="s">
+      <c r="B64" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="C64" s="110" t="s">
+      <c r="C64" s="93" t="s">
         <v>122</v>
       </c>
-      <c r="D64" s="110" t="s">
+      <c r="D64" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="E64" s="102" t="s">
+      <c r="E64" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F64" s="7"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A65" s="154">
+      <c r="A65" s="137">
         <v>27</v>
       </c>
-      <c r="B65" s="101" t="s">
+      <c r="B65" s="85" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="110" t="s">
+      <c r="C65" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="110" t="s">
+      <c r="D65" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="E65" s="102" t="s">
+      <c r="E65" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F65" s="7"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A66" s="154">
+      <c r="A66" s="137">
         <v>28</v>
       </c>
-      <c r="B66" s="101" t="s">
+      <c r="B66" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="C66" s="110" t="s">
+      <c r="C66" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="D66" s="110" t="s">
+      <c r="D66" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="E66" s="102" t="s">
+      <c r="E66" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F66" s="7"/>
     </row>
     <row r="67" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A67" s="154">
+      <c r="A67" s="137">
         <v>29</v>
       </c>
-      <c r="B67" s="101" t="s">
+      <c r="B67" s="85" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="110" t="s">
+      <c r="C67" s="93" t="s">
         <v>131</v>
       </c>
-      <c r="D67" s="110" t="s">
+      <c r="D67" s="93" t="s">
         <v>132</v>
       </c>
-      <c r="E67" s="102" t="s">
+      <c r="E67" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F67" s="7"/>
     </row>
     <row r="68" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A68" s="154">
+      <c r="A68" s="137">
         <v>30</v>
       </c>
-      <c r="B68" s="101" t="s">
+      <c r="B68" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="110" t="s">
+      <c r="C68" s="93" t="s">
         <v>134</v>
       </c>
-      <c r="D68" s="110" t="s">
+      <c r="D68" s="93" t="s">
         <v>135</v>
       </c>
-      <c r="E68" s="102" t="s">
+      <c r="E68" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F68" s="7"/>
     </row>
     <row r="69" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A69" s="154">
+      <c r="A69" s="137">
         <v>31</v>
       </c>
-      <c r="B69" s="101" t="s">
+      <c r="B69" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="110" t="s">
+      <c r="C69" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="D69" s="110" t="s">
+      <c r="D69" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="E69" s="102" t="s">
+      <c r="E69" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F69" s="7"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A70" s="154">
+      <c r="A70" s="137">
         <v>32</v>
       </c>
-      <c r="B70" s="101" t="s">
+      <c r="B70" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="C70" s="110" t="s">
+      <c r="C70" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="110" t="s">
+      <c r="D70" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="E70" s="102" t="s">
+      <c r="E70" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F70" s="7"/>
     </row>
     <row r="71" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A71" s="154">
+      <c r="A71" s="137">
         <v>33</v>
       </c>
-      <c r="B71" s="101" t="s">
+      <c r="B71" s="85" t="s">
         <v>141</v>
       </c>
-      <c r="C71" s="110" t="s">
+      <c r="C71" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="D71" s="110" t="s">
+      <c r="D71" s="93" t="s">
         <v>143</v>
       </c>
-      <c r="E71" s="102" t="s">
+      <c r="E71" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F71" s="7"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="1:6">
-      <c r="A72" s="154">
+      <c r="A72" s="137">
         <v>34</v>
       </c>
-      <c r="B72" s="101" t="s">
+      <c r="B72" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="C72" s="110" t="s">
+      <c r="C72" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="D72" s="110" t="s">
+      <c r="D72" s="93" t="s">
         <v>145</v>
       </c>
-      <c r="E72" s="102" t="s">
+      <c r="E72" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F72" s="7"/>
     </row>
     <row r="73" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A73" s="154">
+      <c r="A73" s="137">
         <v>35</v>
       </c>
-      <c r="B73" s="101" t="s">
+      <c r="B73" s="85" t="s">
         <v>146</v>
       </c>
-      <c r="C73" s="110" t="s">
+      <c r="C73" s="93" t="s">
         <v>147</v>
       </c>
-      <c r="D73" s="110" t="s">
+      <c r="D73" s="93" t="s">
         <v>148</v>
       </c>
-      <c r="E73" s="102" t="s">
+      <c r="E73" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F73" s="7"/>
     </row>
     <row r="74" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A74" s="154">
+      <c r="A74" s="137">
         <v>36</v>
       </c>
-      <c r="B74" s="101" t="s">
+      <c r="B74" s="85" t="s">
         <v>149</v>
       </c>
-      <c r="C74" s="110" t="s">
+      <c r="C74" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="D74" s="110" t="s">
+      <c r="D74" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="E74" s="102" t="s">
+      <c r="E74" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F74" s="7"/>
     </row>
     <row r="75" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A75" s="83">
+      <c r="A75" s="67">
         <v>37</v>
       </c>
-      <c r="B75" s="158" t="s">
+      <c r="B75" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="C75" s="158" t="s">
+      <c r="C75" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="D75" s="158" t="s">
+      <c r="D75" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="E75" s="102" t="s">
+      <c r="E75" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F75" s="7"/>
     </row>
     <row r="76" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A76" s="83">
+      <c r="A76" s="67">
         <v>38</v>
       </c>
-      <c r="B76" s="101" t="s">
+      <c r="B76" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="C76" s="110" t="s">
+      <c r="C76" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="D76" s="110" t="s">
+      <c r="D76" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="E76" s="102" t="s">
+      <c r="E76" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F76" s="7"/>
     </row>
     <row r="77" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A77" s="137">
+      <c r="A77" s="120">
         <v>39</v>
       </c>
-      <c r="B77" s="131" t="s">
+      <c r="B77" s="114" t="s">
         <v>156</v>
       </c>
-      <c r="C77" s="138" t="s">
+      <c r="C77" s="121" t="s">
         <v>157</v>
       </c>
-      <c r="D77" s="138" t="s">
+      <c r="D77" s="121" t="s">
         <v>158</v>
       </c>
-      <c r="E77" s="102" t="s">
+      <c r="E77" s="86" t="s">
         <v>45</v>
       </c>
       <c r="F77" s="7"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:4">
-      <c r="A78" s="140"/>
-      <c r="B78" s="141"/>
-      <c r="D78" s="140"/>
+      <c r="A78" s="123"/>
+      <c r="B78" s="124"/>
+      <c r="D78" s="123"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:4">
-      <c r="A79" s="140"/>
-      <c r="B79" s="141"/>
-      <c r="D79" s="140"/>
+      <c r="A79" s="123"/>
+      <c r="B79" s="124"/>
+      <c r="D79" s="123"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:6">
-      <c r="A80" s="142" t="s">
+      <c r="A80" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="B80" s="143"/>
-      <c r="C80" s="143"/>
-      <c r="D80" s="143"/>
-      <c r="E80" s="143"/>
-      <c r="F80" s="143"/>
+      <c r="B80" s="126"/>
+      <c r="C80" s="126"/>
+      <c r="D80" s="126"/>
+      <c r="E80" s="126"/>
+      <c r="F80" s="126"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A81" s="7">
         <v>40</v>
       </c>
-      <c r="B81" s="159" t="s">
+      <c r="B81" s="142" t="s">
         <v>160</v>
       </c>
-      <c r="C81" s="160" t="s">
+      <c r="C81" s="143" t="s">
         <v>161</v>
       </c>
-      <c r="D81" s="160" t="s">
+      <c r="D81" s="143" t="s">
         <v>162</v>
       </c>
-      <c r="E81" s="161" t="s">
-        <v>45</v>
-      </c>
-      <c r="F81" s="161"/>
+      <c r="E81" s="144" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" s="144"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:3">
-      <c r="A83" s="146"/>
-      <c r="B83" s="63"/>
-      <c r="C83" s="28"/>
+      <c r="A83" s="129"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="26"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:3">
-      <c r="A84" s="146"/>
-      <c r="B84" s="63"/>
-      <c r="C84" s="28"/>
+      <c r="A84" s="129"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="26"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:3">
-      <c r="A85" s="146"/>
-      <c r="B85" s="63"/>
-      <c r="C85" s="28"/>
+      <c r="A85" s="129"/>
+      <c r="B85" s="46"/>
+      <c r="C85" s="26"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:3">
-      <c r="A86" s="146"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="28"/>
+      <c r="A86" s="129"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="26"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:3">
-      <c r="A87" s="146"/>
-      <c r="B87" s="63"/>
-      <c r="C87" s="28"/>
+      <c r="A87" s="129"/>
+      <c r="B87" s="46"/>
+      <c r="C87" s="26"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:3">
-      <c r="A88" s="146"/>
-      <c r="B88" s="63"/>
-      <c r="C88" s="28"/>
+      <c r="A88" s="129"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -5380,8 +5029,8 @@
   <sheetPr/>
   <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -5396,945 +5045,1019 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="67" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="71" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="70"/>
+      <c r="D6" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="88"/>
-      <c r="G6" s="88"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="120" spans="1:7">
-      <c r="A7" s="85">
+      <c r="A7" s="69">
         <v>1</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="37" t="s">
+      <c r="C7" s="72"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="72"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
-      <c r="A8" s="85">
+      <c r="A8" s="69">
         <v>2</v>
       </c>
-      <c r="B8" s="89" t="s">
+      <c r="B8" s="73" t="s">
         <v>165</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="83"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="72"/>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:7">
-      <c r="A9" s="85"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
+      <c r="A9" s="69"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="86"/>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="87" t="s">
+      <c r="A12" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="93">
+      <c r="A13" s="77">
         <v>1</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="95">
+      <c r="A14" s="79">
         <v>2</v>
       </c>
-      <c r="B14" s="90" t="s">
+      <c r="B14" s="74" t="s">
         <v>166</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="88"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="95">
+      <c r="A15" s="79">
         <v>3</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="95">
+      <c r="A16" s="79">
         <v>4</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="86"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:7">
-      <c r="A17" s="95">
+      <c r="A17" s="79">
         <v>5</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="86"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="96">
+      <c r="A18" s="80">
         <v>6</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="96">
+      <c r="A19" s="80">
         <v>7</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="96">
+      <c r="A20" s="80">
         <v>8</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="86"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:7">
-      <c r="A26" s="97" t="s">
+      <c r="A26" s="81" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="97" t="s">
+      <c r="C26" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="97" t="s">
+      <c r="D26" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="82" t="s">
+      <c r="E26" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="82" t="s">
+      <c r="F26" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="98"/>
+      <c r="G26" s="82"/>
     </row>
     <row r="27" s="1" customFormat="1" spans="1:7">
-      <c r="A27" s="99">
+      <c r="A27" s="83">
         <v>1</v>
       </c>
-      <c r="B27" s="100" t="s">
+      <c r="B27" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="C27" s="101" t="s">
+      <c r="C27" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="D27" s="101" t="s">
+      <c r="D27" s="85" t="s">
         <v>168</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="98"/>
+      <c r="E27" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="87"/>
+      <c r="G27" s="82"/>
     </row>
     <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="83">
+      <c r="A28" s="67">
         <v>2</v>
       </c>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="C28" s="101" t="s">
+      <c r="C28" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="D28" s="101" t="s">
+      <c r="D28" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="E28" s="105"/>
-      <c r="F28" s="85"/>
+      <c r="E28" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="69"/>
     </row>
     <row r="29" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A29" s="106">
+      <c r="A29" s="89">
         <v>3</v>
       </c>
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="90" t="s">
         <v>171</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="D29" s="90" t="s">
+      <c r="D29" s="74" t="s">
         <v>172</v>
       </c>
-      <c r="E29" s="105"/>
-      <c r="F29" s="85"/>
+      <c r="E29" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="69"/>
     </row>
     <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A30" s="108"/>
-      <c r="B30" s="109" t="s">
+      <c r="A30" s="91"/>
+      <c r="B30" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="C30" s="110" t="s">
+      <c r="C30" s="93" t="s">
         <v>174</v>
       </c>
-      <c r="D30" s="110" t="s">
+      <c r="D30" s="93" t="s">
         <v>175</v>
       </c>
-      <c r="E30" s="105"/>
-      <c r="F30" s="85"/>
+      <c r="E30" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="69"/>
     </row>
     <row r="31" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A31" s="111">
+      <c r="A31" s="94">
         <v>4</v>
       </c>
-      <c r="B31" s="109" t="s">
+      <c r="B31" s="92" t="s">
         <v>176</v>
       </c>
-      <c r="C31" s="112" t="s">
+      <c r="C31" s="95" t="s">
         <v>177</v>
       </c>
-      <c r="D31" s="112" t="s">
+      <c r="D31" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="E31" s="105"/>
-      <c r="F31" s="85"/>
+      <c r="E31" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="69"/>
     </row>
     <row r="32" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A32" s="113"/>
-      <c r="B32" s="84" t="s">
+      <c r="A32" s="96"/>
+      <c r="B32" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="C32" s="110" t="s">
+      <c r="C32" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="93" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="105"/>
-      <c r="F32" s="85"/>
+      <c r="E32" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="69"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="106">
+      <c r="A33" s="89">
         <v>5</v>
       </c>
-      <c r="B33" s="84" t="s">
+      <c r="B33" s="68" t="s">
         <v>182</v>
       </c>
-      <c r="C33" s="112" t="s">
+      <c r="C33" s="95" t="s">
         <v>183</v>
       </c>
-      <c r="D33" s="112" t="s">
+      <c r="D33" s="95" t="s">
         <v>184</v>
       </c>
-      <c r="E33" s="105"/>
-      <c r="F33" s="85"/>
+      <c r="E33" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="69"/>
     </row>
     <row r="34" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="114"/>
-      <c r="B34" s="84" t="s">
+      <c r="A34" s="97"/>
+      <c r="B34" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C34" s="110" t="s">
+      <c r="C34" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="E34" s="105"/>
-      <c r="F34" s="85"/>
+      <c r="E34" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="69"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="125" customHeight="1" spans="1:6">
-      <c r="A35" s="106">
+      <c r="A35" s="89">
         <v>6</v>
       </c>
-      <c r="B35" s="115" t="s">
+      <c r="B35" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="C35" s="116" t="s">
+      <c r="C35" s="99" t="s">
         <v>187</v>
       </c>
-      <c r="D35" s="116" t="s">
+      <c r="D35" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="E35" s="110"/>
-      <c r="F35" s="85"/>
+      <c r="E35" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="69"/>
     </row>
     <row r="36" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A36" s="114"/>
-      <c r="B36" s="99" t="s">
+      <c r="A36" s="97"/>
+      <c r="B36" s="83" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="110" t="s">
+      <c r="C36" s="93" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="110" t="s">
+      <c r="D36" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="105"/>
-      <c r="F36" s="85"/>
+      <c r="E36" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="69"/>
     </row>
     <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="83">
+      <c r="A37" s="67">
         <v>7</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="101" t="s">
+      <c r="C37" s="85" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="101" t="s">
+      <c r="D37" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
+      <c r="E37" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="69"/>
     </row>
     <row r="38" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A38" s="117">
+      <c r="A38" s="100">
         <v>8</v>
       </c>
-      <c r="B38" s="118" t="s">
+      <c r="B38" s="101" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="119" t="s">
+      <c r="C38" s="102" t="s">
         <v>194</v>
       </c>
-      <c r="D38" s="119" t="s">
+      <c r="D38" s="102" t="s">
         <v>195</v>
       </c>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
+      <c r="E38" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="69"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A39" s="120">
+      <c r="A39" s="103">
         <v>9</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="C39" s="110" t="s">
+      <c r="C39" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="D39" s="110" t="s">
+      <c r="D39" s="93" t="s">
         <v>196</v>
       </c>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
+      <c r="E39" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="69"/>
     </row>
     <row r="40" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A40" s="121">
+      <c r="A40" s="104">
         <v>10</v>
       </c>
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="83" t="s">
         <v>197</v>
       </c>
-      <c r="C40" s="110" t="s">
+      <c r="C40" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="D40" s="110" t="s">
+      <c r="D40" s="93" t="s">
         <v>198</v>
       </c>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
+      <c r="E40" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="69"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A41" s="122">
+      <c r="A41" s="105">
         <v>11</v>
       </c>
-      <c r="B41" s="123" t="s">
+      <c r="B41" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="C41" s="124" t="s">
+      <c r="C41" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="D41" s="124" t="s">
+      <c r="D41" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="E41" s="85"/>
-      <c r="F41" s="85"/>
+      <c r="E41" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="69"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A42" s="122">
+      <c r="A42" s="105">
         <v>12</v>
       </c>
-      <c r="B42" s="125" t="s">
+      <c r="B42" s="108" t="s">
         <v>200</v>
       </c>
-      <c r="C42" s="110" t="s">
+      <c r="C42" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="D42" s="110" t="s">
+      <c r="D42" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="86" t="s">
+        <v>45</v>
+      </c>
       <c r="F42" s="7"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A43" s="126"/>
-      <c r="B43" s="125" t="s">
+      <c r="A43" s="109"/>
+      <c r="B43" s="108" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="110" t="s">
+      <c r="C43" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="D43" s="110" t="s">
+      <c r="D43" s="93" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="86" t="s">
+        <v>45</v>
+      </c>
       <c r="F43" s="7"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A44" s="126">
+      <c r="A44" s="109">
         <v>13</v>
       </c>
-      <c r="B44" s="100" t="s">
+      <c r="B44" s="84" t="s">
         <v>204</v>
       </c>
-      <c r="C44" s="116" t="s">
+      <c r="C44" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="D44" s="116" t="s">
+      <c r="D44" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
+      <c r="E44" s="86" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="110"/>
     </row>
     <row r="45" s="3" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="99">
+      <c r="A45" s="83">
         <v>14</v>
       </c>
-      <c r="B45" s="99" t="s">
+      <c r="B45" s="83" t="s">
         <v>206</v>
       </c>
-      <c r="C45" s="110" t="s">
+      <c r="C45" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="110" t="s">
+      <c r="D45" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="E45" s="7"/>
+      <c r="E45" s="86" t="s">
+        <v>45</v>
+      </c>
       <c r="F45" s="7"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="128"/>
-      <c r="B46" s="128"/>
-      <c r="C46" s="129"/>
-      <c r="D46" s="130"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="131"/>
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="112"/>
+      <c r="D46" s="113"/>
+      <c r="E46" s="114"/>
+      <c r="F46" s="114"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="99"/>
-      <c r="B47" s="132" t="s">
+      <c r="A47" s="83"/>
+      <c r="B47" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="133"/>
-      <c r="D47" s="130"/>
-      <c r="E47" s="131"/>
-      <c r="F47" s="131"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="114"/>
+      <c r="F47" s="114"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="99"/>
-      <c r="B48" s="99"/>
-      <c r="C48" s="133"/>
-      <c r="D48" s="130"/>
-      <c r="E48" s="131"/>
-      <c r="F48" s="131"/>
+      <c r="A48" s="83"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="114"/>
+      <c r="F48" s="114"/>
     </row>
     <row r="49" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A49" s="128">
+      <c r="A49" s="111">
         <v>15</v>
       </c>
-      <c r="B49" s="134" t="s">
+      <c r="B49" s="117" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="116" t="s">
+      <c r="C49" s="99" t="s">
         <v>78</v>
       </c>
-      <c r="D49" s="116" t="s">
+      <c r="D49" s="99" t="s">
         <v>79</v>
       </c>
-      <c r="E49" s="131"/>
-      <c r="F49" s="131"/>
+      <c r="E49" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" s="114"/>
     </row>
     <row r="50" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A50" s="122">
+      <c r="A50" s="105">
         <v>16</v>
       </c>
-      <c r="B50" s="135" t="s">
+      <c r="B50" s="118" t="s">
+        <v>209</v>
+      </c>
+      <c r="C50" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50" s="114" t="s">
         <v>208</v>
       </c>
-      <c r="C50" s="110" t="s">
-        <v>209</v>
-      </c>
-      <c r="D50" s="110" t="s">
-        <v>210</v>
-      </c>
-      <c r="E50" s="7"/>
       <c r="F50" s="7"/>
     </row>
     <row r="51" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A51" s="128"/>
-      <c r="B51" s="135" t="s">
-        <v>211</v>
-      </c>
-      <c r="C51" s="110" t="s">
+      <c r="A51" s="111"/>
+      <c r="B51" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="D51" s="110" t="s">
+      <c r="C51" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="D51" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="E51" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F51" s="7"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A52" s="122">
+      <c r="A52" s="105">
         <v>17</v>
       </c>
-      <c r="B52" s="99" t="s">
-        <v>214</v>
-      </c>
-      <c r="C52" s="110" t="s">
+      <c r="B52" s="83" t="s">
         <v>215</v>
       </c>
-      <c r="D52" s="110" t="s">
+      <c r="C52" s="93" t="s">
         <v>216</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="D52" s="93" t="s">
+        <v>217</v>
+      </c>
+      <c r="E52" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F52" s="7"/>
     </row>
     <row r="53" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A53" s="128">
+      <c r="A53" s="111">
         <v>18</v>
       </c>
-      <c r="B53" s="99" t="s">
+      <c r="B53" s="83" t="s">
         <v>136</v>
       </c>
-      <c r="C53" s="110" t="s">
+      <c r="C53" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="D53" s="110" t="s">
+      <c r="D53" s="93" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="7"/>
+      <c r="E53" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F53" s="7"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A54" s="128">
+      <c r="A54" s="111">
         <v>19</v>
       </c>
-      <c r="B54" s="99" t="s">
+      <c r="B54" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="C54" s="110" t="s">
+      <c r="C54" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="D54" s="110" t="s">
-        <v>217</v>
-      </c>
-      <c r="E54" s="7"/>
+      <c r="D54" s="93" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F54" s="7"/>
     </row>
     <row r="55" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A55" s="128">
+      <c r="A55" s="111">
         <v>20</v>
       </c>
-      <c r="B55" s="99" t="s">
+      <c r="B55" s="83" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="110" t="s">
+      <c r="C55" s="93" t="s">
         <v>142</v>
       </c>
-      <c r="D55" s="110" t="s">
-        <v>218</v>
-      </c>
-      <c r="E55" s="7"/>
+      <c r="D55" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="E55" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F55" s="7"/>
     </row>
     <row r="56" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A56" s="128">
+      <c r="A56" s="111">
         <v>21</v>
       </c>
-      <c r="B56" s="136" t="s">
+      <c r="B56" s="119" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="112" t="s">
+      <c r="C56" s="95" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="112" t="s">
+      <c r="D56" s="95" t="s">
         <v>106</v>
       </c>
-      <c r="E56" s="7"/>
+      <c r="E56" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F56" s="7"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="128">
+      <c r="A57" s="111">
         <v>22</v>
       </c>
-      <c r="B57" s="135"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="110"/>
-      <c r="E57" s="7"/>
+      <c r="B57" s="118"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F57" s="7"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A58" s="128">
+      <c r="A58" s="111">
         <v>23</v>
       </c>
-      <c r="B58" s="135" t="s">
-        <v>219</v>
-      </c>
-      <c r="C58" s="110" t="s">
+      <c r="B58" s="118" t="s">
         <v>220</v>
       </c>
-      <c r="D58" s="110" t="s">
+      <c r="C58" s="93" t="s">
         <v>221</v>
       </c>
-      <c r="E58" s="7"/>
+      <c r="D58" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="E58" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F58" s="7"/>
     </row>
     <row r="59" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A59" s="128">
+      <c r="A59" s="111">
         <v>24</v>
       </c>
-      <c r="B59" s="135" t="s">
-        <v>222</v>
-      </c>
-      <c r="C59" s="110" t="s">
+      <c r="B59" s="118" t="s">
         <v>223</v>
       </c>
-      <c r="D59" s="110" t="s">
+      <c r="C59" s="93" t="s">
         <v>224</v>
       </c>
-      <c r="E59" s="7"/>
+      <c r="D59" s="93" t="s">
+        <v>225</v>
+      </c>
+      <c r="E59" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F59" s="7"/>
     </row>
     <row r="60" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A60" s="128">
+      <c r="A60" s="111">
         <v>25</v>
       </c>
-      <c r="B60" s="135" t="s">
-        <v>225</v>
-      </c>
-      <c r="C60" s="110" t="s">
+      <c r="B60" s="118" t="s">
         <v>226</v>
       </c>
-      <c r="D60" s="110" t="s">
+      <c r="C60" s="93" t="s">
         <v>227</v>
       </c>
-      <c r="E60" s="7"/>
+      <c r="D60" s="93" t="s">
+        <v>228</v>
+      </c>
+      <c r="E60" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F60" s="7"/>
     </row>
     <row r="61" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A61" s="128">
+      <c r="A61" s="111">
         <v>26</v>
       </c>
-      <c r="B61" s="135" t="s">
-        <v>228</v>
-      </c>
-      <c r="C61" s="110" t="s">
+      <c r="B61" s="118" t="s">
         <v>229</v>
       </c>
-      <c r="D61" s="110" t="s">
-        <v>229</v>
-      </c>
-      <c r="E61" s="7"/>
+      <c r="C61" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="D61" s="93" t="s">
+        <v>230</v>
+      </c>
+      <c r="E61" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F61" s="7"/>
     </row>
     <row r="62" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A62" s="126">
+      <c r="A62" s="109">
         <v>27</v>
       </c>
-      <c r="B62" s="135" t="s">
-        <v>230</v>
-      </c>
-      <c r="C62" s="110" t="s">
+      <c r="B62" s="118" t="s">
         <v>231</v>
       </c>
-      <c r="D62" s="110" t="s">
-        <v>231</v>
-      </c>
-      <c r="E62" s="7"/>
+      <c r="C62" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="D62" s="93" t="s">
+        <v>232</v>
+      </c>
+      <c r="E62" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F62" s="7"/>
     </row>
     <row r="63" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A63" s="126">
+      <c r="A63" s="109">
         <v>28</v>
       </c>
-      <c r="B63" s="135" t="s">
+      <c r="B63" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="C63" s="110" t="s">
-        <v>232</v>
-      </c>
-      <c r="D63" s="110" t="s">
+      <c r="C63" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="E63" s="7"/>
+      <c r="D63" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F63" s="7"/>
     </row>
     <row r="64" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A64" s="128">
+      <c r="A64" s="111">
         <v>29</v>
       </c>
-      <c r="B64" s="99" t="s">
+      <c r="B64" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="110" t="s">
+      <c r="C64" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="D64" s="110" t="s">
+      <c r="D64" s="93" t="s">
         <v>155</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="114" t="s">
+        <v>208</v>
+      </c>
       <c r="F64" s="7"/>
     </row>
     <row r="65" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A65" s="137">
+      <c r="A65" s="120">
         <v>30</v>
       </c>
-      <c r="B65" s="137" t="s">
+      <c r="B65" s="120" t="s">
         <v>156</v>
       </c>
-      <c r="C65" s="138" t="s">
-        <v>234</v>
-      </c>
-      <c r="D65" s="138" t="s">
+      <c r="C65" s="121" t="s">
         <v>235</v>
       </c>
-      <c r="E65" s="86"/>
-      <c r="F65" s="86"/>
+      <c r="D65" s="121" t="s">
+        <v>236</v>
+      </c>
+      <c r="E65" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="F65" s="70"/>
     </row>
     <row r="66" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A66" s="128">
+      <c r="A66" s="111">
         <v>31</v>
       </c>
-      <c r="B66" s="139" t="s">
-        <v>236</v>
-      </c>
-      <c r="C66" s="116" t="s">
+      <c r="B66" s="122" t="s">
         <v>237</v>
       </c>
-      <c r="D66" s="116" t="s">
+      <c r="C66" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
+      <c r="D66" s="99" t="s">
+        <v>239</v>
+      </c>
+      <c r="E66" s="114" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" s="70"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="1:6">
-      <c r="A67" s="83"/>
-      <c r="B67" s="101"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="85"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="69"/>
+      <c r="E67" s="70"/>
+      <c r="F67" s="70"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="1:4">
-      <c r="A68" s="140"/>
-      <c r="B68" s="141"/>
-      <c r="D68" s="140"/>
+      <c r="A68" s="123"/>
+      <c r="B68" s="124"/>
+      <c r="D68" s="123"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="1:6">
-      <c r="A69" s="142" t="s">
+      <c r="A69" s="125" t="s">
         <v>159</v>
       </c>
-      <c r="B69" s="143"/>
-      <c r="C69" s="143"/>
-      <c r="D69" s="143"/>
-      <c r="E69" s="143"/>
-      <c r="F69" s="143"/>
+      <c r="B69" s="126"/>
+      <c r="C69" s="126"/>
+      <c r="D69" s="126"/>
+      <c r="E69" s="126"/>
+      <c r="F69" s="126"/>
     </row>
     <row r="70" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A70" s="144">
+      <c r="A70" s="127">
         <v>32</v>
       </c>
-      <c r="B70" s="145" t="s">
+      <c r="B70" s="128" t="s">
         <v>160</v>
       </c>
-      <c r="C70" s="55" t="s">
+      <c r="C70" s="43" t="s">
         <v>161</v>
       </c>
-      <c r="D70" s="55" t="s">
+      <c r="D70" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="E70" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70" s="37"/>
+      <c r="E70" s="30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="30"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:3">
-      <c r="A73" s="146"/>
-      <c r="B73" s="63"/>
-      <c r="C73" s="28"/>
+      <c r="A73" s="129"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="26"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:3">
-      <c r="A74" s="146"/>
-      <c r="B74" s="63"/>
-      <c r="C74" s="28"/>
+      <c r="A74" s="129"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="26"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="1:3">
-      <c r="A75" s="146"/>
-      <c r="B75" s="63"/>
-      <c r="C75" s="28"/>
+      <c r="A75" s="129"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="26"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="1:3">
-      <c r="A76" s="146"/>
-      <c r="B76" s="63"/>
-      <c r="C76" s="28"/>
+      <c r="A76" s="129"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="26"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="1:3">
-      <c r="A77" s="146"/>
-      <c r="B77" s="63"/>
-      <c r="C77" s="28"/>
+      <c r="A77" s="129"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="26"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:3">
-      <c r="A78" s="146"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="28"/>
+      <c r="A78" s="129"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6359,399 +6082,399 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B4" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="25.2857142857143" style="64" customWidth="1"/>
-    <col min="2" max="2" width="64.1428571428571" style="63" customWidth="1"/>
-    <col min="3" max="3" width="16.5714285714286" style="63" customWidth="1"/>
-    <col min="4" max="4" width="65.1428571428571" style="63" customWidth="1"/>
-    <col min="5" max="5" width="62" style="63" customWidth="1"/>
-    <col min="6" max="6" width="28.2857142857143" style="63" customWidth="1"/>
-    <col min="7" max="7" width="18.5714285714286" style="63" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="63"/>
+    <col min="1" max="1" width="25.2857142857143" style="47" customWidth="1"/>
+    <col min="2" max="2" width="64.1428571428571" style="46" customWidth="1"/>
+    <col min="3" max="3" width="16.5714285714286" style="46" customWidth="1"/>
+    <col min="4" max="4" width="65.1428571428571" style="46" customWidth="1"/>
+    <col min="5" max="5" width="62" style="46" customWidth="1"/>
+    <col min="6" max="6" width="28.2857142857143" style="46" customWidth="1"/>
+    <col min="7" max="7" width="18.5714285714286" style="46" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" s="63" customFormat="1" spans="1:7">
-      <c r="A1" s="65" t="s">
+    <row r="1" s="46" customFormat="1" spans="1:7">
+      <c r="A1" s="48" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C1" s="4"/>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="49" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" s="63" customFormat="1" spans="1:7">
-      <c r="A2" s="65" t="s">
+    <row r="2" s="46" customFormat="1" spans="1:7">
+      <c r="A2" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="49" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" s="63" customFormat="1" spans="1:1">
-      <c r="A3" s="64"/>
+    <row r="3" s="46" customFormat="1" spans="1:1">
+      <c r="A3" s="47"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="69"/>
-      <c r="E4" s="68" t="s">
+      <c r="C4" s="52"/>
+      <c r="E4" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="51" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" ht="150" spans="1:6">
-      <c r="A5" s="70">
+      <c r="A5" s="53">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="30" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="70"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" s="63" customFormat="1" spans="1:1">
-      <c r="A7" s="64"/>
+    <row r="7" s="46" customFormat="1" spans="1:1">
+      <c r="A7" s="47"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="50" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" s="63" customFormat="1" spans="1:1">
-      <c r="A9" s="64"/>
-    </row>
-    <row r="10" s="63" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="72" t="s">
+    <row r="9" s="46" customFormat="1" spans="1:1">
+      <c r="A9" s="47"/>
+    </row>
+    <row r="10" s="46" customFormat="1" ht="30" spans="1:7">
+      <c r="A10" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="72" t="s">
+      <c r="D10" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="72" t="s">
+      <c r="E10" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="66" t="s">
+      <c r="F10" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" s="63" customFormat="1" spans="1:7">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74" t="s">
-        <v>245</v>
-      </c>
-      <c r="C11" s="74"/>
+    <row r="11" s="46" customFormat="1" spans="1:7">
+      <c r="A11" s="57"/>
+      <c r="B11" s="58" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="58"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-    </row>
-    <row r="12" s="63" customFormat="1" spans="1:7">
-      <c r="A12" s="76">
+      <c r="E11" s="59"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" s="46" customFormat="1" spans="1:7">
+      <c r="A12" s="60">
         <v>1</v>
       </c>
-      <c r="B12" s="57" t="s">
-        <v>245</v>
-      </c>
-      <c r="C12" s="57"/>
+      <c r="B12" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="35"/>
       <c r="D12" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" s="63" customFormat="1" spans="1:7">
-      <c r="A13" s="76">
+    <row r="13" s="46" customFormat="1" spans="1:7">
+      <c r="A13" s="60">
         <v>2</v>
       </c>
-      <c r="B13" s="57" t="s">
-        <v>248</v>
+      <c r="B13" s="35" t="s">
+        <v>249</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="57" t="s">
-        <v>249</v>
-      </c>
-      <c r="E13" s="57" t="s">
+      <c r="D13" s="35" t="s">
         <v>250</v>
       </c>
+      <c r="E13" s="35" t="s">
+        <v>251</v>
+      </c>
       <c r="F13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" s="63" customFormat="1" ht="75" spans="1:7">
-      <c r="A14" s="76">
+    <row r="14" s="46" customFormat="1" ht="75" spans="1:7">
+      <c r="A14" s="60">
         <v>3</v>
       </c>
-      <c r="B14" s="57" t="s">
-        <v>251</v>
+      <c r="B14" s="35" t="s">
+        <v>252</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="57" t="s">
-        <v>252</v>
-      </c>
-      <c r="E14" s="57" t="s">
+      <c r="D14" s="35" t="s">
         <v>253</v>
       </c>
+      <c r="E14" s="35" t="s">
+        <v>254</v>
+      </c>
       <c r="F14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" s="63" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="76">
+    <row r="15" s="46" customFormat="1" ht="30" spans="1:7">
+      <c r="A15" s="60">
         <v>4</v>
       </c>
-      <c r="B15" s="57" t="s">
-        <v>254</v>
+      <c r="B15" s="35" t="s">
+        <v>255</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="57" t="s">
-        <v>255</v>
-      </c>
-      <c r="E15" s="57" t="s">
+      <c r="D15" s="35" t="s">
         <v>256</v>
       </c>
+      <c r="E15" s="35" t="s">
+        <v>257</v>
+      </c>
       <c r="F15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" s="63" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="76">
+    <row r="16" s="46" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="60">
         <v>5</v>
       </c>
-      <c r="B16" s="57" t="s">
-        <v>257</v>
+      <c r="B16" s="35" t="s">
+        <v>258</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="57" t="s">
-        <v>258</v>
-      </c>
-      <c r="E16" s="57" t="s">
+      <c r="D16" s="35" t="s">
         <v>259</v>
       </c>
+      <c r="E16" s="35" t="s">
+        <v>260</v>
+      </c>
       <c r="F16" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" s="63" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="76">
+    <row r="17" s="46" customFormat="1" ht="30" spans="1:7">
+      <c r="A17" s="60">
         <v>6</v>
       </c>
-      <c r="B17" s="57" t="s">
-        <v>260</v>
+      <c r="B17" s="35" t="s">
+        <v>261</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="57" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" s="57" t="s">
+      <c r="D17" s="35" t="s">
         <v>262</v>
       </c>
+      <c r="E17" s="35" t="s">
+        <v>263</v>
+      </c>
       <c r="F17" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" s="63" customFormat="1" ht="75" spans="1:7">
-      <c r="A18" s="76">
+    <row r="18" s="46" customFormat="1" ht="75" spans="1:7">
+      <c r="A18" s="60">
         <v>7</v>
       </c>
-      <c r="B18" s="57" t="s">
-        <v>263</v>
+      <c r="B18" s="35" t="s">
+        <v>264</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="57" t="s">
-        <v>264</v>
-      </c>
-      <c r="E18" s="57" t="s">
+      <c r="D18" s="35" t="s">
         <v>265</v>
       </c>
+      <c r="E18" s="35" t="s">
+        <v>266</v>
+      </c>
       <c r="F18" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" s="63" customFormat="1" spans="1:7">
-      <c r="A19" s="76">
+    <row r="19" s="46" customFormat="1" spans="1:7">
+      <c r="A19" s="60">
         <v>8</v>
       </c>
-      <c r="B19" s="57" t="s">
-        <v>266</v>
+      <c r="B19" s="35" t="s">
+        <v>267</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="57" t="s">
-        <v>267</v>
-      </c>
-      <c r="E19" s="57" t="s">
+      <c r="D19" s="35" t="s">
         <v>268</v>
       </c>
+      <c r="E19" s="35" t="s">
+        <v>269</v>
+      </c>
       <c r="F19" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" s="63" customFormat="1" spans="1:7">
-      <c r="A20" s="76">
+    <row r="20" s="46" customFormat="1" spans="1:7">
+      <c r="A20" s="60">
         <v>9</v>
       </c>
-      <c r="B20" s="57" t="s">
-        <v>269</v>
+      <c r="B20" s="35" t="s">
+        <v>270</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="57" t="s">
-        <v>270</v>
-      </c>
-      <c r="E20" s="57" t="s">
+      <c r="D20" s="35" t="s">
         <v>271</v>
       </c>
+      <c r="E20" s="35" t="s">
+        <v>272</v>
+      </c>
       <c r="F20" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" s="63" customFormat="1" spans="1:7">
-      <c r="A21" s="76">
+    <row r="21" s="46" customFormat="1" spans="1:7">
+      <c r="A21" s="60">
         <v>10</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>272</v>
+      <c r="B21" s="35" t="s">
+        <v>273</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="57" t="s">
-        <v>273</v>
-      </c>
-      <c r="E21" s="57" t="s">
+      <c r="D21" s="35" t="s">
         <v>274</v>
       </c>
+      <c r="E21" s="35" t="s">
+        <v>275</v>
+      </c>
       <c r="F21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" s="63" customFormat="1" spans="1:7">
-      <c r="A22" s="76">
+    <row r="22" s="46" customFormat="1" spans="1:7">
+      <c r="A22" s="60">
         <v>11</v>
       </c>
-      <c r="B22" s="57" t="s">
-        <v>275</v>
+      <c r="B22" s="35" t="s">
+        <v>276</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="57" t="s">
-        <v>276</v>
-      </c>
-      <c r="E22" s="57" t="s">
+      <c r="D22" s="35" t="s">
         <v>277</v>
       </c>
+      <c r="E22" s="35" t="s">
+        <v>278</v>
+      </c>
       <c r="F22" s="4" t="s">
         <v>45</v>
       </c>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" s="63" customFormat="1" spans="1:1">
-      <c r="A23" s="64"/>
+    <row r="23" s="46" customFormat="1" spans="1:1">
+      <c r="A23" s="47"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="77"/>
-      <c r="B24" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="78"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="62"/>
     </row>
     <row r="25" ht="45" spans="1:6">
-      <c r="A25" s="79"/>
-      <c r="B25" s="61" t="s">
-        <v>279</v>
-      </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="42" t="s">
         <v>280</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="C25" s="43"/>
+      <c r="D25" s="43" t="s">
         <v>281</v>
       </c>
-      <c r="F25" s="63" t="s">
+      <c r="E25" s="43" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" s="46" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:3">
-      <c r="B26" s="80"/>
-      <c r="C26" s="80"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="64"/>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="81"/>
-      <c r="C28" s="81"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6775,962 +6498,962 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="15.1428571428571" style="28" customWidth="1"/>
-    <col min="2" max="2" width="57.8571428571429" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.2857142857143" style="28" customWidth="1"/>
-    <col min="4" max="4" width="73.7142857142857" style="28" customWidth="1"/>
-    <col min="5" max="5" width="69.8571428571429" style="28" customWidth="1"/>
-    <col min="6" max="6" width="36.4285714285714" style="28" customWidth="1"/>
-    <col min="7" max="7" width="10.2857142857143" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="8.71428571428571" style="28"/>
+    <col min="1" max="1" width="15.1428571428571" style="26" customWidth="1"/>
+    <col min="2" max="2" width="57.8571428571429" style="26" customWidth="1"/>
+    <col min="3" max="3" width="11.2857142857143" style="26" customWidth="1"/>
+    <col min="4" max="4" width="73.7142857142857" style="26" customWidth="1"/>
+    <col min="5" max="5" width="69.8571428571429" style="26" customWidth="1"/>
+    <col min="6" max="6" width="36.4285714285714" style="26" customWidth="1"/>
+    <col min="7" max="7" width="10.2857142857143" style="26" customWidth="1"/>
+    <col min="8" max="16384" width="8.71428571428571" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="28" customFormat="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+    <row r="1" s="26" customFormat="1" spans="1:7">
+      <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>282</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
+      <c r="B1" s="28" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>283</v>
-      </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" s="28" customFormat="1" spans="1:7">
-      <c r="A2" s="32" t="s">
+      <c r="E1" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+    </row>
+    <row r="2" s="26" customFormat="1" spans="1:7">
+      <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="B2" s="28" t="s">
+        <v>242</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" s="28" customFormat="1" spans="1:7">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" s="28" customFormat="1" spans="1:7">
-      <c r="A4" s="32" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" s="26" customFormat="1" spans="1:7">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+    </row>
+    <row r="4" s="26" customFormat="1" spans="1:7">
+      <c r="A4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32" t="s">
+      <c r="C4" s="27"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" s="28" customFormat="1" ht="120" spans="1:7">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31" t="s">
+      <c r="G4" s="29"/>
+    </row>
+    <row r="5" s="26" customFormat="1" ht="120" spans="1:7">
+      <c r="A5" s="29"/>
+      <c r="B5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="37" t="s">
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" s="28" customFormat="1" spans="1:7">
-      <c r="A6" s="31"/>
-      <c r="B6" s="30" t="s">
+      <c r="G5" s="29"/>
+    </row>
+    <row r="6" s="26" customFormat="1" spans="1:7">
+      <c r="A6" s="29"/>
+      <c r="B6" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" s="28" customFormat="1" spans="1:7">
-      <c r="A7" s="31"/>
-      <c r="B7" s="30" t="s">
-        <v>284</v>
-      </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" s="28" customFormat="1" spans="1:7">
-      <c r="A8" s="32" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" s="26" customFormat="1" spans="1:7">
+      <c r="A7" s="29"/>
+      <c r="B7" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" s="26" customFormat="1" spans="1:7">
+      <c r="A8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="30" t="s">
-        <v>285</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" s="28" customFormat="1" spans="1:7">
-      <c r="A9" s="31"/>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-    </row>
-    <row r="10" s="28" customFormat="1" spans="1:7">
-      <c r="A10" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="40" t="s">
+      <c r="B8" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+    </row>
+    <row r="9" s="26" customFormat="1" spans="1:7">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" s="26" customFormat="1" spans="1:7">
+      <c r="A10" s="31" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="B10" s="31" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="32" t="s">
+      <c r="G10" s="27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" s="28" customFormat="1" spans="1:7">
-      <c r="A11" s="43"/>
-      <c r="B11" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" s="28" customFormat="1" spans="1:7">
-      <c r="A12" s="31">
+    <row r="11" s="26" customFormat="1" spans="1:7">
+      <c r="A11" s="32"/>
+      <c r="B11" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" s="26" customFormat="1" spans="1:7">
+      <c r="A12" s="29">
         <v>1</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
+      <c r="B12" s="33" t="s">
         <v>288</v>
       </c>
-      <c r="E12" s="30" t="s">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="F12" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" s="28" customFormat="1" spans="1:7">
-      <c r="A13" s="31">
+      <c r="E12" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" s="26" customFormat="1" spans="1:7">
+      <c r="A13" s="29">
         <v>2</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>290</v>
-      </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="30" t="s">
+      <c r="B13" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="E13" s="30" t="s">
+      <c r="C13" s="29"/>
+      <c r="D13" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="F13" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" s="28" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="31">
+      <c r="E13" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="29"/>
+    </row>
+    <row r="14" s="26" customFormat="1" ht="30" spans="1:7">
+      <c r="A14" s="29">
         <v>3</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="E14" s="30" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" s="28" customFormat="1" spans="1:7">
-      <c r="A15" s="31">
+      <c r="E14" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" s="26" customFormat="1" spans="1:7">
+      <c r="A15" s="29">
         <v>4</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="30" t="s">
+      <c r="B15" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="C15" s="29"/>
+      <c r="D15" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="F15" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" s="28" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="31">
+      <c r="E15" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="F15" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="29"/>
+    </row>
+    <row r="16" s="26" customFormat="1" ht="30" spans="1:7">
+      <c r="A16" s="29">
         <v>5</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30" t="s">
+      <c r="B16" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="F16" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" s="28" customFormat="1" spans="1:7">
-      <c r="A17" s="31">
+      <c r="E16" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="29"/>
+    </row>
+    <row r="17" s="26" customFormat="1" spans="1:7">
+      <c r="A17" s="29">
         <v>6</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>302</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="30" t="s">
+      <c r="B17" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="E17" s="30" t="s">
+      <c r="C17" s="29"/>
+      <c r="D17" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="31"/>
-    </row>
-    <row r="18" s="28" customFormat="1" spans="1:7">
-      <c r="A18" s="31">
+      <c r="E17" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="F17" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="29"/>
+    </row>
+    <row r="18" s="26" customFormat="1" spans="1:7">
+      <c r="A18" s="29">
         <v>7</v>
       </c>
-      <c r="B18" s="30" t="s">
-        <v>305</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30" t="s">
+      <c r="B18" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="E18" s="30" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="F18" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" s="28" customFormat="1" spans="1:7">
-      <c r="A19" s="31">
+      <c r="E18" s="28" t="s">
+        <v>308</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="29"/>
+    </row>
+    <row r="19" s="26" customFormat="1" spans="1:7">
+      <c r="A19" s="29">
         <v>8</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30" t="s">
+      <c r="B19" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="E19" s="30" t="s">
+      <c r="C19" s="29"/>
+      <c r="D19" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="F19" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" s="28" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="31">
+      <c r="E19" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="29"/>
+    </row>
+    <row r="20" s="26" customFormat="1" ht="30" spans="1:7">
+      <c r="A20" s="29">
         <v>9</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="C20" s="29"/>
+      <c r="D20" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" s="26" customFormat="1" ht="30" spans="1:7">
+      <c r="A21" s="29">
+        <v>10</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>315</v>
+      </c>
+      <c r="C21" s="29"/>
+      <c r="D21" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>317</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="29"/>
+    </row>
+    <row r="22" s="26" customFormat="1" ht="30" spans="1:7">
+      <c r="A22" s="29">
+        <v>11</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="29"/>
+    </row>
+    <row r="23" s="26" customFormat="1" spans="1:7">
+      <c r="A23" s="29">
+        <v>12</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>321</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="28" t="s">
+        <v>322</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="29"/>
+    </row>
+    <row r="24" s="26" customFormat="1" spans="1:7">
+      <c r="A24" s="29">
+        <v>13</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C24" s="29"/>
+      <c r="D24" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="E24" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="30" t="s">
-        <v>312</v>
-      </c>
-      <c r="E20" s="30" t="s">
-        <v>313</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" s="28" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="31">
-        <v>10</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" s="28" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="31">
-        <v>11</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>319</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" s="28" customFormat="1" spans="1:7">
-      <c r="A23" s="31">
-        <v>12</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>320</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" s="28" customFormat="1" spans="1:7">
-      <c r="A24" s="31">
-        <v>13</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30" t="s">
+      <c r="F24" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="29"/>
+    </row>
+    <row r="25" s="26" customFormat="1" spans="1:7">
+      <c r="A25" s="29">
+        <v>14</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="E25" s="34" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="29"/>
+    </row>
+    <row r="26" s="26" customFormat="1" spans="1:7">
+      <c r="A26" s="29">
+        <v>15</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29" t="s">
+        <v>328</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" s="26" customFormat="1" spans="1:7">
+      <c r="A27" s="29">
+        <v>16</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>332</v>
+      </c>
+      <c r="F27" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" s="26" customFormat="1" spans="1:7">
+      <c r="A28" s="29">
+        <v>17</v>
+      </c>
+      <c r="B28" s="29" t="s">
+        <v>333</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" s="26" customFormat="1" spans="1:7">
+      <c r="A29" s="29">
+        <v>18</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>338</v>
+      </c>
+      <c r="F29" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" s="26" customFormat="1" spans="1:7">
+      <c r="A30" s="29">
+        <v>19</v>
+      </c>
+      <c r="B30" s="29" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>340</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="29"/>
+    </row>
+    <row r="31" s="26" customFormat="1" spans="1:7">
+      <c r="A31" s="29">
+        <v>20</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="E31" s="28" t="s">
+        <v>272</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G31" s="29"/>
+    </row>
+    <row r="32" s="26" customFormat="1" spans="1:7">
+      <c r="A32" s="29">
+        <v>21</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>343</v>
+      </c>
+      <c r="C32" s="29"/>
+      <c r="D32" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="E32" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="29"/>
+    </row>
+    <row r="33" s="26" customFormat="1" ht="45" spans="1:7">
+      <c r="A33" s="29">
+        <v>22</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>344</v>
+      </c>
+      <c r="C33" s="29"/>
+      <c r="D33" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E33" s="28" t="s">
+        <v>346</v>
+      </c>
+      <c r="F33" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="29"/>
+    </row>
+    <row r="34" s="26" customFormat="1" ht="75" spans="1:7">
+      <c r="A34" s="29">
+        <v>23</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>347</v>
+      </c>
+      <c r="C34" s="29"/>
+      <c r="D34" s="28" t="s">
+        <v>348</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>349</v>
+      </c>
+      <c r="F34" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G34" s="29"/>
+    </row>
+    <row r="35" s="26" customFormat="1" ht="30" spans="1:7">
+      <c r="A35" s="29">
+        <v>24</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>350</v>
+      </c>
+      <c r="C35" s="29"/>
+      <c r="D35" s="28" t="s">
+        <v>351</v>
+      </c>
+      <c r="E35" s="28" t="s">
+        <v>352</v>
+      </c>
+      <c r="F35" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" s="29"/>
+    </row>
+    <row r="36" s="26" customFormat="1" spans="1:7">
+      <c r="A36" s="29">
+        <v>25</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="E24" s="30" t="s">
+      <c r="C36" s="29"/>
+      <c r="D36" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="F24" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" s="28" customFormat="1" spans="1:7">
-      <c r="A25" s="31">
-        <v>14</v>
-      </c>
-      <c r="B25" s="49" t="s">
-        <v>323</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="E25" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" s="28" customFormat="1" spans="1:7">
-      <c r="A26" s="31">
-        <v>15</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>326</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31" t="s">
-        <v>327</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>328</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" s="28" customFormat="1" spans="1:7">
-      <c r="A27" s="31">
-        <v>16</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>329</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31" t="s">
-        <v>330</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>331</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" s="28" customFormat="1" spans="1:7">
-      <c r="A28" s="31">
-        <v>17</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>332</v>
-      </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31" t="s">
-        <v>333</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>334</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="31"/>
-    </row>
-    <row r="29" s="28" customFormat="1" spans="1:7">
-      <c r="A29" s="31">
-        <v>18</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>335</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31" t="s">
-        <v>336</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>337</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" s="28" customFormat="1" spans="1:7">
-      <c r="A30" s="31">
-        <v>19</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>338</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31" t="s">
-        <v>339</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>340</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" s="28" customFormat="1" spans="1:7">
-      <c r="A31" s="31">
-        <v>20</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>341</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="E31" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" s="28" customFormat="1" spans="1:7">
-      <c r="A32" s="31">
-        <v>21</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>342</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" s="28" customFormat="1" ht="45" spans="1:7">
-      <c r="A33" s="31">
-        <v>22</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>343</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>345</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="31"/>
-    </row>
-    <row r="34" s="28" customFormat="1" ht="75" spans="1:7">
-      <c r="A34" s="31">
-        <v>23</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>346</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="35" s="28" customFormat="1" ht="30" spans="1:7">
-      <c r="A35" s="31">
-        <v>24</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" s="28" customFormat="1" spans="1:7">
-      <c r="A36" s="31">
-        <v>25</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="30" t="s">
+      <c r="E36" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="F36" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" s="26" customFormat="1" spans="1:7">
+      <c r="A37" s="29">
+        <v>26</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="C37" s="29"/>
+      <c r="D37" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="E37" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" s="26" customFormat="1" ht="30" spans="1:7">
+      <c r="A38" s="29">
+        <v>27</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>356</v>
+      </c>
+      <c r="C38" s="29"/>
+      <c r="D38" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="E38" s="28" t="s">
+        <v>358</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" s="26" customFormat="1" spans="1:7">
+      <c r="A39" s="29">
+        <v>28</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="C39" s="29"/>
+      <c r="D39" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="E39" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" s="29"/>
+    </row>
+    <row r="40" s="26" customFormat="1" ht="30" spans="1:7">
+      <c r="A40" s="29">
+        <v>29</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>361</v>
+      </c>
+      <c r="C40" s="29"/>
+      <c r="D40" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>363</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" s="26" customFormat="1" spans="1:7">
+      <c r="A41" s="29">
+        <v>30</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="E36" s="30" t="s">
+      <c r="C41" s="29"/>
+      <c r="D41" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="F36" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" s="28" customFormat="1" spans="1:7">
-      <c r="A37" s="31">
-        <v>26</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="31"/>
-    </row>
-    <row r="38" s="28" customFormat="1" ht="30" spans="1:7">
-      <c r="A38" s="31">
-        <v>27</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="31"/>
-    </row>
-    <row r="39" s="28" customFormat="1" spans="1:7">
-      <c r="A39" s="31">
-        <v>28</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="31"/>
-    </row>
-    <row r="40" s="28" customFormat="1" ht="30" spans="1:7">
-      <c r="A40" s="31">
-        <v>29</v>
-      </c>
-      <c r="B40" s="30" t="s">
+      <c r="E41" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" s="26" customFormat="1" spans="1:7">
+      <c r="A42" s="29">
+        <v>31</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="C42" s="29"/>
+      <c r="D42" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>366</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G42" s="29"/>
+    </row>
+    <row r="43" s="26" customFormat="1" spans="1:7">
+      <c r="A43" s="29">
+        <v>32</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="C43" s="29"/>
+      <c r="D43" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="E43" s="28" t="s">
         <v>360</v>
       </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="31"/>
-    </row>
-    <row r="41" s="28" customFormat="1" spans="1:7">
-      <c r="A41" s="31">
-        <v>30</v>
-      </c>
-      <c r="B41" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="C41" s="31"/>
-      <c r="D41" s="30" t="s">
+      <c r="F43" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G43" s="29"/>
+    </row>
+    <row r="44" s="26" customFormat="1" ht="30" spans="1:7">
+      <c r="A44" s="29">
+        <v>33</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="C44" s="29"/>
+      <c r="D44" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>370</v>
+      </c>
+      <c r="F44" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G44" s="29"/>
+    </row>
+    <row r="45" s="26" customFormat="1" spans="1:7">
+      <c r="A45" s="29">
+        <v>34</v>
+      </c>
+      <c r="B45" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="E41" s="30" t="s">
+      <c r="C45" s="29"/>
+      <c r="D45" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="F41" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="31"/>
-    </row>
-    <row r="42" s="28" customFormat="1" spans="1:7">
-      <c r="A42" s="31">
-        <v>31</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="F42" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="31"/>
-    </row>
-    <row r="43" s="28" customFormat="1" spans="1:7">
-      <c r="A43" s="31">
-        <v>32</v>
-      </c>
-      <c r="B43" s="30" t="s">
-        <v>366</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="30" t="s">
-        <v>303</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="F43" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="31"/>
-    </row>
-    <row r="44" s="28" customFormat="1" ht="30" spans="1:7">
-      <c r="A44" s="31">
-        <v>33</v>
-      </c>
-      <c r="B44" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="C44" s="31"/>
-      <c r="D44" s="30" t="s">
-        <v>368</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="F44" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="31"/>
-    </row>
-    <row r="45" s="28" customFormat="1" spans="1:7">
-      <c r="A45" s="31">
-        <v>34</v>
-      </c>
-      <c r="B45" s="30" t="s">
-        <v>308</v>
-      </c>
-      <c r="C45" s="31"/>
-      <c r="D45" s="30" t="s">
-        <v>309</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>310</v>
-      </c>
-      <c r="F45" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="31"/>
-    </row>
-    <row r="46" s="28" customFormat="1" ht="30" spans="1:7">
-      <c r="A46" s="31">
+      <c r="E45" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G45" s="29"/>
+    </row>
+    <row r="46" s="26" customFormat="1" ht="30" spans="1:7">
+      <c r="A46" s="29">
         <v>35</v>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>370</v>
-      </c>
-      <c r="C46" s="42"/>
-      <c r="D46" s="30" t="s">
+      <c r="B46" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="E46" s="30" t="s">
+      <c r="C46" s="33"/>
+      <c r="D46" s="28" t="s">
         <v>372</v>
       </c>
-      <c r="F46" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="31"/>
-    </row>
-    <row r="47" s="28" customFormat="1" spans="1:7">
-      <c r="A47" s="31">
+      <c r="E46" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="F46" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" s="26" customFormat="1" spans="1:7">
+      <c r="A47" s="29">
         <v>36</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="30" t="s">
+      <c r="B47" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="E47" s="30" t="s">
+      <c r="C47" s="33"/>
+      <c r="D47" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="F47" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="31"/>
-    </row>
-    <row r="48" s="28" customFormat="1" spans="1:7">
-      <c r="A48" s="31">
+      <c r="E47" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="F47" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G47" s="29"/>
+    </row>
+    <row r="48" s="26" customFormat="1" spans="1:7">
+      <c r="A48" s="29">
         <v>37</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>376</v>
-      </c>
-      <c r="C48" s="42"/>
-      <c r="D48" s="30" t="s">
+      <c r="B48" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="C48" s="33"/>
+      <c r="D48" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="F48" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="31"/>
-    </row>
-    <row r="49" s="28" customFormat="1" spans="1:7">
-      <c r="A49" s="31">
+      <c r="E48" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="F48" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G48" s="29"/>
+    </row>
+    <row r="49" s="26" customFormat="1" spans="1:7">
+      <c r="A49" s="29">
         <v>38</v>
       </c>
-      <c r="B49" s="30" t="s">
-        <v>379</v>
-      </c>
-      <c r="C49" s="31"/>
-      <c r="D49" s="30" t="s">
+      <c r="B49" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="E49" s="30" t="s">
+      <c r="C49" s="29"/>
+      <c r="D49" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="F49" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="31"/>
-    </row>
-    <row r="50" s="28" customFormat="1" spans="1:7">
-      <c r="A50" s="31">
+      <c r="E49" s="28" t="s">
+        <v>382</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" s="26" customFormat="1" spans="1:7">
+      <c r="A50" s="29">
         <v>39</v>
       </c>
-      <c r="B50" s="30" t="s">
-        <v>382</v>
-      </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="30" t="s">
+      <c r="B50" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="E50" s="30" t="s">
+      <c r="C50" s="29"/>
+      <c r="D50" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="F50" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="31"/>
-    </row>
-    <row r="51" s="28" customFormat="1" spans="1:7">
-      <c r="A51" s="31">
+      <c r="E50" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="29"/>
+    </row>
+    <row r="51" s="26" customFormat="1" spans="1:7">
+      <c r="A51" s="29">
         <v>40</v>
       </c>
-      <c r="B51" s="57" t="s">
-        <v>385</v>
+      <c r="B51" s="35" t="s">
+        <v>386</v>
       </c>
       <c r="C51" s="4"/>
-      <c r="D51" s="57" t="s">
-        <v>386</v>
-      </c>
-      <c r="E51" s="57" t="s">
+      <c r="D51" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="F51" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" s="31"/>
-    </row>
-    <row r="52" s="28" customFormat="1" spans="1:4">
-      <c r="A52" s="34"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="51"/>
-    </row>
-    <row r="53" s="28" customFormat="1" spans="1:6">
-      <c r="A53" s="31"/>
-      <c r="B53" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="31" t="s">
+      <c r="E51" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="F53" s="31"/>
-    </row>
-    <row r="54" s="28" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A54" s="31"/>
-      <c r="B54" s="61" t="s">
+      <c r="F51" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G51" s="29"/>
+    </row>
+    <row r="52" s="26" customFormat="1" spans="1:4">
+      <c r="A52" s="36"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="39"/>
+    </row>
+    <row r="53" s="26" customFormat="1" spans="1:6">
+      <c r="A53" s="29"/>
+      <c r="B53" s="40" t="s">
+        <v>279</v>
+      </c>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="C54" s="55"/>
-      <c r="D54" s="62" t="s">
+      <c r="F53" s="29"/>
+    </row>
+    <row r="54" s="26" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A54" s="29"/>
+      <c r="B54" s="42" t="s">
         <v>390</v>
       </c>
-      <c r="E54" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="31"/>
-    </row>
-    <row r="56" s="28" customFormat="1" spans="2:3">
-      <c r="B56" s="56"/>
-      <c r="C56" s="56"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="E54" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="29"/>
+    </row>
+    <row r="56" s="26" customFormat="1" spans="2:3">
+      <c r="B56" s="45"/>
+      <c r="C56" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7745,676 +7468,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:I45"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="15.1428571428571" style="27" customWidth="1"/>
-    <col min="2" max="2" width="80" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11.2857142857143" style="28" customWidth="1"/>
-    <col min="4" max="4" width="60.8571428571429" style="28" customWidth="1"/>
-    <col min="5" max="5" width="14.1428571428571" style="28" customWidth="1"/>
-    <col min="6" max="6" width="36.4285714285714" style="28" customWidth="1"/>
-    <col min="7" max="7" width="10.2857142857143" style="28" customWidth="1"/>
-    <col min="8" max="16384" width="8.71428571428571" style="26"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="26" customFormat="1" ht="129" customHeight="1" spans="1:9">
-      <c r="A1" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>391</v>
-      </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-    </row>
-    <row r="2" s="26" customFormat="1" spans="1:7">
-      <c r="A2" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>393</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-    </row>
-    <row r="3" s="26" customFormat="1" spans="1:7">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" s="26" customFormat="1" spans="1:7">
-      <c r="A4" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" s="26" customFormat="1" ht="120" spans="1:7">
-      <c r="A5" s="36"/>
-      <c r="B5" s="31" t="s">
-        <v>394</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" s="26" customFormat="1" spans="1:7">
-      <c r="A6" s="36"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" s="26" customFormat="1" spans="1:7">
-      <c r="A7" s="36"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" s="26" customFormat="1" spans="1:7">
-      <c r="A8" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>395</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" s="26" customFormat="1" spans="1:7">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" s="26" customFormat="1" spans="1:7">
-      <c r="A10" s="39" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="C10" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" s="26" customFormat="1" spans="1:7">
-      <c r="A11" s="41"/>
-      <c r="B11" s="42" t="s">
-        <v>396</v>
-      </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="42"/>
-    </row>
-    <row r="12" s="26" customFormat="1" spans="1:7">
-      <c r="A12" s="36">
-        <v>1</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30" t="s">
-        <v>398</v>
-      </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="31"/>
-    </row>
-    <row r="13" s="26" customFormat="1" spans="1:7">
-      <c r="A13" s="36">
-        <v>2</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>399</v>
-      </c>
-      <c r="C13" s="47"/>
-      <c r="D13" s="30" t="s">
-        <v>400</v>
-      </c>
-      <c r="E13" s="31"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="31"/>
-    </row>
-    <row r="14" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="36">
-        <v>3</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="30" t="s">
-        <v>294</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="31"/>
-    </row>
-    <row r="15" s="26" customFormat="1" ht="60" spans="1:7">
-      <c r="A15" s="36">
-        <v>4</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>401</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="30" t="s">
-        <v>402</v>
-      </c>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-    </row>
-    <row r="16" s="26" customFormat="1" spans="1:7">
-      <c r="A16" s="36">
-        <v>5</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>403</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="30" t="s">
-        <v>404</v>
-      </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-    </row>
-    <row r="17" s="26" customFormat="1" spans="1:7">
-      <c r="A17" s="36">
-        <v>6</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>405</v>
-      </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="30" t="s">
-        <v>406</v>
-      </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-    </row>
-    <row r="18" s="26" customFormat="1" spans="1:7">
-      <c r="A18" s="36">
-        <v>7</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>407</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="30" t="s">
-        <v>408</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-    </row>
-    <row r="19" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A19" s="36">
-        <v>8</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>409</v>
-      </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="30" t="s">
-        <v>410</v>
-      </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-    </row>
-    <row r="20" s="26" customFormat="1" spans="1:7">
-      <c r="A20" s="36">
-        <v>9</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>411</v>
-      </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="30" t="s">
-        <v>412</v>
-      </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-    </row>
-    <row r="21" s="26" customFormat="1" ht="45" spans="1:7">
-      <c r="A21" s="36">
-        <v>10</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>413</v>
-      </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="30" t="s">
-        <v>414</v>
-      </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-    </row>
-    <row r="22" s="26" customFormat="1" spans="1:7">
-      <c r="A22" s="36">
-        <v>11</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>415</v>
-      </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="30" t="s">
-        <v>416</v>
-      </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-    </row>
-    <row r="23" s="26" customFormat="1" spans="1:7">
-      <c r="A23" s="36">
-        <v>12</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>417</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="30" t="s">
-        <v>418</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-    </row>
-    <row r="24" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A24" s="36">
-        <v>13</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>419</v>
-      </c>
-      <c r="C24" s="31"/>
-      <c r="D24" s="30" t="s">
-        <v>420</v>
-      </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-    </row>
-    <row r="25" s="26" customFormat="1" spans="1:7">
-      <c r="A25" s="36">
-        <v>14</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>421</v>
-      </c>
-      <c r="C25" s="31"/>
-      <c r="D25" s="30" t="s">
-        <v>422</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-    </row>
-    <row r="26" s="26" customFormat="1" spans="1:7">
-      <c r="A26" s="36">
-        <v>15</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>423</v>
-      </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="30" t="s">
-        <v>424</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-    </row>
-    <row r="27" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A27" s="36">
-        <v>16</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="30" t="s">
-        <v>426</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-    </row>
-    <row r="28" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A28" s="36">
-        <v>17</v>
-      </c>
-      <c r="B28" s="49" t="s">
-        <v>427</v>
-      </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49" t="s">
-        <v>428</v>
-      </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-    </row>
-    <row r="29" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A29" s="36">
-        <v>18</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>429</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31" t="s">
-        <v>430</v>
-      </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-    </row>
-    <row r="30" s="26" customFormat="1" ht="45" spans="1:7">
-      <c r="A30" s="36">
-        <v>19</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>431</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31" t="s">
-        <v>432</v>
-      </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-    </row>
-    <row r="31" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A31" s="36">
-        <v>20</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>433</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31" t="s">
-        <v>434</v>
-      </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-    </row>
-    <row r="32" s="26" customFormat="1" spans="1:7">
-      <c r="A32" s="36">
-        <v>21</v>
-      </c>
-      <c r="B32" s="31" t="s">
-        <v>435</v>
-      </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31" t="s">
-        <v>436</v>
-      </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-    </row>
-    <row r="33" s="26" customFormat="1" spans="1:7">
-      <c r="A33" s="36">
-        <v>22</v>
-      </c>
-      <c r="B33" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31" t="s">
-        <v>438</v>
-      </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-    </row>
-    <row r="34" s="26" customFormat="1" spans="1:7">
-      <c r="A34" s="36">
-        <v>23</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>439</v>
-      </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="30" t="s">
-        <v>440</v>
-      </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-    </row>
-    <row r="35" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A35" s="36">
-        <v>24</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>441</v>
-      </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="30" t="s">
-        <v>442</v>
-      </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-    </row>
-    <row r="36" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A36" s="36">
-        <v>25</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>443</v>
-      </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="30" t="s">
-        <v>444</v>
-      </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-    </row>
-    <row r="37" s="26" customFormat="1" spans="1:7">
-      <c r="A37" s="36">
-        <v>26</v>
-      </c>
-      <c r="B37" s="30" t="s">
-        <v>445</v>
-      </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="30" t="s">
-        <v>446</v>
-      </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-    </row>
-    <row r="38" s="26" customFormat="1" spans="1:7">
-      <c r="A38" s="36">
-        <v>27</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="30" t="s">
-        <v>448</v>
-      </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-    </row>
-    <row r="39" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A39" s="36">
-        <v>28</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>449</v>
-      </c>
-      <c r="C39" s="31"/>
-      <c r="D39" s="30" t="s">
-        <v>450</v>
-      </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-    </row>
-    <row r="40" s="26" customFormat="1" spans="1:7">
-      <c r="A40" s="50"/>
-      <c r="B40" s="51"/>
-      <c r="C40" s="52"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-    </row>
-    <row r="41" s="26" customFormat="1" spans="1:7">
-      <c r="A41" s="50"/>
-      <c r="B41" s="53" t="s">
-        <v>278</v>
-      </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-    </row>
-    <row r="42" s="26" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A42" s="50"/>
-      <c r="B42" s="54" t="s">
-        <v>451</v>
-      </c>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55" t="s">
-        <v>452</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-    </row>
-    <row r="43" s="26" customFormat="1" ht="45" customHeight="1" spans="1:7">
-      <c r="A43" s="50"/>
-      <c r="B43" s="54" t="s">
-        <v>453</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="55" t="s">
-        <v>454</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-    </row>
-    <row r="44" s="26" customFormat="1" spans="1:7">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-    </row>
-    <row r="45" s="26" customFormat="1" spans="1:7">
-      <c r="A45" s="27"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:I1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B41:D41"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -8435,14 +7493,14 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>455</v>
+        <v>392</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>456</v>
+        <v>393</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -8500,7 +7558,7 @@
       <c r="D5" s="3"/>
       <c r="E5" s="8"/>
       <c r="F5" s="3" t="s">
-        <v>457</v>
+        <v>394</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -8529,7 +7587,7 @@
         <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>458</v>
+        <v>395</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8541,7 +7599,7 @@
     <row r="9" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>459</v>
+        <v>396</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
@@ -8572,7 +7630,7 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>38</v>
@@ -8590,7 +7648,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>460</v>
+        <v>397</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -8603,11 +7661,11 @@
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="17" t="s">
-        <v>462</v>
+        <v>399</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -8618,11 +7676,11 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>463</v>
+        <v>400</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="17" t="s">
-        <v>464</v>
+        <v>401</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -8633,11 +7691,11 @@
         <v>3</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>465</v>
+        <v>402</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>466</v>
+        <v>403</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -8648,11 +7706,11 @@
         <v>4</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>467</v>
+        <v>404</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="17" t="s">
-        <v>468</v>
+        <v>405</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -8661,7 +7719,7 @@
     <row r="18" s="1" customFormat="1" spans="1:7">
       <c r="A18" s="15"/>
       <c r="B18" s="12" t="s">
-        <v>469</v>
+        <v>406</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
@@ -8674,11 +7732,11 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>470</v>
+        <v>407</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="17" t="s">
-        <v>471</v>
+        <v>408</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -8689,11 +7747,11 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>472</v>
+        <v>409</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="17" t="s">
-        <v>473</v>
+        <v>410</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -8704,11 +7762,11 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>474</v>
+        <v>411</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="8" t="s">
-        <v>475</v>
+        <v>412</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -8719,11 +7777,11 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>476</v>
+        <v>413</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="8" t="s">
-        <v>477</v>
+        <v>414</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -8732,7 +7790,7 @@
     <row r="23" s="1" customFormat="1" spans="1:7">
       <c r="A23" s="15"/>
       <c r="B23" s="12" t="s">
-        <v>478</v>
+        <v>415</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="8"/>
@@ -8745,11 +7803,11 @@
         <v>10</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>479</v>
+        <v>416</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="8" t="s">
-        <v>480</v>
+        <v>417</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -8758,7 +7816,7 @@
     <row r="25" s="1" customFormat="1" spans="1:7">
       <c r="A25" s="15"/>
       <c r="B25" s="12" t="s">
-        <v>481</v>
+        <v>418</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="8"/>
@@ -8771,11 +7829,11 @@
         <v>11</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>482</v>
+        <v>419</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>483</v>
+        <v>420</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -8786,11 +7844,11 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>484</v>
+        <v>421</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="8" t="s">
-        <v>485</v>
+        <v>422</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -8801,11 +7859,11 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>486</v>
+        <v>423</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="8" t="s">
-        <v>487</v>
+        <v>424</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -8816,7 +7874,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>488</v>
+        <v>425</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="8"/>
@@ -8829,7 +7887,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>489</v>
+        <v>426</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="8"/>
@@ -8840,7 +7898,7 @@
     <row r="31" s="1" customFormat="1" spans="1:7">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
-        <v>490</v>
+        <v>427</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="8"/>
@@ -8853,11 +7911,11 @@
         <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>491</v>
+        <v>428</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>492</v>
+        <v>429</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -8868,11 +7926,11 @@
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>493</v>
+        <v>430</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>494</v>
+        <v>431</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -8883,11 +7941,11 @@
         <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>495</v>
+        <v>432</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>496</v>
+        <v>433</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -8898,11 +7956,11 @@
         <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>497</v>
+        <v>434</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="8" t="s">
-        <v>498</v>
+        <v>435</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -8913,11 +7971,11 @@
         <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>499</v>
+        <v>436</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="8" t="s">
-        <v>500</v>
+        <v>437</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -8928,11 +7986,11 @@
         <v>21</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>501</v>
+        <v>438</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="8" t="s">
-        <v>502</v>
+        <v>439</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -8943,11 +8001,11 @@
         <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>503</v>
+        <v>440</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="8" t="s">
-        <v>504</v>
+        <v>441</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -8958,11 +8016,11 @@
         <v>23</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>505</v>
+        <v>442</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="8" t="s">
-        <v>506</v>
+        <v>443</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -8973,11 +8031,11 @@
         <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>507</v>
+        <v>444</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="8" t="s">
-        <v>508</v>
+        <v>445</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -8988,11 +8046,11 @@
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>509</v>
+        <v>446</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="8" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -9003,11 +8061,11 @@
         <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>511</v>
+        <v>448</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="8" t="s">
-        <v>512</v>
+        <v>449</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -9018,11 +8076,11 @@
         <v>27</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>513</v>
+        <v>450</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="8" t="s">
-        <v>514</v>
+        <v>451</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -9033,11 +8091,11 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>515</v>
+        <v>452</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="8" t="s">
-        <v>516</v>
+        <v>453</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -9048,11 +8106,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>517</v>
+        <v>454</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="8" t="s">
-        <v>518</v>
+        <v>455</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -9063,11 +8121,11 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>519</v>
+        <v>456</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8" t="s">
-        <v>520</v>
+        <v>457</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -9078,7 +8136,7 @@
         <v>31</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>521</v>
+        <v>458</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -9091,11 +8149,11 @@
         <v>32</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>522</v>
+        <v>459</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="8" t="s">
-        <v>523</v>
+        <v>460</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -9106,7 +8164,7 @@
         <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>524</v>
+        <v>461</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="8"/>
@@ -9119,11 +8177,11 @@
         <v>34</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>525</v>
+        <v>462</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="8" t="s">
-        <v>526</v>
+        <v>463</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -9134,7 +8192,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>527</v>
+        <v>464</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="8"/>
@@ -9147,7 +8205,7 @@
         <v>36</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>528</v>
+        <v>465</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="8"/>
@@ -9160,7 +8218,7 @@
         <v>37</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>529</v>
+        <v>466</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="8"/>
@@ -9173,7 +8231,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>530</v>
+        <v>467</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="8"/>
@@ -9193,7 +8251,7 @@
     <row r="56" s="1" customFormat="1" spans="1:7">
       <c r="A56" s="20"/>
       <c r="B56" s="21" t="s">
-        <v>531</v>
+        <v>468</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="8"/>
@@ -9206,11 +8264,11 @@
         <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>532</v>
+        <v>469</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="8" t="s">
-        <v>533</v>
+        <v>470</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -9228,7 +8286,7 @@
     <row r="59" s="1" customFormat="1" spans="1:7">
       <c r="A59" s="20"/>
       <c r="B59" s="23" t="s">
-        <v>534</v>
+        <v>471</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="8"/>
@@ -9241,11 +8299,11 @@
         <v>40</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>535</v>
+        <v>472</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="8" t="s">
-        <v>536</v>
+        <v>473</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -9256,11 +8314,11 @@
         <v>41</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="8" t="s">
-        <v>538</v>
+        <v>475</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -9271,11 +8329,11 @@
         <v>42</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>539</v>
+        <v>476</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="8" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -9286,14 +8344,14 @@
         <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>541</v>
+        <v>478</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="8" t="s">
-        <v>542</v>
+        <v>479</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>543</v>
+        <v>480</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -9303,11 +8361,11 @@
         <v>44</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>544</v>
+        <v>481</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="8" t="s">
-        <v>545</v>
+        <v>482</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -9318,11 +8376,11 @@
         <v>45</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>546</v>
+        <v>483</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="8" t="s">
-        <v>547</v>
+        <v>484</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -9333,11 +8391,11 @@
         <v>46</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>548</v>
+        <v>485</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="8" t="s">
-        <v>549</v>
+        <v>486</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -9348,11 +8406,11 @@
         <v>47</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>550</v>
+        <v>487</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="8" t="s">
-        <v>551</v>
+        <v>488</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -9363,11 +8421,11 @@
         <v>48</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>552</v>
+        <v>489</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>553</v>
+        <v>490</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -9378,11 +8436,11 @@
         <v>49</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>554</v>
+        <v>491</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="8" t="s">
-        <v>555</v>
+        <v>492</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -9393,11 +8451,11 @@
         <v>50</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>556</v>
+        <v>493</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="8" t="s">
-        <v>557</v>
+        <v>494</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -9408,11 +8466,11 @@
         <v>51</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>558</v>
+        <v>495</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="8" t="s">
-        <v>559</v>
+        <v>496</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -9423,11 +8481,11 @@
         <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>560</v>
+        <v>497</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="8" t="s">
-        <v>561</v>
+        <v>498</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="8"/>
@@ -9438,11 +8496,11 @@
         <v>53</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>562</v>
+        <v>499</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="8" t="s">
-        <v>563</v>
+        <v>500</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="8"/>
@@ -9453,11 +8511,11 @@
         <v>54</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>564</v>
+        <v>501</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="8" t="s">
-        <v>565</v>
+        <v>502</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="8"/>
@@ -9468,11 +8526,11 @@
         <v>55</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>566</v>
+        <v>503</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="8" t="s">
-        <v>567</v>
+        <v>504</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="8"/>
@@ -9483,11 +8541,11 @@
         <v>56</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>568</v>
+        <v>505</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="8" t="s">
-        <v>569</v>
+        <v>506</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -9498,11 +8556,11 @@
         <v>57</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>570</v>
+        <v>507</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="8" t="s">
-        <v>571</v>
+        <v>508</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -9511,7 +8569,7 @@
     <row r="78" s="1" customFormat="1" spans="1:7">
       <c r="A78" s="20"/>
       <c r="B78" s="24" t="s">
-        <v>572</v>
+        <v>509</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -9524,11 +8582,11 @@
         <v>58</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>573</v>
+        <v>510</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="3"/>
@@ -9539,11 +8597,11 @@
         <v>59</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>575</v>
+        <v>512</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>576</v>
+        <v>513</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="3"/>
@@ -9554,11 +8612,11 @@
         <v>60</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>577</v>
+        <v>514</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>578</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/WSC/Test Report/SLCM/WSC SLCM_Admission_ Fees & Payment entry.xlsx
+++ b/WSC/Test Report/SLCM/WSC SLCM_Admission_ Fees & Payment entry.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="518">
   <si>
     <t>Contents</t>
   </si>
@@ -234,6 +234,12 @@
     <t>Reviewed By</t>
   </si>
   <si>
+    <t>Executed By</t>
+  </si>
+  <si>
+    <t>Aman Kumar Singh</t>
+  </si>
+  <si>
     <t>S#</t>
   </si>
   <si>
@@ -247,9 +253,9 @@
   </si>
   <si>
     <t>url: wscdemo.eduleadonline.com
-SLCM Admin: eduadmin@gmail.com, PW: admin@123
-Trainer: trainer@test.com,  PW: admin@123
-Student: student@test.com, PW: admin@123</t>
+SLCM Admin: eduadmin@gmail.com, PW: erp@123
+Trainer: trainer@gmail.com,  PW: erp@123
+Student: student@gmail.com, PW: erp@123</t>
   </si>
   <si>
     <t>Fee Type</t>
@@ -2768,19 +2774,19 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color auto="1"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -3034,7 +3040,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3097,7 +3103,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3123,96 +3141,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3222,32 +3240,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3343,7 +3355,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="49" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="49" applyBorder="1" applyAlignment="1">
@@ -3352,19 +3376,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3378,10 +3399,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3393,6 +3414,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3408,27 +3432,51 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3439,7 +3487,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3786,84 +3834,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="23.8571428571429" style="145" customWidth="1"/>
-    <col min="2" max="2" width="34.4285714285714" style="145" customWidth="1"/>
-    <col min="3" max="3" width="29" style="145" customWidth="1"/>
-    <col min="4" max="4" width="30" style="145" customWidth="1"/>
-    <col min="5" max="5" width="19.7238095238095" style="145" customWidth="1"/>
-    <col min="6" max="6" width="25" style="145" customWidth="1"/>
-    <col min="7" max="7" width="19.7238095238095" style="145" customWidth="1"/>
-    <col min="8" max="8" width="15" style="145" customWidth="1"/>
-    <col min="9" max="9" width="20" style="145" customWidth="1"/>
-    <col min="10" max="10" width="14.6285714285714" style="145" customWidth="1"/>
-    <col min="11" max="11" width="12.9047619047619" style="145" customWidth="1"/>
-    <col min="12" max="12" width="15.7238095238095" style="145" customWidth="1"/>
-    <col min="13" max="13" width="14.4571428571429" style="145" customWidth="1"/>
-    <col min="14" max="14" width="20.2666666666667" style="145" customWidth="1"/>
-    <col min="15" max="15" width="29.9047619047619" style="145" customWidth="1"/>
-    <col min="16" max="16383" width="8.72380952380952" style="145"/>
+    <col min="1" max="1" width="23.8571428571429" style="159" customWidth="1"/>
+    <col min="2" max="2" width="34.4285714285714" style="159" customWidth="1"/>
+    <col min="3" max="3" width="29" style="159" customWidth="1"/>
+    <col min="4" max="4" width="30" style="159" customWidth="1"/>
+    <col min="5" max="5" width="19.7238095238095" style="159" customWidth="1"/>
+    <col min="6" max="6" width="25" style="159" customWidth="1"/>
+    <col min="7" max="7" width="19.7238095238095" style="159" customWidth="1"/>
+    <col min="8" max="8" width="15" style="159" customWidth="1"/>
+    <col min="9" max="9" width="20" style="159" customWidth="1"/>
+    <col min="10" max="10" width="14.6285714285714" style="159" customWidth="1"/>
+    <col min="11" max="11" width="12.9047619047619" style="159" customWidth="1"/>
+    <col min="12" max="12" width="15.7238095238095" style="159" customWidth="1"/>
+    <col min="13" max="13" width="14.4571428571429" style="159" customWidth="1"/>
+    <col min="14" max="14" width="20.2666666666667" style="159" customWidth="1"/>
+    <col min="15" max="15" width="29.9047619047619" style="159" customWidth="1"/>
+    <col min="16" max="16383" width="8.72380952380952" style="159"/>
   </cols>
   <sheetData>
-    <row r="1" s="145" customFormat="1"/>
-    <row r="2" s="145" customFormat="1" ht="21" spans="1:8">
-      <c r="A2" s="146" t="s">
+    <row r="1" s="159" customFormat="1"/>
+    <row r="2" s="159" customFormat="1" ht="21" spans="1:8">
+      <c r="A2" s="160" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="147"/>
-    </row>
-    <row r="3" s="145" customFormat="1"/>
-    <row r="4" s="145" customFormat="1" ht="150" spans="1:14">
-      <c r="A4" s="148" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="161"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+    </row>
+    <row r="3" s="159" customFormat="1"/>
+    <row r="4" s="159" customFormat="1" ht="150" spans="1:14">
+      <c r="A4" s="162" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="148" t="s">
+      <c r="B4" s="162" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="148" t="s">
+      <c r="C4" s="162" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="148" t="s">
+      <c r="D4" s="162" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="149" t="s">
+      <c r="E4" s="163" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="148" t="s">
+      <c r="F4" s="162" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="148" t="s">
+      <c r="G4" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="148" t="s">
+      <c r="H4" s="162" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="151"/>
-      <c r="J4" s="152"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-    </row>
-    <row r="5" s="145" customFormat="1" spans="2:14">
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+      <c r="N4" s="165"/>
+    </row>
+    <row r="5" s="159" customFormat="1" spans="2:14">
+      <c r="B5" s="164"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3879,8 +3927,8 @@
   <sheetPr/>
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3895,1120 +3943,1125 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A7" s="73">
+        <v>1</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
+      <c r="A8" s="73">
+        <v>2</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:5">
+      <c r="A9" s="73">
+        <v>3</v>
+      </c>
+      <c r="B9" s="135" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="1:5">
+      <c r="A10" s="73">
+        <v>4</v>
+      </c>
+      <c r="B10" s="135" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:5">
+      <c r="A11" s="73">
+        <v>5</v>
+      </c>
+      <c r="B11" s="135" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:5">
+      <c r="A12" s="73">
+        <v>6</v>
+      </c>
+      <c r="B12" s="135" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="74"/>
+      <c r="E12" s="74"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:5">
+      <c r="A13" s="73">
+        <v>7</v>
+      </c>
+      <c r="B13" s="135" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="74"/>
+      <c r="E13" s="74"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:5">
+      <c r="A14" s="73">
+        <v>8</v>
+      </c>
+      <c r="B14" s="135" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="73">
+        <v>9</v>
+      </c>
+      <c r="B15" s="135" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:2">
+      <c r="A18" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="77" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="78">
+        <v>1</v>
+      </c>
+      <c r="B19" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="84"/>
+    </row>
+    <row r="20" s="1" customFormat="1" spans="1:7">
+      <c r="A20" s="80">
+        <v>2</v>
+      </c>
+      <c r="B20" s="81" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:2">
+      <c r="A21" s="80">
+        <v>3</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:2">
+      <c r="A22" s="80">
+        <v>4</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:2">
+      <c r="A23" s="80">
+        <v>5</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:2">
+      <c r="A24" s="82">
+        <v>6</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" spans="1:2">
+      <c r="A25" s="82">
+        <v>7</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:2">
+      <c r="A26" s="82">
+        <v>8</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" spans="1:7">
+      <c r="A32" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="84"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:7">
+      <c r="A33" s="85">
+        <v>1</v>
+      </c>
+      <c r="B33" s="127" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="89"/>
+      <c r="G33" s="84"/>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:6">
+      <c r="A34" s="32">
+        <v>2</v>
+      </c>
+      <c r="B34" s="136" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="73"/>
+    </row>
+    <row r="35" s="1" customFormat="1" spans="1:6">
+      <c r="A35" s="32">
+        <v>3</v>
+      </c>
+      <c r="B35" s="137" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="73"/>
+    </row>
+    <row r="36" s="1" customFormat="1" spans="1:6">
+      <c r="A36" s="138">
+        <v>4</v>
+      </c>
+      <c r="B36" s="139" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="D36" s="81" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="73"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="32" customHeight="1" spans="1:6">
+      <c r="A37" s="98">
+        <v>5</v>
+      </c>
+      <c r="B37" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="73"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A38" s="32">
+        <v>6</v>
+      </c>
+      <c r="B38" s="81" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="81" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="73"/>
+    </row>
+    <row r="39" s="1" customFormat="1" spans="1:6">
+      <c r="A39" s="91">
+        <v>7</v>
+      </c>
+      <c r="B39" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="81" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="73"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A40" s="99"/>
+      <c r="B40" s="81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="95" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="73"/>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
+      <c r="A41" s="32">
+        <v>8</v>
+      </c>
+      <c r="B41" s="101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" s="101" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="101" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="73"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:6">
+      <c r="A42" s="32">
+        <v>9</v>
+      </c>
+      <c r="B42" s="87" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="73"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" s="32">
+        <v>10</v>
+      </c>
+      <c r="B43" s="87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="73"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A44" s="102">
+        <v>11</v>
+      </c>
+      <c r="B44" s="140" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="D44" s="104" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="73"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A45" s="105">
+        <v>12</v>
+      </c>
+      <c r="B45" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="D45" s="95" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="73"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="31" customHeight="1" spans="1:6">
+      <c r="A46" s="106">
+        <v>13</v>
+      </c>
+      <c r="B46" s="87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C46" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="95" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="73"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:6">
+      <c r="A47" s="107"/>
+      <c r="B47" s="141" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="143"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A48" s="85">
+        <v>14</v>
+      </c>
+      <c r="B48" s="144" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="145" t="s">
+        <v>80</v>
+      </c>
+      <c r="D48" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A49" s="107">
+        <v>15</v>
+      </c>
+      <c r="B49" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="E49" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A50" s="113"/>
+      <c r="B50" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" s="95" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" s="95" t="s">
+        <v>86</v>
+      </c>
+      <c r="E50" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A51" s="107">
         <v>17</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="71" t="s">
+      <c r="B51" s="87" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="D51" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="7"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A52" s="113"/>
+      <c r="B52" s="74" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" s="95" t="s">
+        <v>92</v>
+      </c>
+      <c r="E52" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="7"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A53" s="111">
         <v>18</v>
       </c>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="120" spans="1:7">
-      <c r="A7" s="69">
-        <v>1</v>
-      </c>
-      <c r="B7" s="69" t="s">
+      <c r="B53" s="95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="D53" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F53" s="7"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A54" s="113"/>
+      <c r="B54" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="E54" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F54" s="7"/>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A55" s="91">
         <v>19</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="30" t="s">
+      <c r="B55" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="81" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="81" t="s">
+        <v>99</v>
+      </c>
+      <c r="E55" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F55" s="7"/>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A56" s="93"/>
+      <c r="B56" s="146" t="s">
+        <v>100</v>
+      </c>
+      <c r="C56" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="D56" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F56" s="7"/>
+    </row>
+    <row r="57" s="1" customFormat="1" spans="1:6">
+      <c r="A57" s="99"/>
+      <c r="B57" s="87" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="95" t="s">
+        <v>104</v>
+      </c>
+      <c r="D57" s="95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F57" s="7"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
+      <c r="A58" s="147">
         <v>20</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
-      <c r="A8" s="69">
-        <v>2</v>
-      </c>
-      <c r="B8" s="73" t="s">
+      <c r="B58" s="148" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" s="149" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="149" t="s">
+        <v>108</v>
+      </c>
+      <c r="E58" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F58" s="150"/>
+    </row>
+    <row r="59" s="1" customFormat="1" ht="34.5" customHeight="1" spans="1:6">
+      <c r="A59" s="124">
         <v>21</v>
       </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:5">
-      <c r="A9" s="69">
-        <v>3</v>
-      </c>
-      <c r="B9" s="75" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:5">
-      <c r="A10" s="69">
-        <v>4</v>
-      </c>
-      <c r="B10" s="75" t="s">
+      <c r="B59" s="140" t="s">
+        <v>109</v>
+      </c>
+      <c r="C59" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="104" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="7"/>
+    </row>
+    <row r="60" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A60" s="147"/>
+      <c r="B60" s="151" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="95" t="s">
+        <v>113</v>
+      </c>
+      <c r="E60" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="7"/>
+    </row>
+    <row r="61" s="1" customFormat="1" spans="1:6">
+      <c r="A61" s="147">
         <v>23</v>
       </c>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-    </row>
-    <row r="11" s="1" customFormat="1" spans="1:5">
-      <c r="A11" s="69">
-        <v>5</v>
-      </c>
-      <c r="B11" s="75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:5">
-      <c r="A12" s="69">
-        <v>6</v>
-      </c>
-      <c r="B12" s="75" t="s">
+      <c r="B61" s="137" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="87" t="s">
+        <v>116</v>
+      </c>
+      <c r="E61" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A62" s="147">
         <v>24</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:5">
-      <c r="A13" s="69">
-        <v>7</v>
-      </c>
-      <c r="B13" s="75" t="s">
+      <c r="B62" s="137" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="95" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A63" s="147">
         <v>25</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:5">
-      <c r="A14" s="69">
-        <v>8</v>
-      </c>
-      <c r="B14" s="75" t="s">
+      <c r="B63" s="137" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="95" t="s">
+        <v>121</v>
+      </c>
+      <c r="D63" s="95" t="s">
+        <v>122</v>
+      </c>
+      <c r="E63" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" s="1" customFormat="1" spans="1:6">
+      <c r="A64" s="147">
         <v>26</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:5">
-      <c r="A15" s="69">
-        <v>9</v>
-      </c>
-      <c r="B15" s="75" t="s">
+      <c r="B64" s="137" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="95" t="s">
+        <v>124</v>
+      </c>
+      <c r="D64" s="95" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A65" s="147">
         <v>27</v>
       </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:2">
-      <c r="A18" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="76" t="s">
+      <c r="B65" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="C65" s="95" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="95" t="s">
+        <v>128</v>
+      </c>
+      <c r="E65" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A66" s="147">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="77">
-        <v>1</v>
-      </c>
-      <c r="B19" s="78" t="s">
+      <c r="B66" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C66" s="95" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="E66" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A67" s="147">
         <v>29</v>
       </c>
-      <c r="D19" s="82"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="82"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="79">
-        <v>2</v>
-      </c>
-      <c r="B20" s="74" t="s">
+      <c r="B67" s="87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C67" s="95" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" s="95" t="s">
+        <v>134</v>
+      </c>
+      <c r="E67" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A68" s="147">
         <v>30</v>
       </c>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="82"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:2">
-      <c r="A21" s="79">
-        <v>3</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="B68" s="87" t="s">
+        <v>135</v>
+      </c>
+      <c r="C68" s="95" t="s">
+        <v>136</v>
+      </c>
+      <c r="D68" s="95" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A69" s="147">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:2">
-      <c r="A22" s="79">
-        <v>4</v>
-      </c>
-      <c r="B22" s="7" t="s">
+      <c r="B69" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="C69" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A70" s="147">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" s="1" customFormat="1" spans="1:2">
-      <c r="A23" s="79">
-        <v>5</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="B70" s="87" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F70" s="7"/>
+    </row>
+    <row r="71" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A71" s="147">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" s="1" customFormat="1" spans="1:2">
-      <c r="A24" s="80">
-        <v>6</v>
-      </c>
-      <c r="B24" s="7" t="s">
+      <c r="B71" s="87" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="E71" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F71" s="7"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:6">
+      <c r="A72" s="147">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" s="1" customFormat="1" spans="1:2">
-      <c r="A25" s="80">
-        <v>7</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="B72" s="87" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="D72" s="95" t="s">
+        <v>147</v>
+      </c>
+      <c r="E72" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F72" s="7"/>
+    </row>
+    <row r="73" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A73" s="147">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:2">
-      <c r="A26" s="80">
-        <v>8</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="B73" s="87" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="95" t="s">
+        <v>149</v>
+      </c>
+      <c r="D73" s="95" t="s">
+        <v>150</v>
+      </c>
+      <c r="E73" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F73" s="7"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A74" s="147">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" s="1" customFormat="1" spans="1:7">
-      <c r="A32" s="81" t="s">
+      <c r="B74" s="87" t="s">
+        <v>151</v>
+      </c>
+      <c r="C74" s="95" t="s">
+        <v>152</v>
+      </c>
+      <c r="D74" s="95" t="s">
+        <v>153</v>
+      </c>
+      <c r="E74" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F74" s="7"/>
+    </row>
+    <row r="75" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A75" s="32">
         <v>37</v>
       </c>
-      <c r="B32" s="81" t="s">
+      <c r="B75" s="152" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="152" t="s">
+        <v>155</v>
+      </c>
+      <c r="D75" s="152" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F75" s="7"/>
+    </row>
+    <row r="76" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A76" s="32">
         <v>38</v>
       </c>
-      <c r="C32" s="81" t="s">
+      <c r="B76" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E76" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F76" s="7"/>
+    </row>
+    <row r="77" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A77" s="125">
         <v>39</v>
       </c>
-      <c r="D32" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="F32" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="G32" s="82"/>
-    </row>
-    <row r="33" s="1" customFormat="1" spans="1:7">
-      <c r="A33" s="83">
-        <v>1</v>
-      </c>
-      <c r="B33" s="122" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="85" t="s">
-        <v>44</v>
-      </c>
-      <c r="E33" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="87"/>
-      <c r="G33" s="82"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:6">
-      <c r="A34" s="67">
-        <v>2</v>
-      </c>
-      <c r="B34" s="130" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="D34" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="69"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:6">
-      <c r="A35" s="67">
-        <v>3</v>
-      </c>
-      <c r="B35" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D35" s="74" t="s">
-        <v>49</v>
-      </c>
-      <c r="E35" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="69"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:6">
-      <c r="A36" s="132">
-        <v>4</v>
-      </c>
-      <c r="B36" s="133" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="E36" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="69"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="32" customHeight="1" spans="1:6">
-      <c r="A37" s="96">
-        <v>5</v>
-      </c>
-      <c r="B37" s="133" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="95" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="69"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A38" s="67">
-        <v>6</v>
-      </c>
-      <c r="B38" s="74" t="s">
-        <v>55</v>
-      </c>
-      <c r="C38" s="74" t="s">
-        <v>56</v>
-      </c>
-      <c r="D38" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="69"/>
-    </row>
-    <row r="39" s="1" customFormat="1" spans="1:6">
-      <c r="A39" s="89">
-        <v>7</v>
-      </c>
-      <c r="B39" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="69"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A40" s="97"/>
-      <c r="B40" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="C40" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D40" s="93" t="s">
-        <v>62</v>
-      </c>
-      <c r="E40" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="69"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="39" customHeight="1" spans="1:6">
-      <c r="A41" s="67">
-        <v>8</v>
-      </c>
-      <c r="B41" s="99" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="99" t="s">
-        <v>64</v>
-      </c>
-      <c r="D41" s="99" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="69"/>
-    </row>
-    <row r="42" s="1" customFormat="1" spans="1:6">
-      <c r="A42" s="67">
-        <v>9</v>
-      </c>
-      <c r="B42" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="69"/>
-    </row>
-    <row r="43" s="1" customFormat="1" spans="1:6">
-      <c r="A43" s="67">
-        <v>10</v>
-      </c>
-      <c r="B43" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D43" s="85" t="s">
-        <v>70</v>
-      </c>
-      <c r="E43" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="69"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A44" s="100">
-        <v>11</v>
-      </c>
-      <c r="B44" s="134" t="s">
-        <v>71</v>
-      </c>
-      <c r="C44" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="D44" s="102" t="s">
-        <v>72</v>
-      </c>
-      <c r="E44" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="69"/>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="103">
-        <v>12</v>
-      </c>
-      <c r="B45" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="93" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="93" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="69"/>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="31" customHeight="1" spans="1:6">
-      <c r="A46" s="104">
-        <v>13</v>
-      </c>
-      <c r="B46" s="85" t="s">
-        <v>71</v>
-      </c>
-      <c r="C46" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="93" t="s">
-        <v>75</v>
-      </c>
-      <c r="E46" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F46" s="69"/>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="31.5" customHeight="1" spans="1:6">
-      <c r="A47" s="105"/>
-      <c r="B47" s="81" t="s">
-        <v>76</v>
-      </c>
-      <c r="C47" s="93"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="69"/>
-      <c r="F47" s="69"/>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A48" s="83">
-        <v>14</v>
-      </c>
-      <c r="B48" s="135" t="s">
-        <v>77</v>
-      </c>
-      <c r="C48" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="E48" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F48" s="7"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A49" s="105">
-        <v>15</v>
-      </c>
-      <c r="B49" s="93" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="D49" s="93" t="s">
-        <v>81</v>
-      </c>
-      <c r="E49" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A50" s="111"/>
-      <c r="B50" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A51" s="105">
-        <v>17</v>
-      </c>
-      <c r="B51" s="85" t="s">
-        <v>85</v>
-      </c>
-      <c r="C51" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A52" s="111"/>
-      <c r="B52" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52" s="93" t="s">
-        <v>89</v>
-      </c>
-      <c r="D52" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="E52" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A53" s="109">
-        <v>18</v>
-      </c>
-      <c r="B53" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="C53" s="93" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="93" t="s">
-        <v>87</v>
-      </c>
-      <c r="E53" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A54" s="111"/>
-      <c r="B54" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="C54" s="93" t="s">
-        <v>93</v>
-      </c>
-      <c r="D54" s="93" t="s">
-        <v>94</v>
-      </c>
-      <c r="E54" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A55" s="89">
-        <v>19</v>
-      </c>
-      <c r="B55" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="C55" s="74" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" s="74" t="s">
-        <v>97</v>
-      </c>
-      <c r="E55" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A56" s="91"/>
-      <c r="B56" s="136" t="s">
-        <v>98</v>
-      </c>
-      <c r="C56" s="99" t="s">
-        <v>99</v>
-      </c>
-      <c r="D56" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="97"/>
-      <c r="B57" s="85" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="93" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" s="1" customFormat="1" ht="47" customHeight="1" spans="1:6">
-      <c r="A58" s="137">
-        <v>20</v>
-      </c>
-      <c r="B58" s="138" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="95" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="139"/>
-    </row>
-    <row r="59" s="1" customFormat="1" ht="34.5" customHeight="1" spans="1:6">
-      <c r="A59" s="119">
-        <v>21</v>
-      </c>
-      <c r="B59" s="134" t="s">
-        <v>107</v>
-      </c>
-      <c r="C59" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="D59" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A60" s="137"/>
-      <c r="B60" s="140" t="s">
-        <v>110</v>
-      </c>
-      <c r="C60" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="D60" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" s="1" customFormat="1" spans="1:6">
-      <c r="A61" s="137">
-        <v>23</v>
-      </c>
-      <c r="B61" s="131" t="s">
-        <v>112</v>
-      </c>
-      <c r="C61" s="85" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="85" t="s">
-        <v>114</v>
-      </c>
-      <c r="E61" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A62" s="137">
-        <v>24</v>
-      </c>
-      <c r="B62" s="131" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="93" t="s">
-        <v>117</v>
-      </c>
-      <c r="E62" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A63" s="137">
-        <v>25</v>
-      </c>
-      <c r="B63" s="131" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="93" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" s="1" customFormat="1" spans="1:6">
-      <c r="A64" s="137">
-        <v>26</v>
-      </c>
-      <c r="B64" s="131" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="93" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="93" t="s">
-        <v>123</v>
-      </c>
-      <c r="E64" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A65" s="137">
-        <v>27</v>
-      </c>
-      <c r="B65" s="85" t="s">
-        <v>124</v>
-      </c>
-      <c r="C65" s="93" t="s">
-        <v>125</v>
-      </c>
-      <c r="D65" s="93" t="s">
-        <v>126</v>
-      </c>
-      <c r="E65" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A66" s="137">
-        <v>28</v>
-      </c>
-      <c r="B66" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="93" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A67" s="137">
-        <v>29</v>
-      </c>
-      <c r="B67" s="85" t="s">
-        <v>130</v>
-      </c>
-      <c r="C67" s="93" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="93" t="s">
-        <v>132</v>
-      </c>
-      <c r="E67" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A68" s="137">
-        <v>30</v>
-      </c>
-      <c r="B68" s="85" t="s">
-        <v>133</v>
-      </c>
-      <c r="C68" s="93" t="s">
-        <v>134</v>
-      </c>
-      <c r="D68" s="93" t="s">
-        <v>135</v>
-      </c>
-      <c r="E68" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A69" s="137">
-        <v>31</v>
-      </c>
-      <c r="B69" s="85" t="s">
-        <v>136</v>
-      </c>
-      <c r="C69" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="D69" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="E69" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A70" s="137">
-        <v>32</v>
-      </c>
-      <c r="B70" s="85" t="s">
-        <v>139</v>
-      </c>
-      <c r="C70" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="E70" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A71" s="137">
-        <v>33</v>
-      </c>
-      <c r="B71" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="D71" s="93" t="s">
-        <v>143</v>
-      </c>
-      <c r="E71" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" s="1" customFormat="1" spans="1:6">
-      <c r="A72" s="137">
-        <v>34</v>
-      </c>
-      <c r="B72" s="85" t="s">
-        <v>144</v>
-      </c>
-      <c r="C72" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="D72" s="93" t="s">
-        <v>145</v>
-      </c>
-      <c r="E72" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A73" s="137">
-        <v>35</v>
-      </c>
-      <c r="B73" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="93" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="93" t="s">
-        <v>148</v>
-      </c>
-      <c r="E73" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A74" s="137">
-        <v>36</v>
-      </c>
-      <c r="B74" s="85" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" s="93" t="s">
-        <v>150</v>
-      </c>
-      <c r="D74" s="93" t="s">
-        <v>151</v>
-      </c>
-      <c r="E74" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A75" s="67">
-        <v>37</v>
-      </c>
-      <c r="B75" s="141" t="s">
-        <v>152</v>
-      </c>
-      <c r="C75" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="D75" s="141" t="s">
-        <v>153</v>
-      </c>
-      <c r="E75" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A76" s="67">
-        <v>38</v>
-      </c>
-      <c r="B76" s="85" t="s">
-        <v>154</v>
-      </c>
-      <c r="C76" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="D76" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="E76" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A77" s="120">
-        <v>39</v>
-      </c>
-      <c r="B77" s="114" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="121" t="s">
-        <v>157</v>
-      </c>
-      <c r="D77" s="121" t="s">
+      <c r="B77" s="120" t="s">
         <v>158</v>
       </c>
-      <c r="E77" s="86" t="s">
-        <v>45</v>
+      <c r="C77" s="126" t="s">
+        <v>159</v>
+      </c>
+      <c r="D77" s="126" t="s">
+        <v>160</v>
+      </c>
+      <c r="E77" s="88" t="s">
+        <v>47</v>
       </c>
       <c r="F77" s="7"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="1:4">
-      <c r="A78" s="123"/>
-      <c r="B78" s="124"/>
-      <c r="D78" s="123"/>
+      <c r="A78" s="128"/>
+      <c r="B78" s="129"/>
+      <c r="D78" s="128"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="1:4">
-      <c r="A79" s="123"/>
-      <c r="B79" s="124"/>
-      <c r="D79" s="123"/>
+      <c r="A79" s="128"/>
+      <c r="B79" s="129"/>
+      <c r="D79" s="128"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="1:6">
-      <c r="A80" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="126"/>
-      <c r="C80" s="126"/>
-      <c r="D80" s="126"/>
-      <c r="E80" s="126"/>
-      <c r="F80" s="126"/>
+      <c r="A80" s="153" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="154"/>
+      <c r="C80" s="154"/>
+      <c r="D80" s="154"/>
+      <c r="E80" s="154"/>
+      <c r="F80" s="155"/>
     </row>
     <row r="81" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
       <c r="A81" s="7">
         <v>40</v>
       </c>
-      <c r="B81" s="142" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="143" t="s">
-        <v>161</v>
-      </c>
-      <c r="D81" s="143" t="s">
+      <c r="B81" s="156" t="s">
         <v>162</v>
       </c>
-      <c r="E81" s="144" t="s">
-        <v>45</v>
-      </c>
-      <c r="F81" s="144"/>
+      <c r="C81" s="157" t="s">
+        <v>163</v>
+      </c>
+      <c r="D81" s="157" t="s">
+        <v>164</v>
+      </c>
+      <c r="E81" s="156" t="s">
+        <v>47</v>
+      </c>
+      <c r="F81" s="158"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="1:3">
-      <c r="A83" s="129"/>
-      <c r="B83" s="46"/>
+      <c r="A83" s="134"/>
+      <c r="B83" s="48"/>
       <c r="C83" s="26"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="1:3">
-      <c r="A84" s="129"/>
-      <c r="B84" s="46"/>
+      <c r="A84" s="134"/>
+      <c r="B84" s="48"/>
       <c r="C84" s="26"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="1:3">
-      <c r="A85" s="129"/>
-      <c r="B85" s="46"/>
+      <c r="A85" s="134"/>
+      <c r="B85" s="48"/>
       <c r="C85" s="26"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="1:3">
-      <c r="A86" s="129"/>
-      <c r="B86" s="46"/>
+      <c r="A86" s="134"/>
+      <c r="B86" s="48"/>
       <c r="C86" s="26"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="1:3">
-      <c r="A87" s="129"/>
-      <c r="B87" s="46"/>
+      <c r="A87" s="134"/>
+      <c r="B87" s="48"/>
       <c r="C87" s="26"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="1:3">
-      <c r="A88" s="129"/>
-      <c r="B88" s="46"/>
+      <c r="A88" s="134"/>
+      <c r="B88" s="48"/>
       <c r="C88" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="D1:G1"/>
+    <mergeCell ref="B47:F47"/>
     <mergeCell ref="A80:F80"/>
     <mergeCell ref="A39:A40"/>
     <mergeCell ref="A49:A50"/>
@@ -5027,1050 +5080,1070 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:AF74"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.7142857142857" style="1" customWidth="1"/>
-    <col min="2" max="2" width="87.8571428571429" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.8571428571429" style="1" customWidth="1"/>
     <col min="3" max="3" width="60" style="1" customWidth="1"/>
     <col min="4" max="4" width="54.2857142857143" style="1" customWidth="1"/>
     <col min="5" max="5" width="35.2857142857143" style="1" customWidth="1"/>
-    <col min="6" max="6" width="41.1428571428571" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:7">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="66" t="s">
+      <c r="B1" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="68" t="s">
-        <v>164</v>
-      </c>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="D1" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" s="1" customFormat="1" spans="1:7">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="67" t="s">
+      <c r="B2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="70"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
+      <c r="A3" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="70"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
+      <c r="A4" s="74"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="70"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:7">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="75" spans="1:7">
+      <c r="A7" s="73">
+        <v>1</v>
+      </c>
+      <c r="B7" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="74"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
+      <c r="A8" s="73">
+        <v>2</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="C8" s="75"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="74"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+      <c r="D10" s="74"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="74"/>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:7">
+      <c r="A11" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="74"/>
+    </row>
+    <row r="12" s="1" customFormat="1" spans="1:7">
+      <c r="A12" s="78">
+        <v>1</v>
+      </c>
+      <c r="B12" s="79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="74"/>
+      <c r="D12" s="75"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+    </row>
+    <row r="13" s="1" customFormat="1" spans="1:7">
+      <c r="A13" s="80">
+        <v>2</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="74"/>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+    </row>
+    <row r="14" s="1" customFormat="1" spans="1:7">
+      <c r="A14" s="80">
+        <v>3</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="74"/>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:7">
+      <c r="A15" s="80">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="74"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:7">
+      <c r="A16" s="80">
+        <v>5</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:7">
+      <c r="A17" s="82">
+        <v>6</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:7">
+      <c r="A18" s="82">
+        <v>7</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:7">
+      <c r="A19" s="82">
+        <v>8</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:7">
+      <c r="A22" s="83" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="83" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="84"/>
+    </row>
+    <row r="23" s="1" customFormat="1" spans="1:7">
+      <c r="A23" s="85">
+        <v>1</v>
+      </c>
+      <c r="B23" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="D23" s="87" t="s">
+        <v>170</v>
+      </c>
+      <c r="E23" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="89"/>
+      <c r="G23" s="84"/>
+    </row>
+    <row r="24" s="1" customFormat="1" spans="1:6">
+      <c r="A24" s="32">
+        <v>2</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" s="87" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="73"/>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A25" s="91">
+        <v>3</v>
+      </c>
+      <c r="B25" s="92" t="s">
+        <v>173</v>
+      </c>
+      <c r="C25" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="73"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A26" s="93"/>
+      <c r="B26" s="94" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="95" t="s">
+        <v>176</v>
+      </c>
+      <c r="D26" s="95" t="s">
+        <v>177</v>
+      </c>
+      <c r="E26" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="73"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
+      <c r="A27" s="96">
+        <v>4</v>
+      </c>
+      <c r="B27" s="94" t="s">
+        <v>178</v>
+      </c>
+      <c r="C27" s="97" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="97" t="s">
+        <v>180</v>
+      </c>
+      <c r="E27" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="73"/>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A28" s="98"/>
+      <c r="B28" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="95" t="s">
+        <v>182</v>
+      </c>
+      <c r="D28" s="95" t="s">
+        <v>183</v>
+      </c>
+      <c r="E28" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="73"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A29" s="91">
+        <v>5</v>
+      </c>
+      <c r="B29" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="97" t="s">
+        <v>185</v>
+      </c>
+      <c r="D29" s="97" t="s">
+        <v>186</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="73"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A30" s="99"/>
+      <c r="B30" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" s="95" t="s">
+        <v>187</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="73"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="125" customHeight="1" spans="1:6">
+      <c r="A31" s="91">
+        <v>6</v>
+      </c>
+      <c r="B31" s="100" t="s">
+        <v>188</v>
+      </c>
+      <c r="C31" s="101" t="s">
+        <v>189</v>
+      </c>
+      <c r="D31" s="101" t="s">
+        <v>190</v>
+      </c>
+      <c r="E31" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="73"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A32" s="99"/>
+      <c r="B32" s="85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C32" s="95" t="s">
+        <v>192</v>
+      </c>
+      <c r="D32" s="95" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="73"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="1:6">
+      <c r="A33" s="32">
+        <v>7</v>
+      </c>
+      <c r="B33" s="85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="87" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="73"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A34" s="102">
+        <v>8</v>
+      </c>
+      <c r="B34" s="103" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="104" t="s">
+        <v>196</v>
+      </c>
+      <c r="D34" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="73"/>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A35" s="105">
+        <v>9</v>
+      </c>
+      <c r="B35" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="95" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="73"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A36" s="106">
+        <v>10</v>
+      </c>
+      <c r="B36" s="85" t="s">
+        <v>199</v>
+      </c>
+      <c r="C36" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D36" s="95" t="s">
+        <v>200</v>
+      </c>
+      <c r="E36" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="73"/>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A37" s="107">
+        <v>11</v>
+      </c>
+      <c r="B37" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="109" t="s">
+        <v>201</v>
+      </c>
+      <c r="E37" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="73"/>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A38" s="107">
+        <v>12</v>
+      </c>
+      <c r="B38" s="110" t="s">
+        <v>202</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" s="95" t="s">
+        <v>203</v>
+      </c>
+      <c r="E38" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="7"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A39" s="111"/>
+      <c r="B39" s="110" t="s">
+        <v>204</v>
+      </c>
+      <c r="C39" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="D39" s="95" t="s">
+        <v>205</v>
+      </c>
+      <c r="E39" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="7"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A40" s="111">
+        <v>13</v>
+      </c>
+      <c r="B40" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C40" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="112"/>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="30" spans="1:32">
+      <c r="A41" s="85">
+        <v>14</v>
+      </c>
+      <c r="B41" s="85" t="s">
+        <v>208</v>
+      </c>
+      <c r="C41" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+    </row>
+    <row r="42" s="1" customFormat="1" spans="1:6">
+      <c r="A42" s="113"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+    </row>
+    <row r="43" s="1" customFormat="1" spans="1:6">
+      <c r="A43" s="111"/>
+      <c r="B43" s="117" t="s">
+        <v>209</v>
+      </c>
+      <c r="C43" s="117"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+    </row>
+    <row r="44" s="1" customFormat="1" spans="1:6">
+      <c r="A44" s="85"/>
+      <c r="B44" s="85"/>
+      <c r="C44" s="118"/>
+      <c r="D44" s="119"/>
+      <c r="E44" s="120"/>
+      <c r="F44" s="120"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A45" s="113">
+        <v>15</v>
+      </c>
+      <c r="B45" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="D45" s="101" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="F45" s="120"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A46" s="107">
         <v>16</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B46" s="123" t="s">
+        <v>211</v>
+      </c>
+      <c r="C46" s="95" t="s">
+        <v>212</v>
+      </c>
+      <c r="D46" s="95" t="s">
+        <v>213</v>
+      </c>
+      <c r="E46" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="F46" s="7"/>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A47" s="113"/>
+      <c r="B47" s="123" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="95" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="F47" s="7"/>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A48" s="107">
         <v>17</v>
       </c>
-      <c r="C6" s="70"/>
-      <c r="D6" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="71" t="s">
+      <c r="B48" s="85" t="s">
+        <v>217</v>
+      </c>
+      <c r="C48" s="95" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="95" t="s">
+        <v>219</v>
+      </c>
+      <c r="E48" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="F48" s="7"/>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A49" s="113">
         <v>18</v>
       </c>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="120" spans="1:7">
-      <c r="A7" s="69">
-        <v>1</v>
-      </c>
-      <c r="B7" s="69" t="s">
+      <c r="B49" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="95" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="F49" s="7"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A50" s="113">
         <v>19</v>
       </c>
-      <c r="C7" s="72"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="30" t="s">
+      <c r="B50" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="D50" s="95" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50" s="122" t="s">
+        <v>210</v>
+      </c>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A51" s="113">
         <v>20</v>
       </c>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="16" customHeight="1" spans="1:7">
-      <c r="A8" s="69">
-        <v>2</v>
-      </c>
-      <c r="B8" s="73" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="72"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
-      <c r="A9" s="69"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="70"/>
-      <c r="B10" s="70"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="70"/>
-      <c r="B11" s="70"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-    </row>
-    <row r="12" s="1" customFormat="1" spans="1:7">
-      <c r="A12" s="71" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-    </row>
-    <row r="13" s="1" customFormat="1" spans="1:7">
-      <c r="A13" s="77">
-        <v>1</v>
-      </c>
-      <c r="B13" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-    </row>
-    <row r="14" s="1" customFormat="1" spans="1:7">
-      <c r="A14" s="79">
-        <v>2</v>
-      </c>
-      <c r="B14" s="74" t="s">
-        <v>166</v>
-      </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-    </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
-      <c r="A15" s="79">
-        <v>3</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-    </row>
-    <row r="16" s="1" customFormat="1" spans="1:7">
-      <c r="A16" s="79">
-        <v>4</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="70"/>
-    </row>
-    <row r="17" s="1" customFormat="1" spans="1:7">
-      <c r="A17" s="79">
-        <v>5</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:7">
-      <c r="A18" s="80">
-        <v>6</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="70"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:7">
-      <c r="A19" s="80">
-        <v>7</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:7">
-      <c r="A20" s="80">
-        <v>8</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="1:7">
-      <c r="A26" s="81" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="81" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" s="66" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="82"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="1:7">
-      <c r="A27" s="83">
-        <v>1</v>
-      </c>
-      <c r="B27" s="84" t="s">
-        <v>167</v>
-      </c>
-      <c r="C27" s="85" t="s">
-        <v>168</v>
-      </c>
-      <c r="D27" s="85" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="87"/>
-      <c r="G27" s="82"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="1:6">
-      <c r="A28" s="67">
-        <v>2</v>
-      </c>
-      <c r="B28" s="88" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="85" t="s">
-        <v>170</v>
-      </c>
-      <c r="E28" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F28" s="69"/>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A29" s="89">
-        <v>3</v>
-      </c>
-      <c r="B29" s="90" t="s">
-        <v>171</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="D29" s="74" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F29" s="69"/>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A30" s="91"/>
-      <c r="B30" s="92" t="s">
-        <v>173</v>
-      </c>
-      <c r="C30" s="93" t="s">
-        <v>174</v>
-      </c>
-      <c r="D30" s="93" t="s">
-        <v>175</v>
-      </c>
-      <c r="E30" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="69"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A31" s="94">
-        <v>4</v>
-      </c>
-      <c r="B31" s="92" t="s">
-        <v>176</v>
-      </c>
-      <c r="C31" s="95" t="s">
-        <v>177</v>
-      </c>
-      <c r="D31" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="E31" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" s="69"/>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A32" s="96"/>
-      <c r="B32" s="68" t="s">
-        <v>179</v>
-      </c>
-      <c r="C32" s="93" t="s">
-        <v>180</v>
-      </c>
-      <c r="D32" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="E32" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F32" s="69"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A33" s="89">
-        <v>5</v>
-      </c>
-      <c r="B33" s="68" t="s">
-        <v>182</v>
-      </c>
-      <c r="C33" s="95" t="s">
-        <v>183</v>
-      </c>
-      <c r="D33" s="95" t="s">
-        <v>184</v>
-      </c>
-      <c r="E33" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="69"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A34" s="97"/>
-      <c r="B34" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="93" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="93" t="s">
-        <v>185</v>
-      </c>
-      <c r="E34" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F34" s="69"/>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="125" customHeight="1" spans="1:6">
-      <c r="A35" s="89">
-        <v>6</v>
-      </c>
-      <c r="B35" s="98" t="s">
-        <v>186</v>
-      </c>
-      <c r="C35" s="99" t="s">
-        <v>187</v>
-      </c>
-      <c r="D35" s="99" t="s">
-        <v>188</v>
-      </c>
-      <c r="E35" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" s="69"/>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A36" s="97"/>
-      <c r="B36" s="83" t="s">
-        <v>189</v>
-      </c>
-      <c r="C36" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D36" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="E36" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F36" s="69"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:6">
-      <c r="A37" s="67">
-        <v>7</v>
-      </c>
-      <c r="B37" s="83" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="85" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="85" t="s">
-        <v>192</v>
-      </c>
-      <c r="E37" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="69"/>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A38" s="100">
-        <v>8</v>
-      </c>
-      <c r="B38" s="101" t="s">
-        <v>193</v>
-      </c>
-      <c r="C38" s="102" t="s">
-        <v>194</v>
-      </c>
-      <c r="D38" s="102" t="s">
-        <v>195</v>
-      </c>
-      <c r="E38" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="69"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A39" s="103">
-        <v>9</v>
-      </c>
-      <c r="B39" s="83" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" s="93" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="93" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F39" s="69"/>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A40" s="104">
-        <v>10</v>
-      </c>
-      <c r="B40" s="83" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="D40" s="93" t="s">
-        <v>198</v>
-      </c>
-      <c r="E40" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F40" s="69"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A41" s="105">
-        <v>11</v>
-      </c>
-      <c r="B41" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="C41" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="D41" s="107" t="s">
-        <v>199</v>
-      </c>
-      <c r="E41" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="69"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A42" s="105">
-        <v>12</v>
-      </c>
-      <c r="B42" s="108" t="s">
-        <v>200</v>
-      </c>
-      <c r="C42" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A43" s="109"/>
-      <c r="B43" s="108" t="s">
-        <v>202</v>
-      </c>
-      <c r="C43" s="93" t="s">
-        <v>203</v>
-      </c>
-      <c r="D43" s="93" t="s">
-        <v>203</v>
-      </c>
-      <c r="E43" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A44" s="109">
-        <v>13</v>
-      </c>
-      <c r="B44" s="84" t="s">
-        <v>204</v>
-      </c>
-      <c r="C44" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="D44" s="99" t="s">
-        <v>205</v>
-      </c>
-      <c r="E44" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F44" s="110"/>
-    </row>
-    <row r="45" s="3" customFormat="1" ht="30" spans="1:6">
-      <c r="A45" s="83">
-        <v>14</v>
-      </c>
-      <c r="B45" s="83" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="D45" s="93" t="s">
-        <v>153</v>
-      </c>
-      <c r="E45" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" s="1" customFormat="1" spans="1:6">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="112"/>
-      <c r="D46" s="113"/>
-      <c r="E46" s="114"/>
-      <c r="F46" s="114"/>
-    </row>
-    <row r="47" s="1" customFormat="1" spans="1:6">
-      <c r="A47" s="83"/>
-      <c r="B47" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="C47" s="116"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="114"/>
-      <c r="F47" s="114"/>
-    </row>
-    <row r="48" s="1" customFormat="1" spans="1:6">
-      <c r="A48" s="83"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="116"/>
-      <c r="D48" s="113"/>
-      <c r="E48" s="114"/>
-      <c r="F48" s="114"/>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A49" s="111">
-        <v>15</v>
-      </c>
-      <c r="B49" s="117" t="s">
-        <v>77</v>
-      </c>
-      <c r="C49" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="99" t="s">
-        <v>79</v>
-      </c>
-      <c r="E49" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="F49" s="114"/>
-    </row>
-    <row r="50" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A50" s="105">
-        <v>16</v>
-      </c>
-      <c r="B50" s="118" t="s">
-        <v>209</v>
-      </c>
-      <c r="C50" s="93" t="s">
+      <c r="B51" s="85" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="95" t="s">
+        <v>221</v>
+      </c>
+      <c r="E51" s="122" t="s">
         <v>210</v>
       </c>
-      <c r="D50" s="93" t="s">
-        <v>211</v>
-      </c>
-      <c r="E50" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A51" s="111"/>
-      <c r="B51" s="118" t="s">
-        <v>212</v>
-      </c>
-      <c r="C51" s="93" t="s">
-        <v>213</v>
-      </c>
-      <c r="D51" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="E51" s="114" t="s">
-        <v>208</v>
-      </c>
       <c r="F51" s="7"/>
     </row>
     <row r="52" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A52" s="105">
-        <v>17</v>
-      </c>
-      <c r="B52" s="83" t="s">
-        <v>215</v>
-      </c>
-      <c r="C52" s="93" t="s">
-        <v>216</v>
-      </c>
-      <c r="D52" s="93" t="s">
-        <v>217</v>
-      </c>
-      <c r="E52" s="114" t="s">
-        <v>208</v>
+      <c r="A52" s="113">
+        <v>21</v>
+      </c>
+      <c r="B52" s="124" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="E52" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="F52" s="7"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A53" s="111">
-        <v>18</v>
-      </c>
-      <c r="B53" s="83" t="s">
-        <v>136</v>
-      </c>
-      <c r="C53" s="93" t="s">
-        <v>137</v>
-      </c>
-      <c r="D53" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="E53" s="114" t="s">
-        <v>208</v>
+    <row r="53" s="1" customFormat="1" spans="1:6">
+      <c r="A53" s="113">
+        <v>22</v>
+      </c>
+      <c r="B53" s="123"/>
+      <c r="C53" s="95"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="F53" s="7"/>
     </row>
     <row r="54" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A54" s="111">
-        <v>19</v>
-      </c>
-      <c r="B54" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="C54" s="93" t="s">
-        <v>140</v>
-      </c>
-      <c r="D54" s="93" t="s">
-        <v>218</v>
-      </c>
-      <c r="E54" s="114" t="s">
-        <v>208</v>
+      <c r="A54" s="113">
+        <v>23</v>
+      </c>
+      <c r="B54" s="123" t="s">
+        <v>222</v>
+      </c>
+      <c r="C54" s="95" t="s">
+        <v>223</v>
+      </c>
+      <c r="D54" s="95" t="s">
+        <v>224</v>
+      </c>
+      <c r="E54" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="F54" s="7"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A55" s="111">
-        <v>20</v>
-      </c>
-      <c r="B55" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C55" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="93" t="s">
-        <v>219</v>
-      </c>
-      <c r="E55" s="114" t="s">
-        <v>208</v>
+    <row r="55" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A55" s="113">
+        <v>24</v>
+      </c>
+      <c r="B55" s="123" t="s">
+        <v>225</v>
+      </c>
+      <c r="C55" s="95" t="s">
+        <v>226</v>
+      </c>
+      <c r="D55" s="95" t="s">
+        <v>227</v>
+      </c>
+      <c r="E55" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="F55" s="7"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A56" s="111">
-        <v>21</v>
-      </c>
-      <c r="B56" s="119" t="s">
-        <v>104</v>
+    <row r="56" s="1" customFormat="1" ht="60" spans="1:6">
+      <c r="A56" s="113">
+        <v>25</v>
+      </c>
+      <c r="B56" s="123" t="s">
+        <v>228</v>
       </c>
       <c r="C56" s="95" t="s">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="D56" s="95" t="s">
-        <v>106</v>
-      </c>
-      <c r="E56" s="114" t="s">
-        <v>208</v>
+        <v>230</v>
+      </c>
+      <c r="E56" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="F56" s="7"/>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:6">
-      <c r="A57" s="111">
-        <v>22</v>
-      </c>
-      <c r="B57" s="118"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="114" t="s">
-        <v>208</v>
+    <row r="57" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A57" s="113">
+        <v>26</v>
+      </c>
+      <c r="B57" s="123" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="95" t="s">
+        <v>232</v>
+      </c>
+      <c r="E57" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="F57" s="7"/>
     </row>
     <row r="58" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A58" s="111">
-        <v>23</v>
-      </c>
-      <c r="B58" s="118" t="s">
-        <v>220</v>
-      </c>
-      <c r="C58" s="93" t="s">
-        <v>221</v>
-      </c>
-      <c r="D58" s="93" t="s">
-        <v>222</v>
-      </c>
-      <c r="E58" s="114" t="s">
-        <v>208</v>
+        <v>27</v>
+      </c>
+      <c r="B58" s="123" t="s">
+        <v>233</v>
+      </c>
+      <c r="C58" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" s="95" t="s">
+        <v>234</v>
+      </c>
+      <c r="E58" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="F58" s="7"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="60" spans="1:6">
+    <row r="59" s="1" customFormat="1" ht="30" spans="1:6">
       <c r="A59" s="111">
-        <v>24</v>
-      </c>
-      <c r="B59" s="118" t="s">
-        <v>223</v>
-      </c>
-      <c r="C59" s="93" t="s">
-        <v>224</v>
-      </c>
-      <c r="D59" s="93" t="s">
-        <v>225</v>
-      </c>
-      <c r="E59" s="114" t="s">
-        <v>208</v>
+        <v>28</v>
+      </c>
+      <c r="B59" s="123" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" s="95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D59" s="95" t="s">
+        <v>236</v>
+      </c>
+      <c r="E59" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="F59" s="7"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="60" spans="1:6">
-      <c r="A60" s="111">
-        <v>25</v>
-      </c>
-      <c r="B60" s="118" t="s">
-        <v>226</v>
-      </c>
-      <c r="C60" s="93" t="s">
-        <v>227</v>
-      </c>
-      <c r="D60" s="93" t="s">
-        <v>228</v>
-      </c>
-      <c r="E60" s="114" t="s">
-        <v>208</v>
+    <row r="60" s="1" customFormat="1" ht="30" spans="1:6">
+      <c r="A60" s="113">
+        <v>29</v>
+      </c>
+      <c r="B60" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="D60" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E60" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A61" s="111">
-        <v>26</v>
-      </c>
-      <c r="B61" s="118" t="s">
-        <v>229</v>
-      </c>
-      <c r="C61" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="D61" s="93" t="s">
-        <v>230</v>
-      </c>
-      <c r="E61" s="114" t="s">
-        <v>208</v>
+    <row r="61" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A61" s="125">
+        <v>30</v>
+      </c>
+      <c r="B61" s="125" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61" s="126" t="s">
+        <v>237</v>
+      </c>
+      <c r="D61" s="126" t="s">
+        <v>238</v>
+      </c>
+      <c r="E61" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A62" s="109">
-        <v>27</v>
-      </c>
-      <c r="B62" s="118" t="s">
-        <v>231</v>
-      </c>
-      <c r="C62" s="93" t="s">
-        <v>232</v>
-      </c>
-      <c r="D62" s="93" t="s">
-        <v>232</v>
-      </c>
-      <c r="E62" s="114" t="s">
-        <v>208</v>
+    <row r="62" s="1" customFormat="1" ht="45" spans="1:6">
+      <c r="A62" s="113">
+        <v>31</v>
+      </c>
+      <c r="B62" s="127" t="s">
+        <v>239</v>
+      </c>
+      <c r="C62" s="101" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="101" t="s">
+        <v>241</v>
+      </c>
+      <c r="E62" s="122" t="s">
+        <v>210</v>
       </c>
       <c r="F62" s="7"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A63" s="109">
-        <v>28</v>
-      </c>
-      <c r="B63" s="118" t="s">
-        <v>91</v>
-      </c>
-      <c r="C63" s="93" t="s">
-        <v>233</v>
-      </c>
-      <c r="D63" s="93" t="s">
-        <v>234</v>
-      </c>
-      <c r="E63" s="114" t="s">
-        <v>208</v>
-      </c>
+    <row r="63" s="1" customFormat="1" spans="1:6">
+      <c r="A63" s="32"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="81"/>
+      <c r="D63" s="73"/>
+      <c r="E63" s="73"/>
       <c r="F63" s="7"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="30" spans="1:6">
-      <c r="A64" s="111">
-        <v>29</v>
-      </c>
-      <c r="B64" s="83" t="s">
-        <v>154</v>
-      </c>
-      <c r="C64" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="93" t="s">
-        <v>155</v>
-      </c>
-      <c r="E64" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A65" s="120">
-        <v>30</v>
-      </c>
-      <c r="B65" s="120" t="s">
-        <v>156</v>
-      </c>
-      <c r="C65" s="121" t="s">
-        <v>235</v>
-      </c>
-      <c r="D65" s="121" t="s">
-        <v>236</v>
-      </c>
-      <c r="E65" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="F65" s="70"/>
-    </row>
-    <row r="66" s="1" customFormat="1" ht="45" spans="1:6">
-      <c r="A66" s="111">
-        <v>31</v>
-      </c>
-      <c r="B66" s="122" t="s">
-        <v>237</v>
-      </c>
-      <c r="C66" s="99" t="s">
-        <v>238</v>
-      </c>
-      <c r="D66" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="E66" s="114" t="s">
-        <v>208</v>
-      </c>
-      <c r="F66" s="70"/>
-    </row>
-    <row r="67" s="1" customFormat="1" spans="1:6">
-      <c r="A67" s="67"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="74"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="70"/>
-      <c r="F67" s="70"/>
-    </row>
-    <row r="68" s="1" customFormat="1" spans="1:4">
-      <c r="A68" s="123"/>
-      <c r="B68" s="124"/>
-      <c r="D68" s="123"/>
-    </row>
-    <row r="69" s="1" customFormat="1" spans="1:6">
-      <c r="A69" s="125" t="s">
-        <v>159</v>
-      </c>
-      <c r="B69" s="126"/>
-      <c r="C69" s="126"/>
-      <c r="D69" s="126"/>
-      <c r="E69" s="126"/>
-      <c r="F69" s="126"/>
-    </row>
-    <row r="70" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
-      <c r="A70" s="127">
+    <row r="64" s="1" customFormat="1" spans="1:4">
+      <c r="A64" s="128"/>
+      <c r="B64" s="129"/>
+      <c r="D64" s="128"/>
+    </row>
+    <row r="65" s="1" customFormat="1" spans="1:6">
+      <c r="A65" s="130" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="131"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="131"/>
+      <c r="F65" s="131"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="30" customHeight="1" spans="1:6">
+      <c r="A66" s="132">
         <v>32</v>
       </c>
-      <c r="B70" s="128" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" s="43" t="s">
+      <c r="B66" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="E70" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="F70" s="30"/>
+      <c r="C66" s="68" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="68" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="133" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="34"/>
+    </row>
+    <row r="69" s="1" customFormat="1" spans="1:3">
+      <c r="A69" s="134"/>
+      <c r="B69" s="48"/>
+      <c r="C69" s="26"/>
+    </row>
+    <row r="70" s="1" customFormat="1" spans="1:3">
+      <c r="A70" s="134"/>
+      <c r="B70" s="48"/>
+      <c r="C70" s="26"/>
+    </row>
+    <row r="71" s="1" customFormat="1" spans="1:3">
+      <c r="A71" s="134"/>
+      <c r="B71" s="48"/>
+      <c r="C71" s="26"/>
+    </row>
+    <row r="72" s="1" customFormat="1" spans="1:3">
+      <c r="A72" s="134"/>
+      <c r="B72" s="48"/>
+      <c r="C72" s="26"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="1:3">
-      <c r="A73" s="129"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="134"/>
+      <c r="B73" s="48"/>
       <c r="C73" s="26"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="1:3">
-      <c r="A74" s="129"/>
-      <c r="B74" s="46"/>
+      <c r="A74" s="134"/>
+      <c r="B74" s="48"/>
       <c r="C74" s="26"/>
     </row>
-    <row r="75" s="1" customFormat="1" spans="1:3">
-      <c r="A75" s="129"/>
-      <c r="B75" s="46"/>
-      <c r="C75" s="26"/>
-    </row>
-    <row r="76" s="1" customFormat="1" spans="1:3">
-      <c r="A76" s="129"/>
-      <c r="B76" s="46"/>
-      <c r="C76" s="26"/>
-    </row>
-    <row r="77" s="1" customFormat="1" spans="1:3">
-      <c r="A77" s="129"/>
-      <c r="B77" s="46"/>
-      <c r="C77" s="26"/>
-    </row>
-    <row r="78" s="1" customFormat="1" spans="1:3">
-      <c r="A78" s="129"/>
-      <c r="B78" s="46"/>
-      <c r="C78" s="26"/>
-    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A76:A78"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A69:A71"/>
+    <mergeCell ref="A72:A74"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6080,407 +6153,381 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="25.2857142857143" style="47" customWidth="1"/>
-    <col min="2" max="2" width="64.1428571428571" style="46" customWidth="1"/>
-    <col min="3" max="3" width="16.5714285714286" style="46" customWidth="1"/>
-    <col min="4" max="4" width="65.1428571428571" style="46" customWidth="1"/>
-    <col min="5" max="5" width="62" style="46" customWidth="1"/>
-    <col min="6" max="6" width="28.2857142857143" style="46" customWidth="1"/>
-    <col min="7" max="7" width="18.5714285714286" style="46" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="46"/>
+    <col min="1" max="1" width="25.2857142857143" style="49" customWidth="1"/>
+    <col min="2" max="2" width="64.1428571428571" style="48" customWidth="1"/>
+    <col min="3" max="3" width="65.1428571428571" style="48" customWidth="1"/>
+    <col min="4" max="4" width="62" style="48" customWidth="1"/>
+    <col min="5" max="5" width="28.2857142857143" style="48" customWidth="1"/>
+    <col min="6" max="6" width="18.5714285714286" style="48" customWidth="1"/>
+    <col min="7" max="16384" width="9.14285714285714" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" s="46" customFormat="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+    <row r="1" s="48" customFormat="1" spans="1:6">
+      <c r="A1" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>240</v>
-      </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="49" t="s">
+        <v>242</v>
+      </c>
+      <c r="C1" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>241</v>
-      </c>
+      <c r="D1" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="4"/>
       <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="46" customFormat="1" spans="1:7">
-      <c r="A2" s="48" t="s">
+    </row>
+    <row r="2" s="48" customFormat="1" spans="1:6">
+      <c r="A2" s="50" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="51" t="s">
         <v>15</v>
       </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" s="46" customFormat="1" spans="1:1">
-      <c r="A3" s="47"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="50" t="s">
+    </row>
+    <row r="3" s="48" customFormat="1" spans="1:2">
+      <c r="A3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="E4" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="51" t="s">
+    </row>
+    <row r="4" s="48" customFormat="1" spans="1:1">
+      <c r="A4" s="49"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="52" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="150" spans="1:6">
-      <c r="A5" s="53">
+      <c r="B5" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="75" spans="1:3">
+      <c r="A6" s="54">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="53"/>
-      <c r="B6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" s="46" customFormat="1" spans="1:1">
-      <c r="A7" s="47"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" s="46" customFormat="1" spans="1:1">
-      <c r="A9" s="47"/>
-    </row>
-    <row r="10" s="46" customFormat="1" ht="30" spans="1:7">
-      <c r="A10" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="B10" s="55" t="s">
+      <c r="B6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="54"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" s="48" customFormat="1" spans="1:1">
+      <c r="A8" s="49"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C10" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="49" t="s">
+    </row>
+    <row r="10" s="48" customFormat="1" spans="1:1">
+      <c r="A10" s="49"/>
+    </row>
+    <row r="11" s="48" customFormat="1" ht="30" spans="1:6">
+      <c r="A11" s="56" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="49" t="s">
+      <c r="D11" s="57" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" s="46" customFormat="1" spans="1:7">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" s="58"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-    </row>
-    <row r="12" s="46" customFormat="1" spans="1:7">
-      <c r="A12" s="60">
+      <c r="E11" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" s="48" customFormat="1" spans="1:6">
+      <c r="A12" s="58"/>
+      <c r="B12" s="59" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+    </row>
+    <row r="13" s="48" customFormat="1" spans="1:6">
+      <c r="A13" s="61">
         <v>1</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>246</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E12" s="4" t="s">
+      <c r="B13" s="39" t="s">
         <v>248</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" s="46" customFormat="1" spans="1:7">
-      <c r="A13" s="60">
+      <c r="C13" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="E13" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" s="48" customFormat="1" spans="1:6">
+      <c r="A14" s="61">
         <v>2</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="E13" s="35" t="s">
+      <c r="B14" s="39" t="s">
         <v>251</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" s="46" customFormat="1" ht="75" spans="1:7">
-      <c r="A14" s="60">
+      <c r="C14" s="39" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="39" t="s">
+        <v>253</v>
+      </c>
+      <c r="E14" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" s="48" customFormat="1" ht="75" spans="1:6">
+      <c r="A15" s="61">
         <v>3</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="E14" s="35" t="s">
+      <c r="B15" s="39" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" s="46" customFormat="1" ht="30" spans="1:7">
-      <c r="A15" s="60">
+      <c r="C15" s="39" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="39" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" s="48" customFormat="1" ht="30" spans="1:6">
+      <c r="A16" s="61">
         <v>4</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="E15" s="35" t="s">
+      <c r="B16" s="39" t="s">
         <v>257</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" s="46" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="60">
+      <c r="C16" s="39" t="s">
+        <v>258</v>
+      </c>
+      <c r="D16" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="E16" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" s="48" customFormat="1" ht="30" spans="1:6">
+      <c r="A17" s="61">
         <v>5</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="35" t="s">
-        <v>259</v>
-      </c>
-      <c r="E16" s="35" t="s">
+      <c r="B17" s="39" t="s">
         <v>260</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" s="46" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="60">
+      <c r="C17" s="39" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>262</v>
+      </c>
+      <c r="E17" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" s="48" customFormat="1" ht="30" spans="1:6">
+      <c r="A18" s="61">
         <v>6</v>
       </c>
-      <c r="B17" s="35" t="s">
-        <v>261</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="35" t="s">
-        <v>262</v>
-      </c>
-      <c r="E17" s="35" t="s">
+      <c r="B18" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" s="46" customFormat="1" ht="75" spans="1:7">
-      <c r="A18" s="60">
+      <c r="C18" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="E18" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" s="48" customFormat="1" ht="75" spans="1:6">
+      <c r="A19" s="61">
         <v>7</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="35" t="s">
-        <v>265</v>
-      </c>
-      <c r="E18" s="35" t="s">
+      <c r="B19" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" s="46" customFormat="1" spans="1:7">
-      <c r="A19" s="60">
+      <c r="C19" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D19" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="E19" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" s="48" customFormat="1" spans="1:6">
+      <c r="A20" s="61">
         <v>8</v>
       </c>
-      <c r="B19" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="E19" s="35" t="s">
+      <c r="B20" s="39" t="s">
         <v>269</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" s="46" customFormat="1" spans="1:7">
-      <c r="A20" s="60">
+      <c r="C20" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="39" t="s">
+        <v>271</v>
+      </c>
+      <c r="E20" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" s="48" customFormat="1" spans="1:6">
+      <c r="A21" s="61">
         <v>9</v>
       </c>
-      <c r="B20" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="35" t="s">
-        <v>271</v>
-      </c>
-      <c r="E20" s="35" t="s">
+      <c r="B21" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" s="46" customFormat="1" spans="1:7">
-      <c r="A21" s="60">
+      <c r="C21" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D21" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="E21" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" s="48" customFormat="1" spans="1:6">
+      <c r="A22" s="61">
         <v>10</v>
       </c>
-      <c r="B21" s="35" t="s">
-        <v>273</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="35" t="s">
-        <v>274</v>
-      </c>
-      <c r="E21" s="35" t="s">
+      <c r="B22" s="39" t="s">
         <v>275</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" s="46" customFormat="1" spans="1:7">
-      <c r="A22" s="60">
+      <c r="C22" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="E22" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" s="48" customFormat="1" spans="1:6">
+      <c r="A23" s="61">
         <v>11</v>
       </c>
-      <c r="B22" s="35" t="s">
-        <v>276</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="E22" s="35" t="s">
+      <c r="B23" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" s="46" customFormat="1" spans="1:1">
-      <c r="A23" s="47"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="61"/>
-      <c r="B24" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>279</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="62"/>
-    </row>
-    <row r="25" ht="45" spans="1:6">
-      <c r="A25" s="63"/>
-      <c r="B25" s="42" t="s">
+      <c r="D23" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="C25" s="43"/>
-      <c r="D25" s="43" t="s">
+      <c r="E23" s="59" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" s="48" customFormat="1" spans="1:1">
+      <c r="A24" s="49"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="62"/>
+      <c r="B25" s="63" t="s">
         <v>281</v>
       </c>
-      <c r="E25" s="43" t="s">
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+    </row>
+    <row r="26" ht="45" spans="1:5">
+      <c r="A26" s="66"/>
+      <c r="B26" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="F25" s="46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="2:3">
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" s="65"/>
-      <c r="C28" s="65"/>
-    </row>
-    <row r="29" spans="2:3">
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-    </row>
-    <row r="30" spans="2:3">
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
+      <c r="C26" s="68" t="s">
+        <v>283</v>
+      </c>
+      <c r="D26" s="68" t="s">
+        <v>284</v>
+      </c>
+      <c r="E26" s="69" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="2:2">
+      <c r="B27" s="70"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="70"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="71"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="71"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="71"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="71"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B24:D24"/>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="B25:E25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6490,976 +6537,899 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.71428571428571" defaultRowHeight="15" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="15.1428571428571" style="26" customWidth="1"/>
     <col min="2" max="2" width="57.8571428571429" style="26" customWidth="1"/>
-    <col min="3" max="3" width="11.2857142857143" style="26" customWidth="1"/>
-    <col min="4" max="4" width="73.7142857142857" style="26" customWidth="1"/>
-    <col min="5" max="5" width="69.8571428571429" style="26" customWidth="1"/>
-    <col min="6" max="6" width="36.4285714285714" style="26" customWidth="1"/>
-    <col min="7" max="7" width="10.2857142857143" style="26" customWidth="1"/>
-    <col min="8" max="16384" width="8.71428571428571" style="26"/>
+    <col min="3" max="3" width="73.7142857142857" style="26" customWidth="1"/>
+    <col min="4" max="4" width="69.8571428571429" style="26" customWidth="1"/>
+    <col min="5" max="5" width="36.4285714285714" style="26" customWidth="1"/>
+    <col min="6" max="6" width="10.2857142857143" style="26" customWidth="1"/>
+    <col min="7" max="16384" width="8.71428571428571" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" spans="1:7">
+    <row r="1" s="26" customFormat="1" spans="1:4">
       <c r="A1" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="29" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-    </row>
-    <row r="2" s="26" customFormat="1" spans="1:7">
+      <c r="D1" s="29" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" s="26" customFormat="1" spans="1:4">
       <c r="A2" s="27" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="27" t="s">
+        <v>244</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" s="26" customFormat="1" spans="1:7">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-    </row>
-    <row r="4" s="26" customFormat="1" spans="1:7">
-      <c r="A4" s="27" t="s">
+      <c r="D2" s="30"/>
+    </row>
+    <row r="3" s="26" customFormat="1" spans="1:3">
+      <c r="A3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B3" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="27" t="s">
+      <c r="C3" s="30"/>
+    </row>
+    <row r="4" s="26" customFormat="1" spans="1:3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+    </row>
+    <row r="5" s="26" customFormat="1" spans="1:3">
+      <c r="A5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="29"/>
-    </row>
-    <row r="5" s="26" customFormat="1" ht="120" spans="1:7">
-      <c r="A5" s="29"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="30" t="s">
+      <c r="C5" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="29"/>
-    </row>
-    <row r="6" s="26" customFormat="1" spans="1:7">
-      <c r="A6" s="29"/>
-      <c r="B6" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" s="26" customFormat="1" spans="1:7">
-      <c r="A7" s="29"/>
+    </row>
+    <row r="6" s="26" customFormat="1" ht="75" spans="1:3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" s="26" customFormat="1" spans="1:3">
+      <c r="A7" s="30"/>
       <c r="B7" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-    </row>
-    <row r="8" s="26" customFormat="1" spans="1:7">
-      <c r="A8" s="27" t="s">
-        <v>28</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="C7" s="30"/>
+    </row>
+    <row r="8" s="26" customFormat="1" spans="1:3">
+      <c r="A8" s="30"/>
       <c r="B8" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" s="26" customFormat="1" spans="1:7">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" s="26" customFormat="1" spans="1:7">
-      <c r="A10" s="31" t="s">
-        <v>244</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>245</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" s="26" customFormat="1" spans="1:3">
+      <c r="A9" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>288</v>
+      </c>
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" s="26" customFormat="1" spans="1:3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+    </row>
+    <row r="11" s="26" customFormat="1" spans="1:6">
+      <c r="A11" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="D11" s="35" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="11" s="26" customFormat="1" spans="1:7">
-      <c r="A11" s="32"/>
-      <c r="B11" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" s="26" customFormat="1" spans="1:7">
-      <c r="A12" s="29">
+      <c r="E11" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" s="26" customFormat="1" spans="1:6">
+      <c r="A12" s="36"/>
+      <c r="B12" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="37"/>
+    </row>
+    <row r="13" s="26" customFormat="1" spans="1:6">
+      <c r="A13" s="30">
         <v>1</v>
       </c>
-      <c r="B12" s="33" t="s">
-        <v>288</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="E12" s="28" t="s">
+      <c r="B13" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="F12" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" s="26" customFormat="1" spans="1:7">
-      <c r="A13" s="29">
-        <v>2</v>
-      </c>
-      <c r="B13" s="28" t="s">
+      <c r="C13" s="28" t="s">
         <v>291</v>
       </c>
-      <c r="C13" s="29"/>
       <c r="D13" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="30"/>
+    </row>
+    <row r="14" s="26" customFormat="1" spans="1:6">
+      <c r="A14" s="30">
+        <v>2</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>293</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A14" s="29">
-        <v>3</v>
-      </c>
-      <c r="B14" s="29" t="s">
+      <c r="C14" s="28" t="s">
         <v>294</v>
       </c>
-      <c r="C14" s="29"/>
       <c r="D14" s="28" t="s">
         <v>295</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="30"/>
+    </row>
+    <row r="15" s="26" customFormat="1" ht="30" spans="1:6">
+      <c r="A15" s="30">
+        <v>3</v>
+      </c>
+      <c r="B15" s="30" t="s">
         <v>296</v>
       </c>
-      <c r="F14" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="29"/>
-    </row>
-    <row r="15" s="26" customFormat="1" spans="1:7">
-      <c r="A15" s="29">
-        <v>4</v>
-      </c>
-      <c r="B15" s="28" t="s">
+      <c r="C15" s="28" t="s">
         <v>297</v>
       </c>
-      <c r="C15" s="29"/>
       <c r="D15" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="30"/>
+    </row>
+    <row r="16" s="26" customFormat="1" spans="1:6">
+      <c r="A16" s="30">
+        <v>4</v>
+      </c>
+      <c r="B16" s="28" t="s">
         <v>299</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G15" s="29"/>
-    </row>
-    <row r="16" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A16" s="29">
-        <v>5</v>
-      </c>
-      <c r="B16" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="C16" s="29"/>
       <c r="D16" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="30"/>
+    </row>
+    <row r="17" s="26" customFormat="1" ht="30" spans="1:6">
+      <c r="A17" s="30">
+        <v>5</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="F16" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" s="26" customFormat="1" spans="1:7">
-      <c r="A17" s="29">
-        <v>6</v>
-      </c>
-      <c r="B17" s="28" t="s">
+      <c r="C17" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="C17" s="29"/>
       <c r="D17" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="30"/>
+    </row>
+    <row r="18" s="26" customFormat="1" spans="1:6">
+      <c r="A18" s="30">
+        <v>6</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" s="26" customFormat="1" spans="1:7">
-      <c r="A18" s="29">
-        <v>7</v>
-      </c>
-      <c r="B18" s="28" t="s">
+      <c r="C18" s="28" t="s">
         <v>306</v>
       </c>
-      <c r="C18" s="29"/>
       <c r="D18" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="30"/>
+    </row>
+    <row r="19" s="26" customFormat="1" spans="1:6">
+      <c r="A19" s="30">
+        <v>7</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="F18" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="29"/>
-    </row>
-    <row r="19" s="26" customFormat="1" spans="1:7">
-      <c r="A19" s="29">
-        <v>8</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="C19" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="C19" s="29"/>
       <c r="D19" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="30"/>
+    </row>
+    <row r="20" s="26" customFormat="1" spans="1:6">
+      <c r="A20" s="30">
+        <v>8</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="F19" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G19" s="29"/>
-    </row>
-    <row r="20" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A20" s="29">
-        <v>9</v>
-      </c>
-      <c r="B20" s="28" t="s">
+      <c r="C20" s="28" t="s">
         <v>312</v>
       </c>
-      <c r="C20" s="29"/>
       <c r="D20" s="28" t="s">
         <v>313</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="30"/>
+    </row>
+    <row r="21" s="26" customFormat="1" ht="30" spans="1:6">
+      <c r="A21" s="30">
+        <v>9</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>314</v>
       </c>
-      <c r="F20" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A21" s="29">
-        <v>10</v>
-      </c>
-      <c r="B21" s="28" t="s">
+      <c r="C21" s="28" t="s">
         <v>315</v>
       </c>
-      <c r="C21" s="29"/>
       <c r="D21" s="28" t="s">
         <v>316</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="30"/>
+    </row>
+    <row r="22" s="26" customFormat="1" ht="30" spans="1:6">
+      <c r="A22" s="30">
+        <v>10</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>317</v>
       </c>
-      <c r="F21" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G21" s="29"/>
-    </row>
-    <row r="22" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A22" s="29">
-        <v>11</v>
-      </c>
-      <c r="B22" s="28" t="s">
+      <c r="C22" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="C22" s="29"/>
       <c r="D22" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="30"/>
+    </row>
+    <row r="23" s="26" customFormat="1" ht="30" spans="1:6">
+      <c r="A23" s="30">
+        <v>11</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="F22" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" s="26" customFormat="1" spans="1:7">
-      <c r="A23" s="29">
-        <v>12</v>
-      </c>
-      <c r="B23" s="28" t="s">
+      <c r="C23" s="28" t="s">
         <v>321</v>
       </c>
-      <c r="C23" s="29"/>
       <c r="D23" s="28" t="s">
         <v>322</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="30"/>
+    </row>
+    <row r="24" s="26" customFormat="1" spans="1:6">
+      <c r="A24" s="30">
+        <v>12</v>
+      </c>
+      <c r="B24" s="28" t="s">
         <v>323</v>
       </c>
-      <c r="F23" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="29"/>
-    </row>
-    <row r="24" s="26" customFormat="1" spans="1:7">
-      <c r="A24" s="29">
+      <c r="C24" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>325</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="30"/>
+    </row>
+    <row r="25" s="26" customFormat="1" spans="1:6">
+      <c r="A25" s="30">
         <v>13</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="E24" s="28" t="s">
+      <c r="B25" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="F24" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G24" s="29"/>
-    </row>
-    <row r="25" s="26" customFormat="1" spans="1:7">
-      <c r="A25" s="29">
+      <c r="C25" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="30"/>
+    </row>
+    <row r="26" s="26" customFormat="1" spans="1:6">
+      <c r="A26" s="30">
         <v>14</v>
       </c>
-      <c r="B25" s="34" t="s">
-        <v>324</v>
-      </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="E25" s="34" t="s">
+      <c r="B26" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="F25" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="29"/>
-    </row>
-    <row r="26" s="26" customFormat="1" spans="1:7">
-      <c r="A26" s="29">
+      <c r="C26" s="38" t="s">
+        <v>327</v>
+      </c>
+      <c r="D26" s="38" t="s">
+        <v>328</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="30"/>
+    </row>
+    <row r="27" s="26" customFormat="1" spans="1:6">
+      <c r="A27" s="30">
         <v>15</v>
       </c>
-      <c r="B26" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="E26" s="29" t="s">
+      <c r="B27" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="F26" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="29"/>
-    </row>
-    <row r="27" s="26" customFormat="1" spans="1:7">
-      <c r="A27" s="29">
+      <c r="C27" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="30"/>
+    </row>
+    <row r="28" s="26" customFormat="1" spans="1:6">
+      <c r="A28" s="30">
         <v>16</v>
       </c>
-      <c r="B27" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29" t="s">
-        <v>331</v>
-      </c>
-      <c r="E27" s="29" t="s">
+      <c r="B28" s="30" t="s">
         <v>332</v>
       </c>
-      <c r="F27" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" s="26" customFormat="1" spans="1:7">
-      <c r="A28" s="29">
+      <c r="C28" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="30"/>
+    </row>
+    <row r="29" s="26" customFormat="1" spans="1:6">
+      <c r="A29" s="30">
         <v>17</v>
       </c>
-      <c r="B28" s="29" t="s">
-        <v>333</v>
-      </c>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="E28" s="29" t="s">
+      <c r="B29" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="F28" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" s="26" customFormat="1" spans="1:7">
-      <c r="A29" s="29">
+      <c r="C29" s="30" t="s">
+        <v>336</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>337</v>
+      </c>
+      <c r="E29" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="30"/>
+    </row>
+    <row r="30" s="26" customFormat="1" spans="1:6">
+      <c r="A30" s="30">
         <v>18</v>
       </c>
-      <c r="B29" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29" t="s">
-        <v>337</v>
-      </c>
-      <c r="E29" s="29" t="s">
+      <c r="B30" s="30" t="s">
         <v>338</v>
       </c>
-      <c r="F29" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" s="26" customFormat="1" spans="1:7">
-      <c r="A30" s="29">
+      <c r="C30" s="30" t="s">
+        <v>339</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="E30" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="30"/>
+    </row>
+    <row r="31" s="26" customFormat="1" spans="1:6">
+      <c r="A31" s="30">
         <v>19</v>
       </c>
-      <c r="B30" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29" t="s">
-        <v>340</v>
-      </c>
-      <c r="E30" s="29" t="s">
+      <c r="B31" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="F30" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="29"/>
-    </row>
-    <row r="31" s="26" customFormat="1" spans="1:7">
-      <c r="A31" s="29">
+      <c r="C31" s="30" t="s">
+        <v>342</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>343</v>
+      </c>
+      <c r="E31" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="30"/>
+    </row>
+    <row r="32" s="26" customFormat="1" spans="1:6">
+      <c r="A32" s="30">
         <v>20</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>342</v>
-      </c>
-      <c r="C31" s="29"/>
-      <c r="D31" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>272</v>
-      </c>
-      <c r="F31" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G31" s="29"/>
-    </row>
-    <row r="32" s="26" customFormat="1" spans="1:7">
-      <c r="A32" s="29">
-        <v>21</v>
-      </c>
       <c r="B32" s="28" t="s">
-        <v>343</v>
-      </c>
-      <c r="C32" s="29"/>
+        <v>344</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>273</v>
+      </c>
       <c r="D32" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="E32" s="28" t="s">
-        <v>275</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="29"/>
-    </row>
-    <row r="33" s="26" customFormat="1" ht="45" spans="1:7">
-      <c r="A33" s="29">
+      <c r="E32" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" s="30"/>
+    </row>
+    <row r="33" s="26" customFormat="1" spans="1:6">
+      <c r="A33" s="30">
+        <v>21</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>345</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F33" s="30"/>
+    </row>
+    <row r="34" s="26" customFormat="1" ht="45" spans="1:6">
+      <c r="A34" s="30">
         <v>22</v>
       </c>
-      <c r="B33" s="28" t="s">
-        <v>344</v>
-      </c>
-      <c r="C33" s="29"/>
-      <c r="D33" s="28" t="s">
-        <v>345</v>
-      </c>
-      <c r="E33" s="28" t="s">
+      <c r="B34" s="28" t="s">
         <v>346</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="29"/>
-    </row>
-    <row r="34" s="26" customFormat="1" ht="75" spans="1:7">
-      <c r="A34" s="29">
-        <v>23</v>
-      </c>
-      <c r="B34" s="28" t="s">
+      <c r="C34" s="28" t="s">
         <v>347</v>
       </c>
-      <c r="C34" s="29"/>
       <c r="D34" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="E34" s="28" t="s">
+      <c r="E34" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="30"/>
+    </row>
+    <row r="35" s="26" customFormat="1" ht="75" spans="1:6">
+      <c r="A35" s="30">
+        <v>23</v>
+      </c>
+      <c r="B35" s="28" t="s">
         <v>349</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="29"/>
-    </row>
-    <row r="35" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A35" s="29">
-        <v>24</v>
-      </c>
-      <c r="B35" s="28" t="s">
+      <c r="C35" s="28" t="s">
         <v>350</v>
       </c>
-      <c r="C35" s="29"/>
       <c r="D35" s="28" t="s">
         <v>351</v>
       </c>
-      <c r="E35" s="28" t="s">
+      <c r="E35" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F35" s="30"/>
+    </row>
+    <row r="36" s="26" customFormat="1" ht="30" spans="1:6">
+      <c r="A36" s="30">
+        <v>24</v>
+      </c>
+      <c r="B36" s="28" t="s">
         <v>352</v>
       </c>
-      <c r="F35" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" s="29"/>
-    </row>
-    <row r="36" s="26" customFormat="1" spans="1:7">
-      <c r="A36" s="29">
+      <c r="C36" s="28" t="s">
+        <v>353</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>354</v>
+      </c>
+      <c r="E36" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F36" s="30"/>
+    </row>
+    <row r="37" s="26" customFormat="1" spans="1:6">
+      <c r="A37" s="30">
         <v>25</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="E36" s="28" t="s">
+      <c r="B37" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="F36" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="29"/>
-    </row>
-    <row r="37" s="26" customFormat="1" spans="1:7">
-      <c r="A37" s="29">
+      <c r="C37" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E37" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F37" s="30"/>
+    </row>
+    <row r="38" s="26" customFormat="1" spans="1:6">
+      <c r="A38" s="30">
         <v>26</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>353</v>
-      </c>
-      <c r="C37" s="29"/>
-      <c r="D37" s="28" t="s">
-        <v>354</v>
-      </c>
-      <c r="E37" s="28" t="s">
+      <c r="B38" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="F37" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" s="29"/>
-    </row>
-    <row r="38" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A38" s="29">
-        <v>27</v>
-      </c>
-      <c r="B38" s="28" t="s">
+      <c r="C38" s="28" t="s">
         <v>356</v>
       </c>
-      <c r="C38" s="29"/>
       <c r="D38" s="28" t="s">
         <v>357</v>
       </c>
-      <c r="E38" s="28" t="s">
+      <c r="E38" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" s="30"/>
+    </row>
+    <row r="39" s="26" customFormat="1" ht="30" spans="1:6">
+      <c r="A39" s="30">
+        <v>27</v>
+      </c>
+      <c r="B39" s="28" t="s">
         <v>358</v>
       </c>
-      <c r="F38" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G38" s="29"/>
-    </row>
-    <row r="39" s="26" customFormat="1" spans="1:7">
-      <c r="A39" s="29">
+      <c r="C39" s="28" t="s">
+        <v>359</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>360</v>
+      </c>
+      <c r="E39" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="30"/>
+    </row>
+    <row r="40" s="26" customFormat="1" spans="1:6">
+      <c r="A40" s="30">
         <v>28</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>359</v>
-      </c>
-      <c r="C39" s="29"/>
-      <c r="D39" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="F39" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A40" s="29">
-        <v>29</v>
       </c>
       <c r="B40" s="28" t="s">
         <v>361</v>
       </c>
-      <c r="C40" s="29"/>
+      <c r="C40" s="28" t="s">
+        <v>306</v>
+      </c>
       <c r="D40" s="28" t="s">
         <v>362</v>
       </c>
-      <c r="E40" s="28" t="s">
+      <c r="E40" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="30"/>
+    </row>
+    <row r="41" s="26" customFormat="1" ht="30" spans="1:6">
+      <c r="A41" s="30">
+        <v>29</v>
+      </c>
+      <c r="B41" s="28" t="s">
         <v>363</v>
       </c>
-      <c r="F40" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" s="26" customFormat="1" spans="1:7">
-      <c r="A41" s="29">
+      <c r="C41" s="28" t="s">
+        <v>364</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>365</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F41" s="30"/>
+    </row>
+    <row r="42" s="26" customFormat="1" spans="1:6">
+      <c r="A42" s="30">
         <v>30</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C41" s="29"/>
-      <c r="D41" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="E41" s="28" t="s">
+      <c r="B42" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="F41" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" s="26" customFormat="1" spans="1:7">
-      <c r="A42" s="29">
+      <c r="C42" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="30"/>
+    </row>
+    <row r="43" s="26" customFormat="1" spans="1:6">
+      <c r="A43" s="30">
         <v>31</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>364</v>
-      </c>
-      <c r="C42" s="29"/>
-      <c r="D42" s="28" t="s">
-        <v>365</v>
-      </c>
-      <c r="E42" s="28" t="s">
+      <c r="B43" s="28" t="s">
         <v>366</v>
       </c>
-      <c r="F42" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" s="26" customFormat="1" spans="1:7">
-      <c r="A43" s="29">
+      <c r="C43" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D43" s="28" t="s">
+        <v>368</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="30"/>
+    </row>
+    <row r="44" s="26" customFormat="1" spans="1:6">
+      <c r="A44" s="30">
         <v>32</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>367</v>
-      </c>
-      <c r="C43" s="29"/>
-      <c r="D43" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>360</v>
-      </c>
-      <c r="F43" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G43" s="29"/>
-    </row>
-    <row r="44" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A44" s="29">
+      <c r="B44" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>306</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" s="26" customFormat="1" ht="30" spans="1:6">
+      <c r="A45" s="30">
         <v>33</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>368</v>
-      </c>
-      <c r="C44" s="29"/>
-      <c r="D44" s="28" t="s">
-        <v>369</v>
-      </c>
-      <c r="E44" s="28" t="s">
+      <c r="B45" s="28" t="s">
         <v>370</v>
       </c>
-      <c r="F44" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G44" s="29"/>
-    </row>
-    <row r="45" s="26" customFormat="1" spans="1:7">
-      <c r="A45" s="29">
+      <c r="C45" s="28" t="s">
+        <v>371</v>
+      </c>
+      <c r="D45" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F45" s="30"/>
+    </row>
+    <row r="46" s="26" customFormat="1" spans="1:6">
+      <c r="A46" s="30">
         <v>34</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="C45" s="29"/>
-      <c r="D45" s="28" t="s">
-        <v>310</v>
-      </c>
-      <c r="E45" s="28" t="s">
+      <c r="B46" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="F45" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G45" s="29"/>
-    </row>
-    <row r="46" s="26" customFormat="1" ht="30" spans="1:7">
-      <c r="A46" s="29">
+      <c r="C46" s="28" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" s="28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" s="26" customFormat="1" ht="30" spans="1:6">
+      <c r="A47" s="30">
         <v>35</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="28" t="s">
-        <v>372</v>
-      </c>
-      <c r="E46" s="28" t="s">
+      <c r="B47" s="28" t="s">
         <v>373</v>
       </c>
-      <c r="F46" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G46" s="29"/>
-    </row>
-    <row r="47" s="26" customFormat="1" spans="1:7">
-      <c r="A47" s="29">
-        <v>36</v>
-      </c>
-      <c r="B47" s="28" t="s">
+      <c r="C47" s="28" t="s">
         <v>374</v>
       </c>
-      <c r="C47" s="33"/>
       <c r="D47" s="28" t="s">
         <v>375</v>
       </c>
-      <c r="E47" s="28" t="s">
+      <c r="E47" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F47" s="30"/>
+    </row>
+    <row r="48" s="26" customFormat="1" spans="1:6">
+      <c r="A48" s="30">
+        <v>36</v>
+      </c>
+      <c r="B48" s="28" t="s">
         <v>376</v>
       </c>
-      <c r="F47" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G47" s="29"/>
-    </row>
-    <row r="48" s="26" customFormat="1" spans="1:7">
-      <c r="A48" s="29">
-        <v>37</v>
-      </c>
-      <c r="B48" s="28" t="s">
+      <c r="C48" s="28" t="s">
         <v>377</v>
       </c>
-      <c r="C48" s="33"/>
       <c r="D48" s="28" t="s">
         <v>378</v>
       </c>
-      <c r="E48" s="28" t="s">
+      <c r="E48" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F48" s="30"/>
+    </row>
+    <row r="49" s="26" customFormat="1" spans="1:6">
+      <c r="A49" s="30">
+        <v>37</v>
+      </c>
+      <c r="B49" s="28" t="s">
         <v>379</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="29"/>
-    </row>
-    <row r="49" s="26" customFormat="1" spans="1:7">
-      <c r="A49" s="29">
-        <v>38</v>
-      </c>
-      <c r="B49" s="28" t="s">
+      <c r="C49" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="C49" s="29"/>
       <c r="D49" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="E49" s="28" t="s">
+      <c r="E49" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F49" s="30"/>
+    </row>
+    <row r="50" s="26" customFormat="1" spans="1:6">
+      <c r="A50" s="30">
+        <v>38</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="F49" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="29"/>
-    </row>
-    <row r="50" s="26" customFormat="1" spans="1:7">
-      <c r="A50" s="29">
-        <v>39</v>
-      </c>
-      <c r="B50" s="28" t="s">
+      <c r="C50" s="28" t="s">
         <v>383</v>
       </c>
-      <c r="C50" s="29"/>
       <c r="D50" s="28" t="s">
         <v>384</v>
       </c>
-      <c r="E50" s="28" t="s">
+      <c r="E50" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F50" s="30"/>
+    </row>
+    <row r="51" s="26" customFormat="1" spans="1:6">
+      <c r="A51" s="30">
+        <v>39</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>385</v>
       </c>
-      <c r="F50" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="29"/>
-    </row>
-    <row r="51" s="26" customFormat="1" spans="1:7">
-      <c r="A51" s="29">
+      <c r="C51" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="D51" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="E51" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F51" s="30"/>
+    </row>
+    <row r="52" s="26" customFormat="1" spans="1:6">
+      <c r="A52" s="30">
         <v>40</v>
       </c>
-      <c r="B51" s="35" t="s">
-        <v>386</v>
-      </c>
-      <c r="C51" s="4"/>
-      <c r="D51" s="35" t="s">
-        <v>387</v>
-      </c>
-      <c r="E51" s="35" t="s">
+      <c r="B52" s="39" t="s">
         <v>388</v>
       </c>
-      <c r="F51" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G51" s="29"/>
-    </row>
-    <row r="52" s="26" customFormat="1" spans="1:4">
-      <c r="A52" s="36"/>
-      <c r="B52" s="37"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="39"/>
-    </row>
-    <row r="53" s="26" customFormat="1" spans="1:6">
-      <c r="A53" s="29"/>
-      <c r="B53" s="40" t="s">
-        <v>279</v>
-      </c>
-      <c r="C53" s="41"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="29" t="s">
+      <c r="C52" s="39" t="s">
         <v>389</v>
       </c>
-      <c r="F53" s="29"/>
-    </row>
-    <row r="54" s="26" customFormat="1" ht="45" customHeight="1" spans="1:6">
-      <c r="A54" s="29"/>
-      <c r="B54" s="42" t="s">
+      <c r="D52" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="C54" s="43"/>
-      <c r="D54" s="44" t="s">
+      <c r="E52" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="30"/>
+    </row>
+    <row r="53" s="26" customFormat="1" spans="1:3">
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="42"/>
+    </row>
+    <row r="54" s="26" customFormat="1" spans="1:5">
+      <c r="A54" s="30"/>
+      <c r="B54" s="43" t="s">
+        <v>281</v>
+      </c>
+      <c r="C54" s="44"/>
+      <c r="D54" s="37" t="s">
         <v>391</v>
       </c>
-      <c r="E54" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="F54" s="29"/>
-    </row>
-    <row r="56" s="26" customFormat="1" spans="2:3">
-      <c r="B56" s="45"/>
-      <c r="C56" s="45"/>
+      <c r="E54" s="30"/>
+    </row>
+    <row r="55" s="26" customFormat="1" ht="45" customHeight="1" spans="1:5">
+      <c r="A55" s="30"/>
+      <c r="B55" s="45" t="s">
+        <v>392</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>393</v>
+      </c>
+      <c r="D55" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="30"/>
+    </row>
+    <row r="57" s="26" customFormat="1" spans="2:2">
+      <c r="B57" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B53:D53"/>
+  <mergeCells count="2">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B54:C54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7493,14 +7463,14 @@
         <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -7531,18 +7501,18 @@
     </row>
     <row r="4" s="1" customFormat="1" spans="1:8">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="3"/>
       <c r="E4" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -7552,13 +7522,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="8"/>
       <c r="F5" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -7584,10 +7554,10 @@
     </row>
     <row r="8" s="1" customFormat="1" spans="1:8">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -7599,7 +7569,7 @@
     <row r="9" s="1" customFormat="1" ht="30" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="3"/>
@@ -7630,16 +7600,16 @@
     </row>
     <row r="12" s="1" customFormat="1" spans="1:7">
       <c r="A12" s="9" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -7648,7 +7618,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="12" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="14"/>
@@ -7661,11 +7631,11 @@
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="17" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -7676,11 +7646,11 @@
         <v>2</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="17" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -7691,11 +7661,11 @@
         <v>3</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -7706,11 +7676,11 @@
         <v>4</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="17" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -7719,7 +7689,7 @@
     <row r="18" s="1" customFormat="1" spans="1:7">
       <c r="A18" s="15"/>
       <c r="B18" s="12" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="14"/>
@@ -7732,11 +7702,11 @@
         <v>6</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="17" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -7747,11 +7717,11 @@
         <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="17" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -7762,11 +7732,11 @@
         <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -7777,11 +7747,11 @@
         <v>9</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -7790,7 +7760,7 @@
     <row r="23" s="1" customFormat="1" spans="1:7">
       <c r="A23" s="15"/>
       <c r="B23" s="12" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="8"/>
@@ -7803,11 +7773,11 @@
         <v>10</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -7816,7 +7786,7 @@
     <row r="25" s="1" customFormat="1" spans="1:7">
       <c r="A25" s="15"/>
       <c r="B25" s="12" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="8"/>
@@ -7829,11 +7799,11 @@
         <v>11</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -7844,11 +7814,11 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -7859,11 +7829,11 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -7874,7 +7844,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="8"/>
@@ -7887,7 +7857,7 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="8"/>
@@ -7898,7 +7868,7 @@
     <row r="31" s="1" customFormat="1" spans="1:7">
       <c r="A31" s="20"/>
       <c r="B31" s="21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="8"/>
@@ -7911,11 +7881,11 @@
         <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -7926,11 +7896,11 @@
         <v>17</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -7941,11 +7911,11 @@
         <v>18</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -7956,11 +7926,11 @@
         <v>19</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -7971,11 +7941,11 @@
         <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -7986,11 +7956,11 @@
         <v>21</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -8001,11 +7971,11 @@
         <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -8016,11 +7986,11 @@
         <v>23</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -8031,11 +8001,11 @@
         <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -8046,11 +8016,11 @@
         <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -8061,11 +8031,11 @@
         <v>26</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -8076,11 +8046,11 @@
         <v>27</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -8091,11 +8061,11 @@
         <v>28</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -8106,11 +8076,11 @@
         <v>29</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -8121,11 +8091,11 @@
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -8136,7 +8106,7 @@
         <v>31</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="8"/>
@@ -8149,11 +8119,11 @@
         <v>32</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -8164,7 +8134,7 @@
         <v>33</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="8"/>
@@ -8177,11 +8147,11 @@
         <v>34</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -8192,7 +8162,7 @@
         <v>35</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="8"/>
@@ -8205,7 +8175,7 @@
         <v>36</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="8"/>
@@ -8218,7 +8188,7 @@
         <v>37</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="8"/>
@@ -8231,7 +8201,7 @@
         <v>38</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="8"/>
@@ -8251,7 +8221,7 @@
     <row r="56" s="1" customFormat="1" spans="1:7">
       <c r="A56" s="20"/>
       <c r="B56" s="21" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="8"/>
@@ -8264,11 +8234,11 @@
         <v>39</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -8286,7 +8256,7 @@
     <row r="59" s="1" customFormat="1" spans="1:7">
       <c r="A59" s="20"/>
       <c r="B59" s="23" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="8"/>
@@ -8299,11 +8269,11 @@
         <v>40</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -8314,11 +8284,11 @@
         <v>41</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -8329,11 +8299,11 @@
         <v>42</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -8344,14 +8314,14 @@
         <v>43</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -8361,11 +8331,11 @@
         <v>44</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="8" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -8376,11 +8346,11 @@
         <v>45</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="8" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -8391,11 +8361,11 @@
         <v>46</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="8" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -8406,11 +8376,11 @@
         <v>47</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="8" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -8421,11 +8391,11 @@
         <v>48</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -8436,11 +8406,11 @@
         <v>49</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -8451,11 +8421,11 @@
         <v>50</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="8" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -8466,11 +8436,11 @@
         <v>51</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -8481,11 +8451,11 @@
         <v>52</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="8" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="8"/>
@@ -8496,11 +8466,11 @@
         <v>53</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="8" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="8"/>
@@ -8511,11 +8481,11 @@
         <v>54</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="8" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="8"/>
@@ -8526,11 +8496,11 @@
         <v>55</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="8" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="8"/>
@@ -8541,11 +8511,11 @@
         <v>56</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="8" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -8556,11 +8526,11 @@
         <v>57</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="8" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -8569,7 +8539,7 @@
     <row r="78" s="1" customFormat="1" spans="1:7">
       <c r="A78" s="20"/>
       <c r="B78" s="24" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -8582,11 +8552,11 @@
         <v>58</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E79" s="25"/>
       <c r="F79" s="3"/>
@@ -8597,11 +8567,11 @@
         <v>59</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E80" s="25"/>
       <c r="F80" s="3"/>
@@ -8612,11 +8582,11 @@
         <v>60</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
